--- a/public/Updatedtranslations.xlsx
+++ b/public/Updatedtranslations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="635">
   <si>
     <t>English</t>
   </si>
@@ -1181,6 +1181,144 @@
   </si>
   <si>
     <t>وقت</t>
+  </si>
+  <si>
+    <t>EmpCode</t>
+  </si>
+  <si>
+    <t>رمز النبض الكهرومغناطيسي</t>
+  </si>
+  <si>
+    <t>NPBalance</t>
+  </si>
+  <si>
+    <t>LeaveType</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>واضح</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>يبحث</t>
+  </si>
+  <si>
+    <t>Search...</t>
+  </si>
+  <si>
+    <t>Doc Date:</t>
+  </si>
+  <si>
+    <t>تاريخ الوثيقة</t>
+  </si>
+  <si>
+    <t>Doc No:</t>
+  </si>
+  <si>
+    <t>رقم المستند</t>
+  </si>
+  <si>
+    <t>Select Employee</t>
+  </si>
+  <si>
+    <t>حدد الموظف</t>
+  </si>
+  <si>
+    <t>Search for an item</t>
+  </si>
+  <si>
+    <t>البحث عن عنصر...</t>
+  </si>
+  <si>
+    <t>EmpName</t>
+  </si>
+  <si>
+    <t>Basicsalary</t>
+  </si>
+  <si>
+    <t>empcode</t>
+  </si>
+  <si>
+    <t>empname</t>
+  </si>
+  <si>
+    <t>basicsalary</t>
+  </si>
+  <si>
+    <t>Select Data</t>
+  </si>
+  <si>
+    <t>حدد البيانات</t>
+  </si>
+  <si>
+    <t>يبحث...</t>
+  </si>
+  <si>
+    <t>deptHeadCode</t>
+  </si>
+  <si>
+    <t>كود رئيس القسم</t>
+  </si>
+  <si>
+    <t>deptHeadName</t>
+  </si>
+  <si>
+    <t>AllDed Code</t>
+  </si>
+  <si>
+    <t>كود AllDed</t>
+  </si>
+  <si>
+    <t>Allded Name</t>
+  </si>
+  <si>
+    <t>الاسم الكامل</t>
+  </si>
+  <si>
+    <t>Allded Short Name</t>
+  </si>
+  <si>
+    <t>الاسم المختصر</t>
+  </si>
+  <si>
+    <t>SeqNo</t>
+  </si>
+  <si>
+    <t>زرعت</t>
+  </si>
+  <si>
+    <t>Sub Type</t>
+  </si>
+  <si>
+    <t>النوع الفرعي</t>
+  </si>
+  <si>
+    <t>Compulsory for all</t>
+  </si>
+  <si>
+    <t>إلزامي للجميع</t>
+  </si>
+  <si>
+    <t>General Ledger</t>
+  </si>
+  <si>
+    <t>الدفتر العام</t>
+  </si>
+  <si>
+    <t>GL Name</t>
+  </si>
+  <si>
+    <t>اسم GL</t>
+  </si>
+  <si>
+    <t>Load Sample Data</t>
+  </si>
+  <si>
+    <t>تحميل بيانات العينة</t>
   </si>
   <si>
     <t>welcome Back!: "مرحبا بعودتك!",</t>
@@ -1787,7 +1925,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1815,13 +1953,24 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Ui-sans-serif"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor rgb="FFF5F5F5"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1844,7 +1993,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1858,6 +2007,15 @@
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -3684,37 +3842,254 @@
         <v>388</v>
       </c>
     </row>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="A199" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="A212" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="A213" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="A217" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="A220" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="A222" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="A223" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="A224" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="A225" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="A226" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="A227" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="A228" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="A229" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
     <row r="230" ht="15.75" customHeight="1"/>
     <row r="231" ht="15.75" customHeight="1"/>
     <row r="232" ht="15.75" customHeight="1"/>
@@ -4510,2562 +4885,2562 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="B1" s="6" t="str">
+      <c r="A1" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="9" t="str">
         <f t="shared" ref="B1:B197" si="1">TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(A1, FIND(":", A1) - 1), """", ""), "'", ""), ",", ""))</f>
         <v>welcome Back!</v>
       </c>
-      <c r="C1" s="6" t="str">
+      <c r="C1" s="9" t="str">
         <f t="shared" ref="C1:C197" si="2">TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(MID(A1, FIND(":", A1) + 2, LEN(A1)), """", ""), "'", ""), ",", ""))</f>
         <v>مرحبا بعودتك!</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="B2" s="6" t="str">
+      <c r="A2" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Login to your account</v>
       </c>
-      <c r="C2" s="6" t="str">
+      <c r="C2" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تسجيل الدخول إلى حسابك</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B3" s="6" t="str">
+      <c r="A3" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B3" s="9" t="str">
         <f t="shared" si="1"/>
         <v>User Email</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="9" t="str">
         <f t="shared" si="2"/>
         <v>البريد الإلكتروني للمستخدم</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B4" s="6" t="str">
+      <c r="A4" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B4" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Password</v>
       </c>
-      <c r="C4" s="6" t="str">
+      <c r="C4" s="9" t="str">
         <f t="shared" si="2"/>
         <v>كلمة المرور</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B5" s="6" t="str">
+      <c r="A5" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B5" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Select Location</v>
       </c>
-      <c r="C5" s="6" t="str">
+      <c r="C5" s="9" t="str">
         <f t="shared" si="2"/>
         <v>حدد الموقع</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="B6" s="6" t="str">
+      <c r="A6" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B6" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Location 1</v>
       </c>
-      <c r="C6" s="6" t="str">
+      <c r="C6" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الموقع 1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="B7" s="6" t="str">
+      <c r="A7" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B7" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Location 2</v>
       </c>
-      <c r="C7" s="6" t="str">
+      <c r="C7" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الموقع 2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="B8" s="6" t="str">
+      <c r="A8" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B8" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Remember me</v>
       </c>
-      <c r="C8" s="6" t="str">
+      <c r="C8" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تذكرني</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="B9" s="6" t="str">
+      <c r="A9" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B9" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Forgot password?</v>
       </c>
-      <c r="C9" s="6" t="str">
+      <c r="C9" s="9" t="str">
         <f t="shared" si="2"/>
         <v>هل نسيت كلمة المرور؟</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="B10" s="6" t="str">
+      <c r="A10" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="B10" s="9" t="str">
         <f t="shared" si="1"/>
         <v>LOGIN</v>
       </c>
-      <c r="C10" s="6" t="str">
+      <c r="C10" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تسجيل الدخول</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="B11" s="6" t="str">
+      <c r="A11" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B11" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Redefining Employee Management</v>
       </c>
-      <c r="C11" s="6" t="str">
+      <c r="C11" s="9" t="str">
         <f t="shared" si="2"/>
         <v>إعادة تعريف إدارة الموظفين</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="B12" s="6" t="str">
+      <c r="A12" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B12" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Foster a connected workforce with our all-in-one ERP solution.</v>
       </c>
-      <c r="C12" s="6" t="str">
+      <c r="C12" s="9" t="str">
         <f t="shared" si="2"/>
         <v>عزز قوة عاملة متصلة من خلال حل تخطيط موارد المؤسسات (ERP) الشامل لدينا.</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="B13" s="6" t="str">
+      <c r="A13" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B13" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Complete Employee Management Platform</v>
       </c>
-      <c r="C13" s="6" t="str">
+      <c r="C13" s="9" t="str">
         <f t="shared" si="2"/>
         <v>منصة كاملة لإدارة الموظفين</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B14" s="6" t="str">
+      <c r="A14" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="B14" s="9" t="str">
         <f t="shared" si="1"/>
         <v>From recruitment to retirement manage every employee journey seamlessly and efficiently.</v>
       </c>
-      <c r="C14" s="6" t="str">
+      <c r="C14" s="9" t="str">
         <f t="shared" si="2"/>
         <v>من التوظيف إلى التقاعد، قم بإدارة رحلة كل موظف بسلاسة وكفاءة.</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="B15" s="6" t="str">
+      <c r="A15" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B15" s="9" t="str">
         <f t="shared" si="1"/>
         <v>The Future of Workforce Management</v>
       </c>
-      <c r="C15" s="6" t="str">
+      <c r="C15" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مستقبل إدارة القوى العاملة</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="B16" s="6" t="str">
+      <c r="A16" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B16" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Boost Engagement and Compliance with Intuitive ERP Solutions.</v>
       </c>
-      <c r="C16" s="6" t="str">
+      <c r="C16" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تعزيز المشاركة والامتثال من خلال حلول تخطيط موارد المؤسسات (ERP) البديهية.</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="B17" s="6" t="str">
+      <c r="A17" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B17" s="9" t="str">
         <f t="shared" si="1"/>
         <v>January</v>
       </c>
-      <c r="C17" s="6" t="str">
+      <c r="C17" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يناير</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="B18" s="6" t="str">
+      <c r="A18" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B18" s="9" t="str">
         <f t="shared" si="1"/>
         <v>February</v>
       </c>
-      <c r="C18" s="6" t="str">
+      <c r="C18" s="9" t="str">
         <f t="shared" si="2"/>
         <v>فبراير</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="B19" s="6" t="str">
+      <c r="A19" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B19" s="9" t="str">
         <f t="shared" si="1"/>
         <v>March</v>
       </c>
-      <c r="C19" s="6" t="str">
+      <c r="C19" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مارس</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="B20" s="6" t="str">
+      <c r="A20" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B20" s="9" t="str">
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="C20" s="6" t="str">
+      <c r="C20" s="9" t="str">
         <f t="shared" si="2"/>
         <v>أبريل</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="B21" s="6" t="str">
+      <c r="A21" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B21" s="9" t="str">
         <f t="shared" si="1"/>
         <v>May</v>
       </c>
-      <c r="C21" s="6" t="str">
+      <c r="C21" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مايو</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="B22" s="6" t="str">
+      <c r="A22" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B22" s="9" t="str">
         <f t="shared" si="1"/>
         <v>June</v>
       </c>
-      <c r="C22" s="6" t="str">
+      <c r="C22" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يونيو</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B23" s="6" t="str">
+      <c r="A23" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B23" s="9" t="str">
         <f t="shared" si="1"/>
         <v>July</v>
       </c>
-      <c r="C23" s="6" t="str">
+      <c r="C23" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يوليو</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="B24" s="6" t="str">
+      <c r="A24" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="B24" s="9" t="str">
         <f t="shared" si="1"/>
         <v>August</v>
       </c>
-      <c r="C24" s="6" t="str">
+      <c r="C24" s="9" t="str">
         <f t="shared" si="2"/>
         <v>أغسطس</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="B25" s="6" t="str">
+      <c r="A25" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B25" s="9" t="str">
         <f t="shared" si="1"/>
         <v>September</v>
       </c>
-      <c r="C25" s="6" t="str">
+      <c r="C25" s="9" t="str">
         <f t="shared" si="2"/>
         <v>سبتمبر</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="B26" s="6" t="str">
+      <c r="A26" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B26" s="9" t="str">
         <f t="shared" si="1"/>
         <v>October</v>
       </c>
-      <c r="C26" s="6" t="str">
+      <c r="C26" s="9" t="str">
         <f t="shared" si="2"/>
         <v>أكتوبر</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="B27" s="6" t="str">
+      <c r="A27" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="B27" s="9" t="str">
         <f t="shared" si="1"/>
         <v>November</v>
       </c>
-      <c r="C27" s="6" t="str">
+      <c r="C27" s="9" t="str">
         <f t="shared" si="2"/>
         <v>نوفمبر</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="B28" s="6" t="str">
+      <c r="A28" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B28" s="9" t="str">
         <f t="shared" si="1"/>
         <v>December</v>
       </c>
-      <c r="C28" s="6" t="str">
+      <c r="C28" s="9" t="str">
         <f t="shared" si="2"/>
         <v>ديسمبر</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="B29" s="6" t="str">
+      <c r="A29" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B29" s="9" t="str">
         <f t="shared" si="1"/>
         <v>ABSENT</v>
       </c>
-      <c r="C29" s="6" t="str">
+      <c r="C29" s="9" t="str">
         <f t="shared" si="2"/>
         <v>غائب</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="B30" s="6" t="str">
+      <c r="A30" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B30" s="9" t="str">
         <f t="shared" si="1"/>
         <v>LEAVE</v>
       </c>
-      <c r="C30" s="6" t="str">
+      <c r="C30" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يترك</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="B31" s="6" t="str">
+      <c r="A31" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B31" s="9" t="str">
         <f t="shared" si="1"/>
         <v>LOAN</v>
       </c>
-      <c r="C31" s="6" t="str">
+      <c r="C31" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يُقرض</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="B32" s="6" t="str">
+      <c r="A32" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B32" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Late In Early Out</v>
       </c>
-      <c r="C32" s="6" t="str">
+      <c r="C32" s="9" t="str">
         <f t="shared" si="2"/>
         <v>في وقت متأخر، في وقت مبكر للخروج</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="B33" s="6" t="str">
+      <c r="A33" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B33" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Attendance</v>
       </c>
-      <c r="C33" s="6" t="str">
+      <c r="C33" s="9" t="str">
         <f t="shared" si="2"/>
         <v>حضور</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="B34" s="6" t="str">
+      <c r="A34" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B34" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Remarks</v>
       </c>
-      <c r="C34" s="6" t="str">
+      <c r="C34" s="9" t="str">
         <f t="shared" si="2"/>
         <v>ملاحظات</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="B35" s="6" t="str">
+      <c r="A35" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B35" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Type</v>
       </c>
-      <c r="C35" s="6" t="str">
+      <c r="C35" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يكتب</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="B36" s="6" t="str">
+      <c r="A36" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B36" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Location</v>
       </c>
-      <c r="C36" s="6" t="str">
+      <c r="C36" s="9" t="str">
         <f t="shared" si="2"/>
         <v>موقع</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="B37" s="6" t="str">
+      <c r="A37" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B37" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Check In</v>
       </c>
-      <c r="C37" s="6" t="str">
+      <c r="C37" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الدفع</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="B38" s="6" t="str">
+      <c r="A38" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B38" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Check Out</v>
       </c>
-      <c r="C38" s="6" t="str">
+      <c r="C38" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تحقق في</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="B39" s="6" t="str">
+      <c r="A39" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B39" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Office</v>
       </c>
-      <c r="C39" s="6" t="str">
+      <c r="C39" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مكتب</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="B40" s="6" t="str">
+      <c r="A40" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B40" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Client</v>
       </c>
-      <c r="C40" s="6" t="str">
+      <c r="C40" s="9" t="str">
         <f t="shared" si="2"/>
         <v>عميل</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="B41" s="6" t="str">
+      <c r="A41" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B41" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Home</v>
       </c>
-      <c r="C41" s="6" t="str">
+      <c r="C41" s="9" t="str">
         <f t="shared" si="2"/>
         <v>بيت</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="B42" s="6" t="str">
+      <c r="A42" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B42" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Date</v>
       </c>
-      <c r="C42" s="6" t="str">
+      <c r="C42" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تاريخ</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="B43" s="6" t="str">
+      <c r="A43" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B43" s="9" t="str">
         <f t="shared" si="1"/>
         <v>In</v>
       </c>
-      <c r="C43" s="6" t="str">
+      <c r="C43" s="9" t="str">
         <f t="shared" si="2"/>
         <v>في</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="B44" s="6" t="str">
+      <c r="A44" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B44" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Out</v>
       </c>
-      <c r="C44" s="6" t="str">
+      <c r="C44" s="9" t="str">
         <f t="shared" si="2"/>
         <v>خارج</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="B45" s="6" t="str">
+      <c r="A45" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B45" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Shift</v>
       </c>
-      <c r="C45" s="6" t="str">
+      <c r="C45" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يحول</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="B46" s="6" t="str">
+      <c r="A46" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B46" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Training</v>
       </c>
-      <c r="C46" s="6" t="str">
+      <c r="C46" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تمرين</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="B47" s="6" t="str">
+      <c r="A47" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B47" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Attend Date</v>
       </c>
-      <c r="C47" s="6" t="str">
+      <c r="C47" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تاريخ الحضور</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="B48" s="6" t="str">
+      <c r="A48" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B48" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Request Training</v>
       </c>
-      <c r="C48" s="6" t="str">
+      <c r="C48" s="9" t="str">
         <f t="shared" si="2"/>
         <v>طلب التدريب</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="B49" s="6" t="str">
+      <c r="A49" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B49" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Select Training</v>
       </c>
-      <c r="C49" s="6" t="str">
+      <c r="C49" s="9" t="str">
         <f t="shared" si="2"/>
         <v>اختر التدريب</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="B50" s="6" t="str">
+      <c r="A50" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B50" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Choose a training</v>
       </c>
-      <c r="C50" s="6" t="str">
+      <c r="C50" s="9" t="str">
         <f t="shared" si="2"/>
         <v>اختر التدريب</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="B51" s="6" t="str">
+      <c r="A51" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B51" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Pref. Date</v>
       </c>
-      <c r="C51" s="6" t="str">
+      <c r="C51" s="9" t="str">
         <f t="shared" si="2"/>
         <v>التاريخ المفضل</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="B52" s="6" t="str">
+      <c r="A52" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B52" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Reason</v>
       </c>
-      <c r="C52" s="6" t="str">
+      <c r="C52" s="9" t="str">
         <f t="shared" si="2"/>
         <v>سبب</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="B53" s="6" t="str">
+      <c r="A53" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B53" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Save</v>
       </c>
-      <c r="C53" s="6" t="str">
+      <c r="C53" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يحفظ</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="B54" s="6" t="str">
+      <c r="A54" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B54" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Cancel</v>
       </c>
-      <c r="C54" s="6" t="str">
+      <c r="C54" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يلغي</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="B55" s="6" t="str">
+      <c r="A55" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B55" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Holidays</v>
       </c>
-      <c r="C55" s="6" t="str">
+      <c r="C55" s="9" t="str">
         <f t="shared" si="2"/>
         <v>العطل</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="B56" s="6" t="str">
+      <c r="A56" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B56" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Description</v>
       </c>
-      <c r="C56" s="6" t="str">
+      <c r="C56" s="9" t="str">
         <f t="shared" si="2"/>
         <v>وصف</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="B57" s="6" t="str">
+      <c r="A57" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B57" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Documents</v>
       </c>
-      <c r="C57" s="6" t="str">
+      <c r="C57" s="9" t="str">
         <f t="shared" si="2"/>
         <v>وثائق</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="B58" s="6" t="str">
+      <c r="A58" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B58" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Actions</v>
       </c>
-      <c r="C58" s="6" t="str">
+      <c r="C58" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الإجراءات</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="B59" s="6" t="str">
+      <c r="A59" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B59" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Image</v>
       </c>
-      <c r="C59" s="6" t="str">
+      <c r="C59" s="9" t="str">
         <f t="shared" si="2"/>
         <v>صورة</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="B60" s="6" t="str">
+      <c r="A60" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="B60" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Expiry</v>
       </c>
-      <c r="C60" s="6" t="str">
+      <c r="C60" s="9" t="str">
         <f t="shared" si="2"/>
         <v>انتهاء الصلاحية</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="B61" s="6" t="str">
+      <c r="A61" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B61" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Number</v>
       </c>
-      <c r="C61" s="6" t="str">
+      <c r="C61" s="9" t="str">
         <f t="shared" si="2"/>
         <v>رقم</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="B62" s="6" t="str">
+      <c r="A62" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B62" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Staff Ledger</v>
       </c>
-      <c r="C62" s="6" t="str">
+      <c r="C62" s="9" t="str">
         <f t="shared" si="2"/>
         <v>دفتر حسابات الموظفين</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="B63" s="6" t="str">
+      <c r="A63" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B63" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Account</v>
       </c>
-      <c r="C63" s="6" t="str">
+      <c r="C63" s="9" t="str">
         <f t="shared" si="2"/>
         <v>حساب</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="B64" s="6" t="str">
+      <c r="A64" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B64" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Ref#</v>
       </c>
-      <c r="C64" s="6" t="str">
+      <c r="C64" s="9" t="str">
         <f t="shared" si="2"/>
         <v>المرجع #</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="B65" s="6" t="str">
+      <c r="A65" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B65" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Amount</v>
       </c>
-      <c r="C65" s="6" t="str">
+      <c r="C65" s="9" t="str">
         <f t="shared" si="2"/>
         <v>كمية</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B66" s="6" t="str">
+      <c r="A66" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B66" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Announcements</v>
       </c>
-      <c r="C66" s="6" t="str">
+      <c r="C66" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الإعلانات</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B67" s="6" t="str">
+      <c r="A67" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B67" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Latest announcements will appear here.</v>
       </c>
-      <c r="C67" s="6" t="str">
+      <c r="C67" s="9" t="str">
         <f t="shared" si="2"/>
         <v>أحدث الإعلانات ستظهر هنا.</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="B68" s="6" t="str">
+      <c r="A68" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B68" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Monthly Salary Statistics</v>
       </c>
-      <c r="C68" s="6" t="str">
+      <c r="C68" s="9" t="str">
         <f t="shared" si="2"/>
         <v>إحصاءات الرواتب الشهرية</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="B69" s="6" t="str">
+      <c r="A69" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B69" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Loan Request</v>
       </c>
-      <c r="C69" s="6" t="str">
+      <c r="C69" s="9" t="str">
         <f t="shared" si="2"/>
         <v>طلب القرض</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="B70" s="6" t="str">
+      <c r="A70" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B70" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Status</v>
       </c>
-      <c r="C70" s="6" t="str">
+      <c r="C70" s="9" t="str">
         <f t="shared" si="2"/>
         <v>حالة</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="B71" s="6" t="str">
+      <c r="A71" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B71" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Guarantor</v>
       </c>
-      <c r="C71" s="6" t="str">
+      <c r="C71" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الضامن</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="B72" s="6" t="str">
+      <c r="A72" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B72" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Request</v>
       </c>
-      <c r="C72" s="6" t="str">
+      <c r="C72" s="9" t="str">
         <f t="shared" si="2"/>
         <v>طلب</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="B73" s="6" t="str">
+      <c r="A73" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B73" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Expense Request</v>
       </c>
-      <c r="C73" s="6" t="str">
+      <c r="C73" s="9" t="str">
         <f t="shared" si="2"/>
         <v>طلب النفقات</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="B74" s="6" t="str">
+      <c r="A74" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="B74" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Voucher</v>
       </c>
-      <c r="C74" s="6" t="str">
+      <c r="C74" s="9" t="str">
         <f t="shared" si="2"/>
         <v>قسيمة</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="B75" s="6" t="str">
+      <c r="A75" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B75" s="9" t="str">
         <f t="shared" si="1"/>
         <v>New Expense Request</v>
       </c>
-      <c r="C75" s="6" t="str">
+      <c r="C75" s="9" t="str">
         <f t="shared" si="2"/>
         <v>طلب نفقات جديد</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="B76" s="6" t="str">
+      <c r="A76" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B76" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Submit</v>
       </c>
-      <c r="C76" s="6" t="str">
+      <c r="C76" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يُقدِّم</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="B77" s="6" t="str">
+      <c r="A77" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B77" s="9" t="str">
         <f t="shared" si="1"/>
         <v>New Loan Request</v>
       </c>
-      <c r="C77" s="6" t="str">
+      <c r="C77" s="9" t="str">
         <f t="shared" si="2"/>
         <v>طلب قرض جديد</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="B78" s="6" t="str">
+      <c r="A78" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B78" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Personal Loan</v>
       </c>
-      <c r="C78" s="6" t="str">
+      <c r="C78" s="9" t="str">
         <f t="shared" si="2"/>
         <v>القرض الشخصي</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="B79" s="6" t="str">
+      <c r="A79" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="B79" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Car Loan</v>
       </c>
-      <c r="C79" s="6" t="str">
+      <c r="C79" s="9" t="str">
         <f t="shared" si="2"/>
         <v>قرض السيارة</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="B80" s="6" t="str">
+      <c r="A80" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B80" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Home Loan</v>
       </c>
-      <c r="C80" s="6" t="str">
+      <c r="C80" s="9" t="str">
         <f t="shared" si="2"/>
         <v>قرض المنزل</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="B81" s="6" t="str">
+      <c r="A81" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B81" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Travel</v>
       </c>
-      <c r="C81" s="6" t="str">
+      <c r="C81" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يسافر</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="B82" s="6" t="str">
+      <c r="A82" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B82" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Office Supplies</v>
       </c>
-      <c r="C82" s="6" t="str">
+      <c r="C82" s="9" t="str">
         <f t="shared" si="2"/>
         <v>اللوازم المكتبية</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="B83" s="6" t="str">
+      <c r="A83" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B83" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Meals</v>
       </c>
-      <c r="C83" s="6" t="str">
+      <c r="C83" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الوجبات</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="B84" s="6" t="str">
+      <c r="A84" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B84" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Leave</v>
       </c>
-      <c r="C84" s="6" t="str">
+      <c r="C84" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يترك</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="B85" s="6" t="str">
+      <c r="A85" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B85" s="9" t="str">
         <f t="shared" si="1"/>
         <v>From Date</v>
       </c>
-      <c r="C85" s="6" t="str">
+      <c r="C85" s="9" t="str">
         <f t="shared" si="2"/>
         <v>من التاريخ</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="B86" s="6" t="str">
+      <c r="A86" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B86" s="9" t="str">
         <f t="shared" si="1"/>
         <v>To Date</v>
       </c>
-      <c r="C86" s="6" t="str">
+      <c r="C86" s="9" t="str">
         <f t="shared" si="2"/>
         <v>حتى الآن</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="B87" s="6" t="str">
+      <c r="A87" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B87" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Sick Leave</v>
       </c>
-      <c r="C87" s="6" t="str">
+      <c r="C87" s="9" t="str">
         <f t="shared" si="2"/>
         <v>إجازة مرضية</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="B88" s="6" t="str">
+      <c r="A88" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B88" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Casual Leave</v>
       </c>
-      <c r="C88" s="6" t="str">
+      <c r="C88" s="9" t="str">
         <f t="shared" si="2"/>
         <v>إجازة عارضة</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="B89" s="6" t="str">
+      <c r="A89" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="B89" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Paid Leave</v>
       </c>
-      <c r="C89" s="6" t="str">
+      <c r="C89" s="9" t="str">
         <f t="shared" si="2"/>
         <v>إجازة مدفوعة الأجر</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="B90" s="6" t="str">
+      <c r="A90" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B90" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Work from Home</v>
       </c>
-      <c r="C90" s="6" t="str">
+      <c r="C90" s="9" t="str">
         <f t="shared" si="2"/>
         <v>العمل من المنزل</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B91" s="6" t="str">
+      <c r="A91" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B91" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Half Day</v>
       </c>
-      <c r="C91" s="6" t="str">
+      <c r="C91" s="9" t="str">
         <f t="shared" si="2"/>
         <v>نصف يوم</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="B92" s="6" t="str">
+      <c r="A92" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="B92" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Leave Request</v>
       </c>
-      <c r="C92" s="6" t="str">
+      <c r="C92" s="9" t="str">
         <f t="shared" si="2"/>
         <v>طلب الإجازة</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="B93" s="6" t="str">
+      <c r="A93" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="B93" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Pay Slip</v>
       </c>
-      <c r="C93" s="6" t="str">
+      <c r="C93" s="9" t="str">
         <f t="shared" si="2"/>
         <v>قسيمة الدفع</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="B94" s="6" t="str">
+      <c r="A94" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="B94" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Month</v>
       </c>
-      <c r="C94" s="6" t="str">
+      <c r="C94" s="9" t="str">
         <f t="shared" si="2"/>
         <v>شهر</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B95" s="6" t="str">
+      <c r="A95" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B95" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Attendance Request</v>
       </c>
-      <c r="C95" s="6" t="str">
+      <c r="C95" s="9" t="str">
         <f t="shared" si="2"/>
         <v>طلب الحضور</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="B96" s="6" t="str">
+      <c r="A96" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B96" s="9" t="str">
         <f t="shared" si="1"/>
         <v>New</v>
       </c>
-      <c r="C96" s="6" t="str">
+      <c r="C96" s="9" t="str">
         <f t="shared" si="2"/>
         <v>جديد</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="B97" s="6" t="str">
+      <c r="A97" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B97" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Date &amp; Time</v>
       </c>
-      <c r="C97" s="6" t="str">
+      <c r="C97" s="9" t="str">
         <f t="shared" si="2"/>
         <v>التاريخ والوقت</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="B98" s="6" t="str">
+      <c r="A98" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="B98" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Promotion Requests</v>
       </c>
-      <c r="C98" s="6" t="str">
+      <c r="C98" s="9" t="str">
         <f t="shared" si="2"/>
         <v>طلبات الترويج</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="B99" s="6" t="str">
+      <c r="A99" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B99" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Manager</v>
       </c>
-      <c r="C99" s="6" t="str">
+      <c r="C99" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مدير</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="B100" s="6" t="str">
+      <c r="A100" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B100" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Chief</v>
       </c>
-      <c r="C100" s="6" t="str">
+      <c r="C100" s="9" t="str">
         <f t="shared" si="2"/>
         <v>رئيس</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="B101" s="6" t="str">
+      <c r="A101" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B101" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Supervisor</v>
       </c>
-      <c r="C101" s="6" t="str">
+      <c r="C101" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مشرف</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="B102" s="6" t="str">
+      <c r="A102" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B102" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Delete</v>
       </c>
-      <c r="C102" s="6" t="str">
+      <c r="C102" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يمسح</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="B103" s="6" t="str">
+      <c r="A103" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B103" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Print</v>
       </c>
-      <c r="C103" s="6" t="str">
+      <c r="C103" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مطبعة</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="B104" s="6" t="str">
+      <c r="A104" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="B104" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Log</v>
       </c>
-      <c r="C104" s="6" t="str">
+      <c r="C104" s="9" t="str">
         <f t="shared" si="2"/>
         <v>سجل</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="B105" s="6" t="str">
+      <c r="A105" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="B105" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Draft</v>
       </c>
-      <c r="C105" s="6" t="str">
+      <c r="C105" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مسودة</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B106" s="6" t="str">
+      <c r="A106" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B106" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Doc No</v>
       </c>
-      <c r="C106" s="6" t="str">
+      <c r="C106" s="9" t="str">
         <f t="shared" si="2"/>
         <v>:رقم المستند:</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="B107" s="6" t="str">
+      <c r="A107" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B107" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Doc Date</v>
       </c>
-      <c r="C107" s="6" t="str">
+      <c r="C107" s="9" t="str">
         <f t="shared" si="2"/>
         <v>:تاريخ المستند:</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="B108" s="6" t="str">
+      <c r="A108" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B108" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Document Actions</v>
       </c>
-      <c r="C108" s="6" t="str">
+      <c r="C108" s="9" t="str">
         <f t="shared" si="2"/>
         <v>إجراءات المستند</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="B109" s="6" t="str">
+      <c r="A109" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B109" s="9" t="str">
         <f t="shared" si="1"/>
         <v>References</v>
       </c>
-      <c r="C109" s="6" t="str">
+      <c r="C109" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مراجع</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="B110" s="6" t="str">
+      <c r="A110" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B110" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Attachments</v>
       </c>
-      <c r="C110" s="6" t="str">
+      <c r="C110" s="9" t="str">
         <f t="shared" si="2"/>
         <v>المرفقات</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="B111" s="6" t="str">
+      <c r="A111" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B111" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Drafts</v>
       </c>
-      <c r="C111" s="6" t="str">
+      <c r="C111" s="9" t="str">
         <f t="shared" si="2"/>
         <v>المسودات</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="B112" s="6" t="str">
+      <c r="A112" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B112" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Document List</v>
       </c>
-      <c r="C112" s="6" t="str">
+      <c r="C112" s="9" t="str">
         <f t="shared" si="2"/>
         <v>قائمة المستندات</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="B113" s="6" t="str">
+      <c r="A113" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B113" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Notes</v>
       </c>
-      <c r="C113" s="6" t="str">
+      <c r="C113" s="9" t="str">
         <f t="shared" si="2"/>
         <v>ملحوظات</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="B114" s="6" t="str">
+      <c r="A114" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="B114" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Search for an item...</v>
       </c>
-      <c r="C114" s="6" t="str">
+      <c r="C114" s="9" t="str">
         <f t="shared" si="2"/>
         <v>البحث عن عنصر</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="B115" s="6" t="str">
+      <c r="A115" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B115" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Help &amp; Support</v>
       </c>
-      <c r="C115" s="6" t="str">
+      <c r="C115" s="9" t="str">
         <f t="shared" si="2"/>
         <v>المساعدة والدعم</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="B116" s="6" t="str">
+      <c r="A116" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="B116" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Notifications</v>
       </c>
-      <c r="C116" s="6" t="str">
+      <c r="C116" s="9" t="str">
         <f t="shared" si="2"/>
         <v>إشعارات</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="B117" s="6" t="str">
+      <c r="A117" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="B117" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Settings</v>
       </c>
-      <c r="C117" s="6" t="str">
+      <c r="C117" s="9" t="str">
         <f t="shared" si="2"/>
         <v>إعدادات</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="B118" s="6" t="str">
+      <c r="A118" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B118" s="9" t="str">
         <f t="shared" si="1"/>
         <v>System</v>
       </c>
-      <c r="C118" s="6" t="str">
+      <c r="C118" s="9" t="str">
         <f t="shared" si="2"/>
         <v>نظام</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="B119" s="6" t="str">
+      <c r="A119" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="B119" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Master Setup</v>
       </c>
-      <c r="C119" s="6" t="str">
+      <c r="C119" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الإعداد الرئيسي</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="B120" s="6" t="str">
+      <c r="A120" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B120" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Employee Self Service</v>
       </c>
-      <c r="C120" s="6" t="str">
+      <c r="C120" s="9" t="str">
         <f t="shared" si="2"/>
         <v>خدمة الموظفين الذاتية</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="B121" s="6" t="str">
+      <c r="A121" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B121" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Employee Management</v>
       </c>
-      <c r="C121" s="6" t="str">
+      <c r="C121" s="9" t="str">
         <f t="shared" si="2"/>
         <v>إدارة الموظفين</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="B122" s="6" t="str">
+      <c r="A122" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="B122" s="9" t="str">
         <f t="shared" si="1"/>
         <v>View Profile</v>
       </c>
-      <c r="C122" s="6" t="str">
+      <c r="C122" s="9" t="str">
         <f t="shared" si="2"/>
         <v>عرض الملف الشخصي</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="B123" s="6" t="str">
+      <c r="A123" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B123" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Change Password</v>
       </c>
-      <c r="C123" s="6" t="str">
+      <c r="C123" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تغيير كلمة المرور</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="B124" s="6" t="str">
+      <c r="A124" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B124" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Logout</v>
       </c>
-      <c r="C124" s="6" t="str">
+      <c r="C124" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تسجيل الخروج</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="B125" s="6" t="str">
+      <c r="A125" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="B125" s="9" t="str">
         <f t="shared" si="1"/>
         <v>DEPARTMENT WISE</v>
       </c>
-      <c r="C125" s="6" t="str">
+      <c r="C125" s="9" t="str">
         <f t="shared" si="2"/>
         <v>حسب القسم</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="B126" s="6" t="str">
+      <c r="A126" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="B126" s="9" t="str">
         <f t="shared" si="1"/>
         <v>NATIONALITY WISE</v>
       </c>
-      <c r="C126" s="6" t="str">
+      <c r="C126" s="9" t="str">
         <f t="shared" si="2"/>
         <v>حسب الجنسية</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="B127" s="6" t="str">
+      <c r="A127" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="B127" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Announcement</v>
       </c>
-      <c r="C127" s="6" t="str">
+      <c r="C127" s="9" t="str">
         <f t="shared" si="2"/>
         <v>إعلان</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="B128" s="6" t="str">
+      <c r="A128" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="B128" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Type your annoucement here...</v>
       </c>
-      <c r="C128" s="6" t="str">
+      <c r="C128" s="9" t="str">
         <f t="shared" si="2"/>
         <v>اكتب إعلانك هنا...</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="B129" s="6" t="str">
+      <c r="A129" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B129" s="9" t="str">
         <f t="shared" si="1"/>
         <v>SEND</v>
       </c>
-      <c r="C129" s="6" t="str">
+      <c r="C129" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يرسل</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="B130" s="6" t="str">
+      <c r="A130" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="B130" s="9" t="str">
         <f t="shared" si="1"/>
         <v>SALARY</v>
       </c>
-      <c r="C130" s="6" t="str">
+      <c r="C130" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مرتب</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="B131" s="6" t="str">
+      <c r="A131" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="B131" s="9" t="str">
         <f t="shared" si="1"/>
         <v>LOCATION WISE</v>
       </c>
-      <c r="C131" s="6" t="str">
+      <c r="C131" s="9" t="str">
         <f t="shared" si="2"/>
         <v>من حيث الموقع</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="B132" s="6" t="str">
+      <c r="A132" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B132" s="9" t="str">
         <f t="shared" si="1"/>
         <v>HR COMPONENT WISE SALARY</v>
       </c>
-      <c r="C132" s="6" t="str">
+      <c r="C132" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الراتب حسب مكونات الموارد البشرية</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="B133" s="6" t="str">
+      <c r="A133" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="B133" s="9" t="str">
         <f t="shared" si="1"/>
         <v>SALARY BY COMPONENT</v>
       </c>
-      <c r="C133" s="6" t="str">
+      <c r="C133" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الراتب حسب المكون</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="B134" s="6" t="str">
+      <c r="A134" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="B134" s="9" t="str">
         <f t="shared" si="1"/>
         <v>FULL TIME</v>
       </c>
-      <c r="C134" s="6" t="str">
+      <c r="C134" s="9" t="str">
         <f t="shared" si="2"/>
         <v>دوام كامل</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="B135" s="6" t="str">
+      <c r="A135" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="B135" s="9" t="str">
         <f t="shared" si="1"/>
         <v>FEMALE</v>
       </c>
-      <c r="C135" s="6" t="str">
+      <c r="C135" s="9" t="str">
         <f t="shared" si="2"/>
         <v>أنثى</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="B136" s="6" t="str">
+      <c r="A136" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="B136" s="9" t="str">
         <f t="shared" si="1"/>
         <v>MALE</v>
       </c>
-      <c r="C136" s="6" t="str">
+      <c r="C136" s="9" t="str">
         <f t="shared" si="2"/>
         <v>MALE</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="B137" s="6" t="str">
+      <c r="A137" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B137" s="9" t="str">
         <f t="shared" si="1"/>
         <v>HEAD COUNT</v>
       </c>
-      <c r="C137" s="6" t="str">
+      <c r="C137" s="9" t="str">
         <f t="shared" si="2"/>
         <v>عدد الرؤوس</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="B138" s="6" t="str">
+      <c r="A138" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="B138" s="9" t="str">
         <f t="shared" si="1"/>
         <v>REGISTRATION</v>
       </c>
-      <c r="C138" s="6" t="str">
+      <c r="C138" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تسجيل</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="B139" s="6" t="str">
+      <c r="A139" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="B139" s="9" t="str">
         <f t="shared" si="1"/>
         <v>TERMINATION</v>
       </c>
-      <c r="C139" s="6" t="str">
+      <c r="C139" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الإنهاء</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="B140" s="6" t="str">
+      <c r="A140" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B140" s="9" t="str">
         <f t="shared" si="1"/>
         <v>HIRE</v>
       </c>
-      <c r="C140" s="6" t="str">
+      <c r="C140" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يؤجر</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="B141" s="6" t="str">
+      <c r="A141" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="B141" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PART TIME</v>
       </c>
-      <c r="C141" s="6" t="str">
+      <c r="C141" s="9" t="str">
         <f t="shared" si="2"/>
         <v>دوام جزئى</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="B142" s="6" t="str">
+      <c r="A142" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B142" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Payrole Period</v>
       </c>
-      <c r="C142" s="6" t="str">
+      <c r="C142" s="9" t="str">
         <f t="shared" si="2"/>
         <v>فترة الرواتب</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="B143" s="6" t="str">
+      <c r="A143" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B143" s="9" t="str">
         <f t="shared" si="1"/>
         <v>All DED Code</v>
       </c>
-      <c r="C143" s="6" t="str">
+      <c r="C143" s="9" t="str">
         <f t="shared" si="2"/>
         <v>جميع رموز DED</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="B144" s="6" t="str">
+      <c r="A144" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="B144" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Input Type</v>
       </c>
-      <c r="C144" s="6" t="str">
+      <c r="C144" s="9" t="str">
         <f t="shared" si="2"/>
         <v>نوع الإدخال</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="B145" s="6" t="str">
+      <c r="A145" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B145" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Employee Name</v>
       </c>
-      <c r="C145" s="6" t="str">
+      <c r="C145" s="9" t="str">
         <f t="shared" si="2"/>
         <v>اسم الموظف</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="B146" s="6" t="str">
+      <c r="A146" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B146" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Emp Code</v>
       </c>
-      <c r="C146" s="6" t="str">
+      <c r="C146" s="9" t="str">
         <f t="shared" si="2"/>
         <v>رمز الإمب</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="B147" s="6" t="str">
+      <c r="A147" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="B147" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Import Excel</v>
       </c>
-      <c r="C147" s="6" t="str">
+      <c r="C147" s="9" t="str">
         <f t="shared" si="2"/>
         <v>استيراد إكسل</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="B148" s="6" t="str">
+      <c r="A148" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="B148" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Export Excel</v>
       </c>
-      <c r="C148" s="6" t="str">
+      <c r="C148" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تصدير إكسل</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="B149" s="6" t="str">
+      <c r="A149" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B149" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Load Data</v>
       </c>
-      <c r="C149" s="6" t="str">
+      <c r="C149" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تحميل البيانات</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="B150" s="6" t="str">
+      <c r="A150" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="B150" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Details</v>
       </c>
-      <c r="C150" s="6" t="str">
+      <c r="C150" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تفاصيل</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="B151" s="6" t="str">
+      <c r="A151" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B151" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Basic Salary</v>
       </c>
-      <c r="C151" s="6" t="str">
+      <c r="C151" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الراتب الأساسي</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="B152" s="6" t="str">
+      <c r="A152" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="B152" s="9" t="str">
         <f t="shared" si="1"/>
         <v>All Ded Code</v>
       </c>
-      <c r="C152" s="6" t="str">
+      <c r="C152" s="9" t="str">
         <f t="shared" si="2"/>
         <v>جميع رموز DED</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="B153" s="6" t="str">
+      <c r="A153" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="B153" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Select</v>
       </c>
-      <c r="C153" s="6" t="str">
+      <c r="C153" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يختار</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="B154" s="6" t="str">
+      <c r="A154" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="B154" s="9" t="str">
         <f t="shared" si="1"/>
         <v>payroll period</v>
       </c>
-      <c r="C154" s="6" t="str">
+      <c r="C154" s="9" t="str">
         <f t="shared" si="2"/>
         <v>فترة الرواتب</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="B155" s="6" t="str">
+      <c r="A155" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="B155" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Process Date</v>
       </c>
-      <c r="C155" s="6" t="str">
+      <c r="C155" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تاريخ العملية</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="B156" s="6" t="str">
+      <c r="A156" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="B156" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Refresh</v>
       </c>
-      <c r="C156" s="6" t="str">
+      <c r="C156" s="9" t="str">
         <f t="shared" si="2"/>
         <v>ينعش</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="B157" s="6" t="str">
+      <c r="A157" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="B157" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Fill Reference</v>
       </c>
-      <c r="C157" s="6" t="str">
+      <c r="C157" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تعبئة المرجع</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="B158" s="6" t="str">
+      <c r="A158" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="B158" s="9" t="str">
         <f t="shared" si="1"/>
         <v>RefCode</v>
       </c>
-      <c r="C158" s="6" t="str">
+      <c r="C158" s="9" t="str">
         <f t="shared" si="2"/>
         <v>رمز المرجع</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="B159" s="6" t="str">
+      <c r="A159" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="B159" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Idle</v>
       </c>
-      <c r="C159" s="6" t="str">
+      <c r="C159" s="9" t="str">
         <f t="shared" si="2"/>
         <v>عاطل</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="B160" s="6" t="str">
+      <c r="A160" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="B160" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Total Minutes</v>
       </c>
-      <c r="C160" s="6" t="str">
+      <c r="C160" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مجموع الدقائق</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="B161" s="6" t="str">
+      <c r="A161" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="B161" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Total Hours</v>
       </c>
-      <c r="C161" s="6" t="str">
+      <c r="C161" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مجموع الساعات</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="B162" s="6" t="str">
+      <c r="A162" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="B162" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Out Time</v>
       </c>
-      <c r="C162" s="6" t="str">
+      <c r="C162" s="9" t="str">
         <f t="shared" si="2"/>
         <v>وقت الخروج</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="B163" s="6" t="str">
+      <c r="A163" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="B163" s="9" t="str">
         <f t="shared" si="1"/>
         <v>In Time</v>
       </c>
-      <c r="C163" s="6" t="str">
+      <c r="C163" s="9" t="str">
         <f t="shared" si="2"/>
         <v>في الوقت المناسب</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="B164" s="6" t="str">
+      <c r="A164" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="B164" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Dept Code</v>
       </c>
-      <c r="C164" s="6" t="str">
+      <c r="C164" s="9" t="str">
         <f t="shared" si="2"/>
         <v>رمز القسم</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="B165" s="6" t="str">
+      <c r="A165" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="B165" s="9" t="str">
         <f t="shared" si="1"/>
         <v>EmpCompID</v>
       </c>
-      <c r="C165" s="6" t="str">
+      <c r="C165" s="9" t="str">
         <f t="shared" si="2"/>
         <v>معرف الموظف</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="B166" s="6" t="str">
+      <c r="A166" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="B166" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Leave Type</v>
       </c>
-      <c r="C166" s="6" t="str">
+      <c r="C166" s="9" t="str">
         <f t="shared" si="2"/>
         <v>نوع الإجازة</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="B167" s="6" t="str">
+      <c r="A167" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="B167" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Ref No</v>
       </c>
-      <c r="C167" s="6" t="str">
+      <c r="C167" s="9" t="str">
         <f t="shared" si="2"/>
         <v>رقم المرجع</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="B168" s="6" t="str">
+      <c r="A168" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B168" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Attendance from Date</v>
       </c>
-      <c r="C168" s="6" t="str">
+      <c r="C168" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الحضور من تاريخ</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="B169" s="6" t="str">
+      <c r="A169" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="B169" s="9" t="str">
         <f t="shared" si="1"/>
         <v>NP Balance</v>
       </c>
-      <c r="C169" s="6" t="str">
+      <c r="C169" s="9" t="str">
         <f t="shared" si="2"/>
         <v>رصيد NP</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="B170" s="6" t="str">
+      <c r="A170" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="B170" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Entitled</v>
       </c>
-      <c r="C170" s="6" t="str">
+      <c r="C170" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مستحق</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="B171" s="6" t="str">
+      <c r="A171" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="B171" s="9" t="str">
         <f t="shared" si="1"/>
         <v>No Days</v>
       </c>
-      <c r="C171" s="6" t="str">
+      <c r="C171" s="9" t="str">
         <f t="shared" si="2"/>
         <v>لا يوجد أيام</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="B172" s="6" t="str">
+      <c r="A172" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="B172" s="9" t="str">
         <f t="shared" si="1"/>
         <v>CPR</v>
       </c>
-      <c r="C172" s="6" t="str">
+      <c r="C172" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الإنعاش القلبي الرئوي</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="B173" s="6" t="str">
+      <c r="A173" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="B173" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Employee</v>
       </c>
-      <c r="C173" s="6" t="str">
+      <c r="C173" s="9" t="str">
         <f t="shared" si="2"/>
         <v>موظف</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="B174" s="6" t="str">
+      <c r="A174" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="B174" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Accomodation Name</v>
       </c>
-      <c r="C174" s="6" t="str">
+      <c r="C174" s="9" t="str">
         <f t="shared" si="2"/>
         <v>اسم مكان الإقامة</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="B175" s="6" t="str">
+      <c r="A175" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="B175" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Accomodation code</v>
       </c>
-      <c r="C175" s="6" t="str">
+      <c r="C175" s="9" t="str">
         <f t="shared" si="2"/>
         <v>كود الإقامة</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="B176" s="6" t="str">
+      <c r="A176" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="B176" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Road No</v>
       </c>
-      <c r="C176" s="6" t="str">
+      <c r="C176" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الطريق رقم</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="B177" s="6" t="str">
+      <c r="A177" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="B177" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Building No</v>
       </c>
-      <c r="C177" s="6" t="str">
+      <c r="C177" s="9" t="str">
         <f t="shared" si="2"/>
         <v>رقم المبنى</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="B178" s="6" t="str">
+      <c r="A178" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="B178" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Area</v>
       </c>
-      <c r="C178" s="6" t="str">
+      <c r="C178" s="9" t="str">
         <f t="shared" si="2"/>
         <v>منطقة</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="B179" s="6" t="str">
+      <c r="A179" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="B179" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Flat No</v>
       </c>
-      <c r="C179" s="6" t="str">
+      <c r="C179" s="9" t="str">
         <f t="shared" si="2"/>
         <v>شقة رقم</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="B180" s="6" t="str">
+      <c r="A180" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="B180" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Block No</v>
       </c>
-      <c r="C180" s="6" t="str">
+      <c r="C180" s="9" t="str">
         <f t="shared" si="2"/>
         <v>رقم الكتلة</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="B181" s="6" t="str">
+      <c r="A181" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="B181" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Cost</v>
       </c>
-      <c r="C181" s="6" t="str">
+      <c r="C181" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يكلف</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="B182" s="6" t="str">
+      <c r="A182" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="B182" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Airsec Name</v>
       </c>
-      <c r="C182" s="6" t="str">
+      <c r="C182" s="9" t="str">
         <f t="shared" si="2"/>
         <v>اسم ايرسيك</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="B183" s="6" t="str">
+      <c r="A183" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="B183" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Airsec code</v>
       </c>
-      <c r="C183" s="6" t="str">
+      <c r="C183" s="9" t="str">
         <f t="shared" si="2"/>
         <v>كود ايرسيك</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="B184" s="6" t="str">
+      <c r="A184" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="B184" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Default Airline</v>
       </c>
-      <c r="C184" s="6" t="str">
+      <c r="C184" s="9" t="str">
         <f t="shared" si="2"/>
         <v>شركة الطيران الافتراضية</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="B185" s="6" t="str">
+      <c r="A185" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="B185" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Type Something</v>
       </c>
-      <c r="C185" s="6" t="str">
+      <c r="C185" s="9" t="str">
         <f t="shared" si="2"/>
         <v>اكتب شيئا ما</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="B186" s="6" t="str">
+      <c r="A186" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="B186" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Al Arab</v>
       </c>
-      <c r="C186" s="6" t="str">
+      <c r="C186" s="9" t="str">
         <f t="shared" si="2"/>
         <v>أل عرب</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="B187" s="6" t="str">
+      <c r="A187" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="B187" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Company</v>
       </c>
-      <c r="C187" s="6" t="str">
+      <c r="C187" s="9" t="str">
         <f t="shared" si="2"/>
         <v>شركة</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="B188" s="6" t="str">
+      <c r="A188" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="B188" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Department Name</v>
       </c>
-      <c r="C188" s="6" t="str">
+      <c r="C188" s="9" t="str">
         <f t="shared" si="2"/>
         <v>اسم القسم</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="B189" s="6" t="str">
+      <c r="A189" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="B189" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Department code</v>
       </c>
-      <c r="C189" s="6" t="str">
+      <c r="C189" s="9" t="str">
         <f t="shared" si="2"/>
         <v>رمز القسم</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="B190" s="6" t="str">
+      <c r="A190" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="B190" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Department Type</v>
       </c>
-      <c r="C190" s="6" t="str">
+      <c r="C190" s="9" t="str">
         <f t="shared" si="2"/>
         <v>نوع القسم</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="B191" s="6" t="str">
+      <c r="A191" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="B191" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Department Head Name</v>
       </c>
-      <c r="C191" s="6" t="str">
+      <c r="C191" s="9" t="str">
         <f t="shared" si="2"/>
         <v>اسم رئيس القسم</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="B192" s="6" t="str">
+      <c r="A192" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="B192" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Dept head code</v>
       </c>
-      <c r="C192" s="6" t="str">
+      <c r="C192" s="9" t="str">
         <f t="shared" si="2"/>
         <v>رمز رئيس القسم</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="B193" s="6" t="str">
+      <c r="A193" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B193" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Top Level</v>
       </c>
-      <c r="C193" s="6" t="str">
+      <c r="C193" s="9" t="str">
         <f t="shared" si="2"/>
         <v>المستوى الأعلى</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="B194" s="6" t="str">
+      <c r="A194" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="B194" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Sub Level</v>
       </c>
-      <c r="C194" s="6" t="str">
+      <c r="C194" s="9" t="str">
         <f t="shared" si="2"/>
         <v>المستوى الفرعي</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="B195" s="6" t="str">
+      <c r="A195" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="B195" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Sublevel</v>
       </c>
-      <c r="C195" s="6" t="str">
+      <c r="C195" s="9" t="str">
         <f t="shared" si="2"/>
         <v>المستوى الفرعي</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="B196" s="6" t="str">
+      <c r="A196" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="B196" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Action</v>
       </c>
-      <c r="C196" s="6" t="str">
+      <c r="C196" s="9" t="str">
         <f t="shared" si="2"/>
         <v>فعل</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="B197" s="6" t="str">
+      <c r="A197" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="B197" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Time</v>
       </c>
-      <c r="C197" s="6" t="str">
+      <c r="C197" s="9" t="str">
         <f t="shared" si="2"/>
         <v>وقت</v>
       </c>
@@ -7906,9 +8281,9 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="B2" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7916,7 +8291,7 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7924,7 +8299,7 @@
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7932,7 +8307,7 @@
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7940,7 +8315,7 @@
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7948,7 +8323,7 @@
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7956,7 +8331,7 @@
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7964,7 +8339,7 @@
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7972,7 +8347,7 @@
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7980,7 +8355,7 @@
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7988,7 +8363,7 @@
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7996,7 +8371,7 @@
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8004,15 +8379,15 @@
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="B15" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8020,7 +8395,7 @@
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8028,7 +8403,7 @@
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -8036,7 +8411,7 @@
       <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8044,7 +8419,7 @@
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8052,7 +8427,7 @@
       <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8060,7 +8435,7 @@
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8068,7 +8443,7 @@
       <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -8076,7 +8451,7 @@
       <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -8084,7 +8459,7 @@
       <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -8092,7 +8467,7 @@
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8100,7 +8475,7 @@
       <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -8108,7 +8483,7 @@
       <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -8116,7 +8491,7 @@
       <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="10" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8124,7 +8499,7 @@
       <c r="A29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="10" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8132,7 +8507,7 @@
       <c r="A30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8140,7 +8515,7 @@
       <c r="A31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -8148,15 +8523,15 @@
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="B33" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -8164,7 +8539,7 @@
       <c r="A34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -8172,7 +8547,7 @@
       <c r="A35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8180,7 +8555,7 @@
       <c r="A36" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8188,7 +8563,7 @@
       <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8196,7 +8571,7 @@
       <c r="A38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="10" t="s">
         <v>75</v>
       </c>
     </row>
@@ -8204,7 +8579,7 @@
       <c r="A39" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="10" t="s">
         <v>77</v>
       </c>
     </row>
@@ -8212,7 +8587,7 @@
       <c r="A40" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -8220,7 +8595,7 @@
       <c r="A41" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="10" t="s">
         <v>81</v>
       </c>
     </row>
@@ -8228,7 +8603,7 @@
       <c r="A42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="10" t="s">
         <v>83</v>
       </c>
     </row>
@@ -8236,7 +8611,7 @@
       <c r="A43" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -8244,7 +8619,7 @@
       <c r="A44" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -8252,7 +8627,7 @@
       <c r="A45" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="10" t="s">
         <v>89</v>
       </c>
     </row>
@@ -8260,7 +8635,7 @@
       <c r="A46" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="10" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8268,7 +8643,7 @@
       <c r="A47" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="10" t="s">
         <v>93</v>
       </c>
     </row>
@@ -8276,7 +8651,7 @@
       <c r="A48" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="10" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8284,7 +8659,7 @@
       <c r="A49" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="10" t="s">
         <v>97</v>
       </c>
     </row>
@@ -8292,7 +8667,7 @@
       <c r="A50" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8300,7 +8675,7 @@
       <c r="A51" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8308,7 +8683,7 @@
       <c r="A52" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="10" t="s">
         <v>102</v>
       </c>
     </row>
@@ -8316,7 +8691,7 @@
       <c r="A53" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8324,7 +8699,7 @@
       <c r="A54" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="10" t="s">
         <v>106</v>
       </c>
     </row>
@@ -8332,7 +8707,7 @@
       <c r="A55" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="10" t="s">
         <v>108</v>
       </c>
     </row>
@@ -8340,7 +8715,7 @@
       <c r="A56" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="10" t="s">
         <v>110</v>
       </c>
     </row>
@@ -8348,7 +8723,7 @@
       <c r="A57" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="10" t="s">
         <v>112</v>
       </c>
     </row>
@@ -8356,7 +8731,7 @@
       <c r="A58" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="10" t="s">
         <v>114</v>
       </c>
     </row>
@@ -8364,7 +8739,7 @@
       <c r="A59" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="10" t="s">
         <v>116</v>
       </c>
     </row>
@@ -8372,7 +8747,7 @@
       <c r="A60" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="10" t="s">
         <v>118</v>
       </c>
     </row>
@@ -8380,7 +8755,7 @@
       <c r="A61" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="10" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8388,7 +8763,7 @@
       <c r="A62" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="10" t="s">
         <v>122</v>
       </c>
     </row>
@@ -8396,7 +8771,7 @@
       <c r="A63" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -8404,7 +8779,7 @@
       <c r="A64" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="10" t="s">
         <v>189</v>
       </c>
       <c r="C64" s="4"/>
@@ -8413,7 +8788,7 @@
       <c r="A65" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="10" t="s">
         <v>195</v>
       </c>
       <c r="C65" s="4"/>
@@ -9378,2562 +9753,2562 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="B1" s="6" t="str">
+      <c r="A1" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="9" t="str">
         <f t="shared" ref="B1:B197" si="1">TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(A1, FIND(":", A1) - 1), """", ""), "'", ""), ",", ""))</f>
         <v>welcome Back!</v>
       </c>
-      <c r="C1" s="6" t="str">
+      <c r="C1" s="9" t="str">
         <f t="shared" ref="C1:C197" si="2">TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(MID(A1, FIND(":", A1) + 2, LEN(A1)), """", ""), "'", ""), ",", ""))</f>
         <v>مرحبا بعودتك!</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="B2" s="6" t="str">
+      <c r="A2" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Login to your account</v>
       </c>
-      <c r="C2" s="6" t="str">
+      <c r="C2" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تسجيل الدخول إلى حسابك</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B3" s="6" t="str">
+      <c r="A3" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B3" s="9" t="str">
         <f t="shared" si="1"/>
         <v>User Email</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="9" t="str">
         <f t="shared" si="2"/>
         <v>البريد الإلكتروني للمستخدم</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B4" s="6" t="str">
+      <c r="A4" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B4" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Password</v>
       </c>
-      <c r="C4" s="6" t="str">
+      <c r="C4" s="9" t="str">
         <f t="shared" si="2"/>
         <v>كلمة المرور</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B5" s="6" t="str">
+      <c r="A5" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B5" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Select Location</v>
       </c>
-      <c r="C5" s="6" t="str">
+      <c r="C5" s="9" t="str">
         <f t="shared" si="2"/>
         <v>حدد الموقع</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="B6" s="6" t="str">
+      <c r="A6" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B6" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Location 1</v>
       </c>
-      <c r="C6" s="6" t="str">
+      <c r="C6" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الموقع 1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="B7" s="6" t="str">
+      <c r="A7" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B7" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Location 2</v>
       </c>
-      <c r="C7" s="6" t="str">
+      <c r="C7" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الموقع 2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="B8" s="6" t="str">
+      <c r="A8" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B8" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Remember me</v>
       </c>
-      <c r="C8" s="6" t="str">
+      <c r="C8" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تذكرني</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="B9" s="6" t="str">
+      <c r="A9" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B9" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Forgot password?</v>
       </c>
-      <c r="C9" s="6" t="str">
+      <c r="C9" s="9" t="str">
         <f t="shared" si="2"/>
         <v>هل نسيت كلمة المرور؟</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="B10" s="6" t="str">
+      <c r="A10" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="B10" s="9" t="str">
         <f t="shared" si="1"/>
         <v>LOGIN</v>
       </c>
-      <c r="C10" s="6" t="str">
+      <c r="C10" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تسجيل الدخول</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="B11" s="6" t="str">
+      <c r="A11" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B11" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Redefining Employee Management</v>
       </c>
-      <c r="C11" s="6" t="str">
+      <c r="C11" s="9" t="str">
         <f t="shared" si="2"/>
         <v>إعادة تعريف إدارة الموظفين</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="B12" s="6" t="str">
+      <c r="A12" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B12" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Foster a connected workforce with our all-in-one ERP solution.</v>
       </c>
-      <c r="C12" s="6" t="str">
+      <c r="C12" s="9" t="str">
         <f t="shared" si="2"/>
         <v>عزز قوة عاملة متصلة من خلال حل تخطيط موارد المؤسسات (ERP) الشامل لدينا.</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="B13" s="6" t="str">
+      <c r="A13" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B13" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Complete Employee Management Platform</v>
       </c>
-      <c r="C13" s="6" t="str">
+      <c r="C13" s="9" t="str">
         <f t="shared" si="2"/>
         <v>منصة كاملة لإدارة الموظفين</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B14" s="6" t="str">
+      <c r="A14" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="B14" s="9" t="str">
         <f t="shared" si="1"/>
         <v>From recruitment to retirement manage every employee journey seamlessly and efficiently.</v>
       </c>
-      <c r="C14" s="6" t="str">
+      <c r="C14" s="9" t="str">
         <f t="shared" si="2"/>
         <v>من التوظيف إلى التقاعد، قم بإدارة رحلة كل موظف بسلاسة وكفاءة.</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="B15" s="6" t="str">
+      <c r="A15" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B15" s="9" t="str">
         <f t="shared" si="1"/>
         <v>The Future of Workforce Management</v>
       </c>
-      <c r="C15" s="6" t="str">
+      <c r="C15" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مستقبل إدارة القوى العاملة</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="B16" s="6" t="str">
+      <c r="A16" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B16" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Boost Engagement and Compliance with Intuitive ERP Solutions.</v>
       </c>
-      <c r="C16" s="6" t="str">
+      <c r="C16" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تعزيز المشاركة والامتثال من خلال حلول تخطيط موارد المؤسسات (ERP) البديهية.</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="B17" s="6" t="str">
+      <c r="A17" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B17" s="9" t="str">
         <f t="shared" si="1"/>
         <v>January</v>
       </c>
-      <c r="C17" s="6" t="str">
+      <c r="C17" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يناير</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="B18" s="6" t="str">
+      <c r="A18" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B18" s="9" t="str">
         <f t="shared" si="1"/>
         <v>February</v>
       </c>
-      <c r="C18" s="6" t="str">
+      <c r="C18" s="9" t="str">
         <f t="shared" si="2"/>
         <v>فبراير</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="B19" s="6" t="str">
+      <c r="A19" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B19" s="9" t="str">
         <f t="shared" si="1"/>
         <v>March</v>
       </c>
-      <c r="C19" s="6" t="str">
+      <c r="C19" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مارس</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="B20" s="6" t="str">
+      <c r="A20" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B20" s="9" t="str">
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="C20" s="6" t="str">
+      <c r="C20" s="9" t="str">
         <f t="shared" si="2"/>
         <v>أبريل</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="B21" s="6" t="str">
+      <c r="A21" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B21" s="9" t="str">
         <f t="shared" si="1"/>
         <v>May</v>
       </c>
-      <c r="C21" s="6" t="str">
+      <c r="C21" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مايو</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="B22" s="6" t="str">
+      <c r="A22" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B22" s="9" t="str">
         <f t="shared" si="1"/>
         <v>June</v>
       </c>
-      <c r="C22" s="6" t="str">
+      <c r="C22" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يونيو</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B23" s="6" t="str">
+      <c r="A23" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B23" s="9" t="str">
         <f t="shared" si="1"/>
         <v>July</v>
       </c>
-      <c r="C23" s="6" t="str">
+      <c r="C23" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يوليو</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="B24" s="6" t="str">
+      <c r="A24" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="B24" s="9" t="str">
         <f t="shared" si="1"/>
         <v>August</v>
       </c>
-      <c r="C24" s="6" t="str">
+      <c r="C24" s="9" t="str">
         <f t="shared" si="2"/>
         <v>أغسطس</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="B25" s="6" t="str">
+      <c r="A25" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B25" s="9" t="str">
         <f t="shared" si="1"/>
         <v>September</v>
       </c>
-      <c r="C25" s="6" t="str">
+      <c r="C25" s="9" t="str">
         <f t="shared" si="2"/>
         <v>سبتمبر</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="B26" s="6" t="str">
+      <c r="A26" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B26" s="9" t="str">
         <f t="shared" si="1"/>
         <v>October</v>
       </c>
-      <c r="C26" s="6" t="str">
+      <c r="C26" s="9" t="str">
         <f t="shared" si="2"/>
         <v>أكتوبر</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="B27" s="6" t="str">
+      <c r="A27" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="B27" s="9" t="str">
         <f t="shared" si="1"/>
         <v>November</v>
       </c>
-      <c r="C27" s="6" t="str">
+      <c r="C27" s="9" t="str">
         <f t="shared" si="2"/>
         <v>نوفمبر</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="B28" s="6" t="str">
+      <c r="A28" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B28" s="9" t="str">
         <f t="shared" si="1"/>
         <v>December</v>
       </c>
-      <c r="C28" s="6" t="str">
+      <c r="C28" s="9" t="str">
         <f t="shared" si="2"/>
         <v>ديسمبر</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="B29" s="6" t="str">
+      <c r="A29" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B29" s="9" t="str">
         <f t="shared" si="1"/>
         <v>ABSENT</v>
       </c>
-      <c r="C29" s="6" t="str">
+      <c r="C29" s="9" t="str">
         <f t="shared" si="2"/>
         <v>غائب</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="B30" s="6" t="str">
+      <c r="A30" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B30" s="9" t="str">
         <f t="shared" si="1"/>
         <v>LEAVE</v>
       </c>
-      <c r="C30" s="6" t="str">
+      <c r="C30" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يترك</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="B31" s="6" t="str">
+      <c r="A31" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B31" s="9" t="str">
         <f t="shared" si="1"/>
         <v>LOAN</v>
       </c>
-      <c r="C31" s="6" t="str">
+      <c r="C31" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يُقرض</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="B32" s="6" t="str">
+      <c r="A32" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B32" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Late In Early Out</v>
       </c>
-      <c r="C32" s="6" t="str">
+      <c r="C32" s="9" t="str">
         <f t="shared" si="2"/>
         <v>في وقت متأخر، في وقت مبكر للخروج</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="B33" s="6" t="str">
+      <c r="A33" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B33" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Attendance</v>
       </c>
-      <c r="C33" s="6" t="str">
+      <c r="C33" s="9" t="str">
         <f t="shared" si="2"/>
         <v>حضور</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="B34" s="6" t="str">
+      <c r="A34" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B34" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Remarks</v>
       </c>
-      <c r="C34" s="6" t="str">
+      <c r="C34" s="9" t="str">
         <f t="shared" si="2"/>
         <v>ملاحظات</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="B35" s="6" t="str">
+      <c r="A35" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B35" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Type</v>
       </c>
-      <c r="C35" s="6" t="str">
+      <c r="C35" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يكتب</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="B36" s="6" t="str">
+      <c r="A36" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B36" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Location</v>
       </c>
-      <c r="C36" s="6" t="str">
+      <c r="C36" s="9" t="str">
         <f t="shared" si="2"/>
         <v>موقع</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="B37" s="6" t="str">
+      <c r="A37" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B37" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Check In</v>
       </c>
-      <c r="C37" s="6" t="str">
+      <c r="C37" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الدفع</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="B38" s="6" t="str">
+      <c r="A38" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B38" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Check Out</v>
       </c>
-      <c r="C38" s="6" t="str">
+      <c r="C38" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تحقق في</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="B39" s="6" t="str">
+      <c r="A39" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B39" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Office</v>
       </c>
-      <c r="C39" s="6" t="str">
+      <c r="C39" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مكتب</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="B40" s="6" t="str">
+      <c r="A40" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B40" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Client</v>
       </c>
-      <c r="C40" s="6" t="str">
+      <c r="C40" s="9" t="str">
         <f t="shared" si="2"/>
         <v>عميل</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="B41" s="6" t="str">
+      <c r="A41" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B41" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Home</v>
       </c>
-      <c r="C41" s="6" t="str">
+      <c r="C41" s="9" t="str">
         <f t="shared" si="2"/>
         <v>بيت</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="B42" s="6" t="str">
+      <c r="A42" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B42" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Date</v>
       </c>
-      <c r="C42" s="6" t="str">
+      <c r="C42" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تاريخ</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="B43" s="6" t="str">
+      <c r="A43" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B43" s="9" t="str">
         <f t="shared" si="1"/>
         <v>In</v>
       </c>
-      <c r="C43" s="6" t="str">
+      <c r="C43" s="9" t="str">
         <f t="shared" si="2"/>
         <v>في</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="B44" s="6" t="str">
+      <c r="A44" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B44" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Out</v>
       </c>
-      <c r="C44" s="6" t="str">
+      <c r="C44" s="9" t="str">
         <f t="shared" si="2"/>
         <v>خارج</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="B45" s="6" t="str">
+      <c r="A45" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B45" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Shift</v>
       </c>
-      <c r="C45" s="6" t="str">
+      <c r="C45" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يحول</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="B46" s="6" t="str">
+      <c r="A46" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B46" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Training</v>
       </c>
-      <c r="C46" s="6" t="str">
+      <c r="C46" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تمرين</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="B47" s="6" t="str">
+      <c r="A47" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B47" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Attend Date</v>
       </c>
-      <c r="C47" s="6" t="str">
+      <c r="C47" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تاريخ الحضور</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="B48" s="6" t="str">
+      <c r="A48" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B48" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Request Training</v>
       </c>
-      <c r="C48" s="6" t="str">
+      <c r="C48" s="9" t="str">
         <f t="shared" si="2"/>
         <v>طلب التدريب</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="B49" s="6" t="str">
+      <c r="A49" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B49" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Select Training</v>
       </c>
-      <c r="C49" s="6" t="str">
+      <c r="C49" s="9" t="str">
         <f t="shared" si="2"/>
         <v>اختر التدريب</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="B50" s="6" t="str">
+      <c r="A50" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B50" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Choose a training</v>
       </c>
-      <c r="C50" s="6" t="str">
+      <c r="C50" s="9" t="str">
         <f t="shared" si="2"/>
         <v>اختر التدريب</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="B51" s="6" t="str">
+      <c r="A51" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B51" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Pref. Date</v>
       </c>
-      <c r="C51" s="6" t="str">
+      <c r="C51" s="9" t="str">
         <f t="shared" si="2"/>
         <v>التاريخ المفضل</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="B52" s="6" t="str">
+      <c r="A52" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B52" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Reason</v>
       </c>
-      <c r="C52" s="6" t="str">
+      <c r="C52" s="9" t="str">
         <f t="shared" si="2"/>
         <v>سبب</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="B53" s="6" t="str">
+      <c r="A53" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B53" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Save</v>
       </c>
-      <c r="C53" s="6" t="str">
+      <c r="C53" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يحفظ</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="B54" s="6" t="str">
+      <c r="A54" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B54" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Cancel</v>
       </c>
-      <c r="C54" s="6" t="str">
+      <c r="C54" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يلغي</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="B55" s="6" t="str">
+      <c r="A55" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B55" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Holidays</v>
       </c>
-      <c r="C55" s="6" t="str">
+      <c r="C55" s="9" t="str">
         <f t="shared" si="2"/>
         <v>العطل</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="B56" s="6" t="str">
+      <c r="A56" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B56" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Description</v>
       </c>
-      <c r="C56" s="6" t="str">
+      <c r="C56" s="9" t="str">
         <f t="shared" si="2"/>
         <v>وصف</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="B57" s="6" t="str">
+      <c r="A57" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B57" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Documents</v>
       </c>
-      <c r="C57" s="6" t="str">
+      <c r="C57" s="9" t="str">
         <f t="shared" si="2"/>
         <v>وثائق</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="B58" s="6" t="str">
+      <c r="A58" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B58" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Actions</v>
       </c>
-      <c r="C58" s="6" t="str">
+      <c r="C58" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الإجراءات</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="B59" s="6" t="str">
+      <c r="A59" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B59" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Image</v>
       </c>
-      <c r="C59" s="6" t="str">
+      <c r="C59" s="9" t="str">
         <f t="shared" si="2"/>
         <v>صورة</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="B60" s="6" t="str">
+      <c r="A60" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="B60" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Expiry</v>
       </c>
-      <c r="C60" s="6" t="str">
+      <c r="C60" s="9" t="str">
         <f t="shared" si="2"/>
         <v>انتهاء الصلاحية</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="B61" s="6" t="str">
+      <c r="A61" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B61" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Number</v>
       </c>
-      <c r="C61" s="6" t="str">
+      <c r="C61" s="9" t="str">
         <f t="shared" si="2"/>
         <v>رقم</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="B62" s="6" t="str">
+      <c r="A62" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B62" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Staff Ledger</v>
       </c>
-      <c r="C62" s="6" t="str">
+      <c r="C62" s="9" t="str">
         <f t="shared" si="2"/>
         <v>دفتر حسابات الموظفين</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="B63" s="6" t="str">
+      <c r="A63" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B63" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Account</v>
       </c>
-      <c r="C63" s="6" t="str">
+      <c r="C63" s="9" t="str">
         <f t="shared" si="2"/>
         <v>حساب</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="B64" s="6" t="str">
+      <c r="A64" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B64" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Ref#</v>
       </c>
-      <c r="C64" s="6" t="str">
+      <c r="C64" s="9" t="str">
         <f t="shared" si="2"/>
         <v>المرجع #</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="B65" s="6" t="str">
+      <c r="A65" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B65" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Amount</v>
       </c>
-      <c r="C65" s="6" t="str">
+      <c r="C65" s="9" t="str">
         <f t="shared" si="2"/>
         <v>كمية</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B66" s="6" t="str">
+      <c r="A66" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B66" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Announcements</v>
       </c>
-      <c r="C66" s="6" t="str">
+      <c r="C66" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الإعلانات</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B67" s="6" t="str">
+      <c r="A67" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B67" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Latest announcements will appear here.</v>
       </c>
-      <c r="C67" s="6" t="str">
+      <c r="C67" s="9" t="str">
         <f t="shared" si="2"/>
         <v>أحدث الإعلانات ستظهر هنا.</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="B68" s="6" t="str">
+      <c r="A68" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B68" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Monthly Salary Statistics</v>
       </c>
-      <c r="C68" s="6" t="str">
+      <c r="C68" s="9" t="str">
         <f t="shared" si="2"/>
         <v>إحصاءات الرواتب الشهرية</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="B69" s="6" t="str">
+      <c r="A69" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B69" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Loan Request</v>
       </c>
-      <c r="C69" s="6" t="str">
+      <c r="C69" s="9" t="str">
         <f t="shared" si="2"/>
         <v>طلب القرض</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="B70" s="6" t="str">
+      <c r="A70" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B70" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Status</v>
       </c>
-      <c r="C70" s="6" t="str">
+      <c r="C70" s="9" t="str">
         <f t="shared" si="2"/>
         <v>حالة</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="B71" s="6" t="str">
+      <c r="A71" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B71" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Guarantor</v>
       </c>
-      <c r="C71" s="6" t="str">
+      <c r="C71" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الضامن</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="B72" s="6" t="str">
+      <c r="A72" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B72" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Request</v>
       </c>
-      <c r="C72" s="6" t="str">
+      <c r="C72" s="9" t="str">
         <f t="shared" si="2"/>
         <v>طلب</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="B73" s="6" t="str">
+      <c r="A73" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B73" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Expense Request</v>
       </c>
-      <c r="C73" s="6" t="str">
+      <c r="C73" s="9" t="str">
         <f t="shared" si="2"/>
         <v>طلب النفقات</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="B74" s="6" t="str">
+      <c r="A74" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="B74" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Voucher</v>
       </c>
-      <c r="C74" s="6" t="str">
+      <c r="C74" s="9" t="str">
         <f t="shared" si="2"/>
         <v>قسيمة</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="B75" s="6" t="str">
+      <c r="A75" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B75" s="9" t="str">
         <f t="shared" si="1"/>
         <v>New Expense Request</v>
       </c>
-      <c r="C75" s="6" t="str">
+      <c r="C75" s="9" t="str">
         <f t="shared" si="2"/>
         <v>طلب نفقات جديد</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="B76" s="6" t="str">
+      <c r="A76" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B76" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Submit</v>
       </c>
-      <c r="C76" s="6" t="str">
+      <c r="C76" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يُقدِّم</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="B77" s="6" t="str">
+      <c r="A77" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B77" s="9" t="str">
         <f t="shared" si="1"/>
         <v>New Loan Request</v>
       </c>
-      <c r="C77" s="6" t="str">
+      <c r="C77" s="9" t="str">
         <f t="shared" si="2"/>
         <v>طلب قرض جديد</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="B78" s="6" t="str">
+      <c r="A78" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B78" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Personal Loan</v>
       </c>
-      <c r="C78" s="6" t="str">
+      <c r="C78" s="9" t="str">
         <f t="shared" si="2"/>
         <v>القرض الشخصي</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="B79" s="6" t="str">
+      <c r="A79" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="B79" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Car Loan</v>
       </c>
-      <c r="C79" s="6" t="str">
+      <c r="C79" s="9" t="str">
         <f t="shared" si="2"/>
         <v>قرض السيارة</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="B80" s="6" t="str">
+      <c r="A80" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B80" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Home Loan</v>
       </c>
-      <c r="C80" s="6" t="str">
+      <c r="C80" s="9" t="str">
         <f t="shared" si="2"/>
         <v>قرض المنزل</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="B81" s="6" t="str">
+      <c r="A81" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B81" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Travel</v>
       </c>
-      <c r="C81" s="6" t="str">
+      <c r="C81" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يسافر</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="B82" s="6" t="str">
+      <c r="A82" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B82" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Office Supplies</v>
       </c>
-      <c r="C82" s="6" t="str">
+      <c r="C82" s="9" t="str">
         <f t="shared" si="2"/>
         <v>اللوازم المكتبية</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="B83" s="6" t="str">
+      <c r="A83" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B83" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Meals</v>
       </c>
-      <c r="C83" s="6" t="str">
+      <c r="C83" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الوجبات</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="B84" s="6" t="str">
+      <c r="A84" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B84" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Leave</v>
       </c>
-      <c r="C84" s="6" t="str">
+      <c r="C84" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يترك</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="B85" s="6" t="str">
+      <c r="A85" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B85" s="9" t="str">
         <f t="shared" si="1"/>
         <v>From Date</v>
       </c>
-      <c r="C85" s="6" t="str">
+      <c r="C85" s="9" t="str">
         <f t="shared" si="2"/>
         <v>من التاريخ</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="B86" s="6" t="str">
+      <c r="A86" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B86" s="9" t="str">
         <f t="shared" si="1"/>
         <v>To Date</v>
       </c>
-      <c r="C86" s="6" t="str">
+      <c r="C86" s="9" t="str">
         <f t="shared" si="2"/>
         <v>حتى الآن</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="B87" s="6" t="str">
+      <c r="A87" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B87" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Sick Leave</v>
       </c>
-      <c r="C87" s="6" t="str">
+      <c r="C87" s="9" t="str">
         <f t="shared" si="2"/>
         <v>إجازة مرضية</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="B88" s="6" t="str">
+      <c r="A88" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B88" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Casual Leave</v>
       </c>
-      <c r="C88" s="6" t="str">
+      <c r="C88" s="9" t="str">
         <f t="shared" si="2"/>
         <v>إجازة عارضة</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="B89" s="6" t="str">
+      <c r="A89" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="B89" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Paid Leave</v>
       </c>
-      <c r="C89" s="6" t="str">
+      <c r="C89" s="9" t="str">
         <f t="shared" si="2"/>
         <v>إجازة مدفوعة الأجر</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="B90" s="6" t="str">
+      <c r="A90" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B90" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Work from Home</v>
       </c>
-      <c r="C90" s="6" t="str">
+      <c r="C90" s="9" t="str">
         <f t="shared" si="2"/>
         <v>العمل من المنزل</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B91" s="6" t="str">
+      <c r="A91" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B91" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Half Day</v>
       </c>
-      <c r="C91" s="6" t="str">
+      <c r="C91" s="9" t="str">
         <f t="shared" si="2"/>
         <v>نصف يوم</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="B92" s="6" t="str">
+      <c r="A92" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="B92" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Leave Request</v>
       </c>
-      <c r="C92" s="6" t="str">
+      <c r="C92" s="9" t="str">
         <f t="shared" si="2"/>
         <v>طلب الإجازة</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="B93" s="6" t="str">
+      <c r="A93" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="B93" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Pay Slip</v>
       </c>
-      <c r="C93" s="6" t="str">
+      <c r="C93" s="9" t="str">
         <f t="shared" si="2"/>
         <v>قسيمة الدفع</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="B94" s="6" t="str">
+      <c r="A94" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="B94" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Month</v>
       </c>
-      <c r="C94" s="6" t="str">
+      <c r="C94" s="9" t="str">
         <f t="shared" si="2"/>
         <v>شهر</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B95" s="6" t="str">
+      <c r="A95" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B95" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Attendance Request</v>
       </c>
-      <c r="C95" s="6" t="str">
+      <c r="C95" s="9" t="str">
         <f t="shared" si="2"/>
         <v>طلب الحضور</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="B96" s="6" t="str">
+      <c r="A96" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B96" s="9" t="str">
         <f t="shared" si="1"/>
         <v>New</v>
       </c>
-      <c r="C96" s="6" t="str">
+      <c r="C96" s="9" t="str">
         <f t="shared" si="2"/>
         <v>جديد</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="B97" s="6" t="str">
+      <c r="A97" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B97" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Date &amp; Time</v>
       </c>
-      <c r="C97" s="6" t="str">
+      <c r="C97" s="9" t="str">
         <f t="shared" si="2"/>
         <v>التاريخ والوقت</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="B98" s="6" t="str">
+      <c r="A98" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="B98" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Promotion Requests</v>
       </c>
-      <c r="C98" s="6" t="str">
+      <c r="C98" s="9" t="str">
         <f t="shared" si="2"/>
         <v>طلبات الترويج</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="B99" s="6" t="str">
+      <c r="A99" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B99" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Manager</v>
       </c>
-      <c r="C99" s="6" t="str">
+      <c r="C99" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مدير</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="B100" s="6" t="str">
+      <c r="A100" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B100" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Chief</v>
       </c>
-      <c r="C100" s="6" t="str">
+      <c r="C100" s="9" t="str">
         <f t="shared" si="2"/>
         <v>رئيس</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="B101" s="6" t="str">
+      <c r="A101" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B101" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Supervisor</v>
       </c>
-      <c r="C101" s="6" t="str">
+      <c r="C101" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مشرف</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="B102" s="6" t="str">
+      <c r="A102" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B102" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Delete</v>
       </c>
-      <c r="C102" s="6" t="str">
+      <c r="C102" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يمسح</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="B103" s="6" t="str">
+      <c r="A103" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B103" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Print</v>
       </c>
-      <c r="C103" s="6" t="str">
+      <c r="C103" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مطبعة</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="B104" s="6" t="str">
+      <c r="A104" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="B104" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Log</v>
       </c>
-      <c r="C104" s="6" t="str">
+      <c r="C104" s="9" t="str">
         <f t="shared" si="2"/>
         <v>سجل</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="B105" s="6" t="str">
+      <c r="A105" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="B105" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Draft</v>
       </c>
-      <c r="C105" s="6" t="str">
+      <c r="C105" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مسودة</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B106" s="6" t="str">
+      <c r="A106" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B106" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Doc No</v>
       </c>
-      <c r="C106" s="6" t="str">
+      <c r="C106" s="9" t="str">
         <f t="shared" si="2"/>
         <v>:رقم المستند:</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="B107" s="6" t="str">
+      <c r="A107" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B107" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Doc Date</v>
       </c>
-      <c r="C107" s="6" t="str">
+      <c r="C107" s="9" t="str">
         <f t="shared" si="2"/>
         <v>:تاريخ المستند:</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="B108" s="6" t="str">
+      <c r="A108" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B108" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Document Actions</v>
       </c>
-      <c r="C108" s="6" t="str">
+      <c r="C108" s="9" t="str">
         <f t="shared" si="2"/>
         <v>إجراءات المستند</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="B109" s="6" t="str">
+      <c r="A109" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B109" s="9" t="str">
         <f t="shared" si="1"/>
         <v>References</v>
       </c>
-      <c r="C109" s="6" t="str">
+      <c r="C109" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مراجع</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="B110" s="6" t="str">
+      <c r="A110" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B110" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Attachments</v>
       </c>
-      <c r="C110" s="6" t="str">
+      <c r="C110" s="9" t="str">
         <f t="shared" si="2"/>
         <v>المرفقات</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="B111" s="6" t="str">
+      <c r="A111" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B111" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Drafts</v>
       </c>
-      <c r="C111" s="6" t="str">
+      <c r="C111" s="9" t="str">
         <f t="shared" si="2"/>
         <v>المسودات</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="B112" s="6" t="str">
+      <c r="A112" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B112" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Document List</v>
       </c>
-      <c r="C112" s="6" t="str">
+      <c r="C112" s="9" t="str">
         <f t="shared" si="2"/>
         <v>قائمة المستندات</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="B113" s="6" t="str">
+      <c r="A113" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B113" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Notes</v>
       </c>
-      <c r="C113" s="6" t="str">
+      <c r="C113" s="9" t="str">
         <f t="shared" si="2"/>
         <v>ملحوظات</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="B114" s="6" t="str">
+      <c r="A114" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="B114" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Search for an item...</v>
       </c>
-      <c r="C114" s="6" t="str">
+      <c r="C114" s="9" t="str">
         <f t="shared" si="2"/>
         <v>البحث عن عنصر</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="B115" s="6" t="str">
+      <c r="A115" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B115" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Help &amp; Support</v>
       </c>
-      <c r="C115" s="6" t="str">
+      <c r="C115" s="9" t="str">
         <f t="shared" si="2"/>
         <v>المساعدة والدعم</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="B116" s="6" t="str">
+      <c r="A116" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="B116" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Notifications</v>
       </c>
-      <c r="C116" s="6" t="str">
+      <c r="C116" s="9" t="str">
         <f t="shared" si="2"/>
         <v>إشعارات</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="B117" s="6" t="str">
+      <c r="A117" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="B117" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Settings</v>
       </c>
-      <c r="C117" s="6" t="str">
+      <c r="C117" s="9" t="str">
         <f t="shared" si="2"/>
         <v>إعدادات</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="B118" s="6" t="str">
+      <c r="A118" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B118" s="9" t="str">
         <f t="shared" si="1"/>
         <v>System</v>
       </c>
-      <c r="C118" s="6" t="str">
+      <c r="C118" s="9" t="str">
         <f t="shared" si="2"/>
         <v>نظام</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="B119" s="6" t="str">
+      <c r="A119" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="B119" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Master Setup</v>
       </c>
-      <c r="C119" s="6" t="str">
+      <c r="C119" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الإعداد الرئيسي</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="B120" s="6" t="str">
+      <c r="A120" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B120" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Employee Self Service</v>
       </c>
-      <c r="C120" s="6" t="str">
+      <c r="C120" s="9" t="str">
         <f t="shared" si="2"/>
         <v>خدمة الموظفين الذاتية</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="B121" s="6" t="str">
+      <c r="A121" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B121" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Employee Management</v>
       </c>
-      <c r="C121" s="6" t="str">
+      <c r="C121" s="9" t="str">
         <f t="shared" si="2"/>
         <v>إدارة الموظفين</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="B122" s="6" t="str">
+      <c r="A122" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="B122" s="9" t="str">
         <f t="shared" si="1"/>
         <v>View Profile</v>
       </c>
-      <c r="C122" s="6" t="str">
+      <c r="C122" s="9" t="str">
         <f t="shared" si="2"/>
         <v>عرض الملف الشخصي</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="B123" s="6" t="str">
+      <c r="A123" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B123" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Change Password</v>
       </c>
-      <c r="C123" s="6" t="str">
+      <c r="C123" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تغيير كلمة المرور</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="B124" s="6" t="str">
+      <c r="A124" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B124" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Logout</v>
       </c>
-      <c r="C124" s="6" t="str">
+      <c r="C124" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تسجيل الخروج</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="B125" s="6" t="str">
+      <c r="A125" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="B125" s="9" t="str">
         <f t="shared" si="1"/>
         <v>DEPARTMENT WISE</v>
       </c>
-      <c r="C125" s="6" t="str">
+      <c r="C125" s="9" t="str">
         <f t="shared" si="2"/>
         <v>حسب القسم</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="B126" s="6" t="str">
+      <c r="A126" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="B126" s="9" t="str">
         <f t="shared" si="1"/>
         <v>NATIONALITY WISE</v>
       </c>
-      <c r="C126" s="6" t="str">
+      <c r="C126" s="9" t="str">
         <f t="shared" si="2"/>
         <v>حسب الجنسية</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="B127" s="6" t="str">
+      <c r="A127" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="B127" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Announcement</v>
       </c>
-      <c r="C127" s="6" t="str">
+      <c r="C127" s="9" t="str">
         <f t="shared" si="2"/>
         <v>إعلان</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="B128" s="6" t="str">
+      <c r="A128" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="B128" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Type your annoucement here...</v>
       </c>
-      <c r="C128" s="6" t="str">
+      <c r="C128" s="9" t="str">
         <f t="shared" si="2"/>
         <v>اكتب إعلانك هنا...</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="B129" s="6" t="str">
+      <c r="A129" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B129" s="9" t="str">
         <f t="shared" si="1"/>
         <v>SEND</v>
       </c>
-      <c r="C129" s="6" t="str">
+      <c r="C129" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يرسل</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="B130" s="6" t="str">
+      <c r="A130" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="B130" s="9" t="str">
         <f t="shared" si="1"/>
         <v>SALARY</v>
       </c>
-      <c r="C130" s="6" t="str">
+      <c r="C130" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مرتب</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="B131" s="6" t="str">
+      <c r="A131" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="B131" s="9" t="str">
         <f t="shared" si="1"/>
         <v>LOCATION WISE</v>
       </c>
-      <c r="C131" s="6" t="str">
+      <c r="C131" s="9" t="str">
         <f t="shared" si="2"/>
         <v>من حيث الموقع</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="B132" s="6" t="str">
+      <c r="A132" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B132" s="9" t="str">
         <f t="shared" si="1"/>
         <v>HR COMPONENT WISE SALARY</v>
       </c>
-      <c r="C132" s="6" t="str">
+      <c r="C132" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الراتب حسب مكونات الموارد البشرية</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="B133" s="6" t="str">
+      <c r="A133" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="B133" s="9" t="str">
         <f t="shared" si="1"/>
         <v>SALARY BY COMPONENT</v>
       </c>
-      <c r="C133" s="6" t="str">
+      <c r="C133" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الراتب حسب المكون</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="B134" s="6" t="str">
+      <c r="A134" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="B134" s="9" t="str">
         <f t="shared" si="1"/>
         <v>FULL TIME</v>
       </c>
-      <c r="C134" s="6" t="str">
+      <c r="C134" s="9" t="str">
         <f t="shared" si="2"/>
         <v>دوام كامل</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="B135" s="6" t="str">
+      <c r="A135" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="B135" s="9" t="str">
         <f t="shared" si="1"/>
         <v>FEMALE</v>
       </c>
-      <c r="C135" s="6" t="str">
+      <c r="C135" s="9" t="str">
         <f t="shared" si="2"/>
         <v>أنثى</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="B136" s="6" t="str">
+      <c r="A136" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="B136" s="9" t="str">
         <f t="shared" si="1"/>
         <v>MALE</v>
       </c>
-      <c r="C136" s="6" t="str">
+      <c r="C136" s="9" t="str">
         <f t="shared" si="2"/>
         <v>MALE</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="B137" s="6" t="str">
+      <c r="A137" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B137" s="9" t="str">
         <f t="shared" si="1"/>
         <v>HEAD COUNT</v>
       </c>
-      <c r="C137" s="6" t="str">
+      <c r="C137" s="9" t="str">
         <f t="shared" si="2"/>
         <v>عدد الرؤوس</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="B138" s="6" t="str">
+      <c r="A138" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="B138" s="9" t="str">
         <f t="shared" si="1"/>
         <v>REGISTRATION</v>
       </c>
-      <c r="C138" s="6" t="str">
+      <c r="C138" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تسجيل</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="B139" s="6" t="str">
+      <c r="A139" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="B139" s="9" t="str">
         <f t="shared" si="1"/>
         <v>TERMINATION</v>
       </c>
-      <c r="C139" s="6" t="str">
+      <c r="C139" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الإنهاء</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="B140" s="6" t="str">
+      <c r="A140" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B140" s="9" t="str">
         <f t="shared" si="1"/>
         <v>HIRE</v>
       </c>
-      <c r="C140" s="6" t="str">
+      <c r="C140" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يؤجر</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="B141" s="6" t="str">
+      <c r="A141" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="B141" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PART TIME</v>
       </c>
-      <c r="C141" s="6" t="str">
+      <c r="C141" s="9" t="str">
         <f t="shared" si="2"/>
         <v>دوام جزئى</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="B142" s="6" t="str">
+      <c r="A142" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B142" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Payrole Period</v>
       </c>
-      <c r="C142" s="6" t="str">
+      <c r="C142" s="9" t="str">
         <f t="shared" si="2"/>
         <v>فترة الرواتب</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="B143" s="6" t="str">
+      <c r="A143" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B143" s="9" t="str">
         <f t="shared" si="1"/>
         <v>All DED Code</v>
       </c>
-      <c r="C143" s="6" t="str">
+      <c r="C143" s="9" t="str">
         <f t="shared" si="2"/>
         <v>جميع رموز DED</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="B144" s="6" t="str">
+      <c r="A144" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="B144" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Input Type</v>
       </c>
-      <c r="C144" s="6" t="str">
+      <c r="C144" s="9" t="str">
         <f t="shared" si="2"/>
         <v>نوع الإدخال</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="B145" s="6" t="str">
+      <c r="A145" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B145" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Employee Name</v>
       </c>
-      <c r="C145" s="6" t="str">
+      <c r="C145" s="9" t="str">
         <f t="shared" si="2"/>
         <v>اسم الموظف</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="B146" s="6" t="str">
+      <c r="A146" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B146" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Emp Code</v>
       </c>
-      <c r="C146" s="6" t="str">
+      <c r="C146" s="9" t="str">
         <f t="shared" si="2"/>
         <v>رمز الإمب</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="B147" s="6" t="str">
+      <c r="A147" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="B147" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Import Excel</v>
       </c>
-      <c r="C147" s="6" t="str">
+      <c r="C147" s="9" t="str">
         <f t="shared" si="2"/>
         <v>استيراد إكسل</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="B148" s="6" t="str">
+      <c r="A148" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="B148" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Export Excel</v>
       </c>
-      <c r="C148" s="6" t="str">
+      <c r="C148" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تصدير إكسل</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="B149" s="6" t="str">
+      <c r="A149" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B149" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Load Data</v>
       </c>
-      <c r="C149" s="6" t="str">
+      <c r="C149" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تحميل البيانات</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="B150" s="6" t="str">
+      <c r="A150" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="B150" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Details</v>
       </c>
-      <c r="C150" s="6" t="str">
+      <c r="C150" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تفاصيل</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="B151" s="6" t="str">
+      <c r="A151" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B151" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Basic Salary</v>
       </c>
-      <c r="C151" s="6" t="str">
+      <c r="C151" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الراتب الأساسي</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="B152" s="6" t="str">
+      <c r="A152" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="B152" s="9" t="str">
         <f t="shared" si="1"/>
         <v>All Ded Code</v>
       </c>
-      <c r="C152" s="6" t="str">
+      <c r="C152" s="9" t="str">
         <f t="shared" si="2"/>
         <v>جميع رموز DED</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="B153" s="6" t="str">
+      <c r="A153" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="B153" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Select</v>
       </c>
-      <c r="C153" s="6" t="str">
+      <c r="C153" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يختار</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="B154" s="6" t="str">
+      <c r="A154" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="B154" s="9" t="str">
         <f t="shared" si="1"/>
         <v>payroll period</v>
       </c>
-      <c r="C154" s="6" t="str">
+      <c r="C154" s="9" t="str">
         <f t="shared" si="2"/>
         <v>فترة الرواتب</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="B155" s="6" t="str">
+      <c r="A155" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="B155" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Process Date</v>
       </c>
-      <c r="C155" s="6" t="str">
+      <c r="C155" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تاريخ العملية</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="B156" s="6" t="str">
+      <c r="A156" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="B156" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Refresh</v>
       </c>
-      <c r="C156" s="6" t="str">
+      <c r="C156" s="9" t="str">
         <f t="shared" si="2"/>
         <v>ينعش</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="B157" s="6" t="str">
+      <c r="A157" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="B157" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Fill Reference</v>
       </c>
-      <c r="C157" s="6" t="str">
+      <c r="C157" s="9" t="str">
         <f t="shared" si="2"/>
         <v>تعبئة المرجع</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="B158" s="6" t="str">
+      <c r="A158" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="B158" s="9" t="str">
         <f t="shared" si="1"/>
         <v>RefCode</v>
       </c>
-      <c r="C158" s="6" t="str">
+      <c r="C158" s="9" t="str">
         <f t="shared" si="2"/>
         <v>رمز المرجع</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="B159" s="6" t="str">
+      <c r="A159" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="B159" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Idle</v>
       </c>
-      <c r="C159" s="6" t="str">
+      <c r="C159" s="9" t="str">
         <f t="shared" si="2"/>
         <v>عاطل</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="B160" s="6" t="str">
+      <c r="A160" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="B160" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Total Minutes</v>
       </c>
-      <c r="C160" s="6" t="str">
+      <c r="C160" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مجموع الدقائق</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="B161" s="6" t="str">
+      <c r="A161" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="B161" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Total Hours</v>
       </c>
-      <c r="C161" s="6" t="str">
+      <c r="C161" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مجموع الساعات</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="B162" s="6" t="str">
+      <c r="A162" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="B162" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Out Time</v>
       </c>
-      <c r="C162" s="6" t="str">
+      <c r="C162" s="9" t="str">
         <f t="shared" si="2"/>
         <v>وقت الخروج</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="B163" s="6" t="str">
+      <c r="A163" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="B163" s="9" t="str">
         <f t="shared" si="1"/>
         <v>In Time</v>
       </c>
-      <c r="C163" s="6" t="str">
+      <c r="C163" s="9" t="str">
         <f t="shared" si="2"/>
         <v>في الوقت المناسب</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="B164" s="6" t="str">
+      <c r="A164" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="B164" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Dept Code</v>
       </c>
-      <c r="C164" s="6" t="str">
+      <c r="C164" s="9" t="str">
         <f t="shared" si="2"/>
         <v>رمز القسم</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="B165" s="6" t="str">
+      <c r="A165" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="B165" s="9" t="str">
         <f t="shared" si="1"/>
         <v>EmpCompID</v>
       </c>
-      <c r="C165" s="6" t="str">
+      <c r="C165" s="9" t="str">
         <f t="shared" si="2"/>
         <v>معرف الموظف</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="B166" s="6" t="str">
+      <c r="A166" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="B166" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Leave Type</v>
       </c>
-      <c r="C166" s="6" t="str">
+      <c r="C166" s="9" t="str">
         <f t="shared" si="2"/>
         <v>نوع الإجازة</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="B167" s="6" t="str">
+      <c r="A167" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="B167" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Ref No</v>
       </c>
-      <c r="C167" s="6" t="str">
+      <c r="C167" s="9" t="str">
         <f t="shared" si="2"/>
         <v>رقم المرجع</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="B168" s="6" t="str">
+      <c r="A168" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B168" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Attendance from Date</v>
       </c>
-      <c r="C168" s="6" t="str">
+      <c r="C168" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الحضور من تاريخ</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="B169" s="6" t="str">
+      <c r="A169" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="B169" s="9" t="str">
         <f t="shared" si="1"/>
         <v>NP Balance</v>
       </c>
-      <c r="C169" s="6" t="str">
+      <c r="C169" s="9" t="str">
         <f t="shared" si="2"/>
         <v>رصيد NP</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="B170" s="6" t="str">
+      <c r="A170" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="B170" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Entitled</v>
       </c>
-      <c r="C170" s="6" t="str">
+      <c r="C170" s="9" t="str">
         <f t="shared" si="2"/>
         <v>مستحق</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="B171" s="6" t="str">
+      <c r="A171" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="B171" s="9" t="str">
         <f t="shared" si="1"/>
         <v>No Days</v>
       </c>
-      <c r="C171" s="6" t="str">
+      <c r="C171" s="9" t="str">
         <f t="shared" si="2"/>
         <v>لا يوجد أيام</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="B172" s="6" t="str">
+      <c r="A172" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="B172" s="9" t="str">
         <f t="shared" si="1"/>
         <v>CPR</v>
       </c>
-      <c r="C172" s="6" t="str">
+      <c r="C172" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الإنعاش القلبي الرئوي</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="B173" s="6" t="str">
+      <c r="A173" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="B173" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Employee</v>
       </c>
-      <c r="C173" s="6" t="str">
+      <c r="C173" s="9" t="str">
         <f t="shared" si="2"/>
         <v>موظف</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="B174" s="6" t="str">
+      <c r="A174" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="B174" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Accomodation Name</v>
       </c>
-      <c r="C174" s="6" t="str">
+      <c r="C174" s="9" t="str">
         <f t="shared" si="2"/>
         <v>اسم مكان الإقامة</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="B175" s="6" t="str">
+      <c r="A175" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="B175" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Accomodation code</v>
       </c>
-      <c r="C175" s="6" t="str">
+      <c r="C175" s="9" t="str">
         <f t="shared" si="2"/>
         <v>كود الإقامة</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="B176" s="6" t="str">
+      <c r="A176" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="B176" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Road No</v>
       </c>
-      <c r="C176" s="6" t="str">
+      <c r="C176" s="9" t="str">
         <f t="shared" si="2"/>
         <v>الطريق رقم</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="B177" s="6" t="str">
+      <c r="A177" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="B177" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Building No</v>
       </c>
-      <c r="C177" s="6" t="str">
+      <c r="C177" s="9" t="str">
         <f t="shared" si="2"/>
         <v>رقم المبنى</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="B178" s="6" t="str">
+      <c r="A178" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="B178" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Area</v>
       </c>
-      <c r="C178" s="6" t="str">
+      <c r="C178" s="9" t="str">
         <f t="shared" si="2"/>
         <v>منطقة</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="B179" s="6" t="str">
+      <c r="A179" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="B179" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Flat No</v>
       </c>
-      <c r="C179" s="6" t="str">
+      <c r="C179" s="9" t="str">
         <f t="shared" si="2"/>
         <v>شقة رقم</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="B180" s="6" t="str">
+      <c r="A180" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="B180" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Block No</v>
       </c>
-      <c r="C180" s="6" t="str">
+      <c r="C180" s="9" t="str">
         <f t="shared" si="2"/>
         <v>رقم الكتلة</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="B181" s="6" t="str">
+      <c r="A181" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="B181" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Cost</v>
       </c>
-      <c r="C181" s="6" t="str">
+      <c r="C181" s="9" t="str">
         <f t="shared" si="2"/>
         <v>يكلف</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="B182" s="6" t="str">
+      <c r="A182" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="B182" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Airsec Name</v>
       </c>
-      <c r="C182" s="6" t="str">
+      <c r="C182" s="9" t="str">
         <f t="shared" si="2"/>
         <v>اسم ايرسيك</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="B183" s="6" t="str">
+      <c r="A183" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="B183" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Airsec code</v>
       </c>
-      <c r="C183" s="6" t="str">
+      <c r="C183" s="9" t="str">
         <f t="shared" si="2"/>
         <v>كود ايرسيك</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="B184" s="6" t="str">
+      <c r="A184" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="B184" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Default Airline</v>
       </c>
-      <c r="C184" s="6" t="str">
+      <c r="C184" s="9" t="str">
         <f t="shared" si="2"/>
         <v>شركة الطيران الافتراضية</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="B185" s="6" t="str">
+      <c r="A185" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="B185" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Type Something</v>
       </c>
-      <c r="C185" s="6" t="str">
+      <c r="C185" s="9" t="str">
         <f t="shared" si="2"/>
         <v>اكتب شيئا ما</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="B186" s="6" t="str">
+      <c r="A186" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="B186" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Al Arab</v>
       </c>
-      <c r="C186" s="6" t="str">
+      <c r="C186" s="9" t="str">
         <f t="shared" si="2"/>
         <v>أل عرب</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="B187" s="6" t="str">
+      <c r="A187" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="B187" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Company</v>
       </c>
-      <c r="C187" s="6" t="str">
+      <c r="C187" s="9" t="str">
         <f t="shared" si="2"/>
         <v>شركة</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="B188" s="6" t="str">
+      <c r="A188" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="B188" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Department Name</v>
       </c>
-      <c r="C188" s="6" t="str">
+      <c r="C188" s="9" t="str">
         <f t="shared" si="2"/>
         <v>اسم القسم</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="B189" s="6" t="str">
+      <c r="A189" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="B189" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Department code</v>
       </c>
-      <c r="C189" s="6" t="str">
+      <c r="C189" s="9" t="str">
         <f t="shared" si="2"/>
         <v>رمز القسم</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="B190" s="6" t="str">
+      <c r="A190" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="B190" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Department Type</v>
       </c>
-      <c r="C190" s="6" t="str">
+      <c r="C190" s="9" t="str">
         <f t="shared" si="2"/>
         <v>نوع القسم</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="B191" s="6" t="str">
+      <c r="A191" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="B191" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Department Head Name</v>
       </c>
-      <c r="C191" s="6" t="str">
+      <c r="C191" s="9" t="str">
         <f t="shared" si="2"/>
         <v>اسم رئيس القسم</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="B192" s="6" t="str">
+      <c r="A192" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="B192" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Dept head code</v>
       </c>
-      <c r="C192" s="6" t="str">
+      <c r="C192" s="9" t="str">
         <f t="shared" si="2"/>
         <v>رمز رئيس القسم</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="B193" s="6" t="str">
+      <c r="A193" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B193" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Top Level</v>
       </c>
-      <c r="C193" s="6" t="str">
+      <c r="C193" s="9" t="str">
         <f t="shared" si="2"/>
         <v>المستوى الأعلى</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="B194" s="6" t="str">
+      <c r="A194" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="B194" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Sub Level</v>
       </c>
-      <c r="C194" s="6" t="str">
+      <c r="C194" s="9" t="str">
         <f t="shared" si="2"/>
         <v>المستوى الفرعي</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="B195" s="6" t="str">
+      <c r="A195" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="B195" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Sublevel</v>
       </c>
-      <c r="C195" s="6" t="str">
+      <c r="C195" s="9" t="str">
         <f t="shared" si="2"/>
         <v>المستوى الفرعي</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="B196" s="6" t="str">
+      <c r="A196" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="B196" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Action</v>
       </c>
-      <c r="C196" s="6" t="str">
+      <c r="C196" s="9" t="str">
         <f t="shared" si="2"/>
         <v>فعل</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="B197" s="6" t="str">
+      <c r="A197" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="B197" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Time</v>
       </c>
-      <c r="C197" s="6" t="str">
+      <c r="C197" s="9" t="str">
         <f t="shared" si="2"/>
         <v>وقت</v>
       </c>

--- a/public/Updatedtranslations.xlsx
+++ b/public/Updatedtranslations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="777">
   <si>
     <t>English</t>
   </si>
@@ -1319,6 +1319,432 @@
   </si>
   <si>
     <t>تحميل بيانات العينة</t>
+  </si>
+  <si>
+    <t>Fill Form</t>
+  </si>
+  <si>
+    <t>إملأ النموذج</t>
+  </si>
+  <si>
+    <t>Add a note</t>
+  </si>
+  <si>
+    <t>أضف ملاحظة</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>يضيف</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>يفتح</t>
+  </si>
+  <si>
+    <t>Select Leave Type</t>
+  </si>
+  <si>
+    <t>حدد نوع الإجازة</t>
+  </si>
+  <si>
+    <t>Search  references...</t>
+  </si>
+  <si>
+    <t>البحث عن المراجع...</t>
+  </si>
+  <si>
+    <t>Reference Type</t>
+  </si>
+  <si>
+    <t>نوع المرجع</t>
+  </si>
+  <si>
+    <t>Download</t>
+  </si>
+  <si>
+    <t>تحميل</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>نعم</t>
+  </si>
+  <si>
+    <t>رقم الوثيقة</t>
+  </si>
+  <si>
+    <t>Emp Name</t>
+  </si>
+  <si>
+    <t>Settlement Name</t>
+  </si>
+  <si>
+    <t>اسم المستوطنة</t>
+  </si>
+  <si>
+    <t>Refno</t>
+  </si>
+  <si>
+    <t>ريفنو</t>
+  </si>
+  <si>
+    <t>Leavetype</t>
+  </si>
+  <si>
+    <t>ترك النوع</t>
+  </si>
+  <si>
+    <t>Payrolperiod</t>
+  </si>
+  <si>
+    <t>فترة دفع الرواتب</t>
+  </si>
+  <si>
+    <t>Fromdate</t>
+  </si>
+  <si>
+    <t>منالتاريخ</t>
+  </si>
+  <si>
+    <t>Todate</t>
+  </si>
+  <si>
+    <t>كسر</t>
+  </si>
+  <si>
+    <t>Browse</t>
+  </si>
+  <si>
+    <t>تصفح</t>
+  </si>
+  <si>
+    <t>Employee Code</t>
+  </si>
+  <si>
+    <t>قانون الموظف</t>
+  </si>
+  <si>
+    <t>Local Id (CPR)</t>
+  </si>
+  <si>
+    <t>معرف محلي (CPR)</t>
+  </si>
+  <si>
+    <t>Date Of Joining</t>
+  </si>
+  <si>
+    <t>تاريخ الانضمام</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>تحية</t>
+  </si>
+  <si>
+    <t>Employee Name In Arabic</t>
+  </si>
+  <si>
+    <t>اسم الموظف باللغة العربية</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>تعيين</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>قسم</t>
+  </si>
+  <si>
+    <t>Work Location</t>
+  </si>
+  <si>
+    <t>مكان العمل</t>
+  </si>
+  <si>
+    <t>Work Section</t>
+  </si>
+  <si>
+    <t>قسم العمل</t>
+  </si>
+  <si>
+    <t>Reporting TO</t>
+  </si>
+  <si>
+    <t>الإبلاغ إلى</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>شخصي</t>
+  </si>
+  <si>
+    <t>Present Address</t>
+  </si>
+  <si>
+    <t>العنوان الحالي</t>
+  </si>
+  <si>
+    <t>Permenant Address</t>
+  </si>
+  <si>
+    <t>عنوان دائم</t>
+  </si>
+  <si>
+    <t>Personal Remarks</t>
+  </si>
+  <si>
+    <t>ملاحظات شخصية</t>
+  </si>
+  <si>
+    <t>Telephone Number</t>
+  </si>
+  <si>
+    <t>رقم الهاتف</t>
+  </si>
+  <si>
+    <t>Telephone Extension</t>
+  </si>
+  <si>
+    <t>تمديد الهاتف</t>
+  </si>
+  <si>
+    <t>Mobile-1</t>
+  </si>
+  <si>
+    <t>الجوال-1</t>
+  </si>
+  <si>
+    <t>Mobile -2</t>
+  </si>
+  <si>
+    <t>الجوال -2</t>
+  </si>
+  <si>
+    <t>Home Town Mobile Number</t>
+  </si>
+  <si>
+    <t>رقم الهاتف المحمول في مدينتك</t>
+  </si>
+  <si>
+    <t>Email - Personal</t>
+  </si>
+  <si>
+    <t>البريد الإلكتروني - شخصي</t>
+  </si>
+  <si>
+    <t>Email - Official</t>
+  </si>
+  <si>
+    <t>البريد الإلكتروني - الرسمي</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>جنسية</t>
+  </si>
+  <si>
+    <t>Date Of Birth</t>
+  </si>
+  <si>
+    <t>تاريخ الميلاد</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>جنس</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>دِين</t>
+  </si>
+  <si>
+    <t>Marital Status</t>
+  </si>
+  <si>
+    <t>الحالة الاجتماعية</t>
+  </si>
+  <si>
+    <t>Blood Group</t>
+  </si>
+  <si>
+    <t>فصيلة الدم</t>
+  </si>
+  <si>
+    <t>Father Name</t>
+  </si>
+  <si>
+    <t>اسم الأب</t>
+  </si>
+  <si>
+    <t>Mother Name</t>
+  </si>
+  <si>
+    <t>اسم الأم</t>
+  </si>
+  <si>
+    <t>Spause Name</t>
+  </si>
+  <si>
+    <t>اسم الشريك</t>
+  </si>
+  <si>
+    <t>Emergency</t>
+  </si>
+  <si>
+    <t>طارئ</t>
+  </si>
+  <si>
+    <t>Contact Person</t>
+  </si>
+  <si>
+    <t>الشخص الذي يمكن الاتصال به</t>
+  </si>
+  <si>
+    <t>Contact No</t>
+  </si>
+  <si>
+    <t>رقم الاتصال</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>العلاقة</t>
+  </si>
+  <si>
+    <t>Show Dialog</t>
+  </si>
+  <si>
+    <t>إظهار الحوار</t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>عقد</t>
+  </si>
+  <si>
+    <t>Asset Details</t>
+  </si>
+  <si>
+    <t>تفاصيل الأصول</t>
+  </si>
+  <si>
+    <t>Salary Details</t>
+  </si>
+  <si>
+    <t>تفاصيل الراتب</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>درجة</t>
+  </si>
+  <si>
+    <t>Salary Type</t>
+  </si>
+  <si>
+    <t>نوع الراتب</t>
+  </si>
+  <si>
+    <t>Payroll Period</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>تقويم</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>قسط</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Account No</t>
+  </si>
+  <si>
+    <t>رقم الحساب</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>عملة</t>
+  </si>
+  <si>
+    <t>Accounts Details</t>
+  </si>
+  <si>
+    <t>تفاصيل الحسابات</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>مؤهل</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>وثيقة</t>
+  </si>
+  <si>
+    <t>#Number</t>
+  </si>
+  <si>
+    <t>#رقم</t>
+  </si>
+  <si>
+    <t>#Ref</t>
+  </si>
+  <si>
+    <t>#مرجع</t>
+  </si>
+  <si>
+    <t>Issue Date</t>
+  </si>
+  <si>
+    <t>تاريخ الإصدار</t>
+  </si>
+  <si>
+    <t>Expiry Date</t>
+  </si>
+  <si>
+    <t>تاريخ انتهاء الصلاحية</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>لا</t>
+  </si>
+  <si>
+    <t>Reporting To</t>
+  </si>
+  <si>
+    <t>تقديم التقارير إلى</t>
   </si>
   <si>
     <t>welcome Back!: "مرحبا بعودتك!",</t>
@@ -1925,7 +2351,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1957,6 +2383,17 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Ui-sans-serif"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1993,7 +2430,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2014,6 +2451,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4090,85 +4533,638 @@
         <v>434</v>
       </c>
     </row>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="A230" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="A231" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="A232" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="A233" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="A234" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="A235" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="A236" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="A237" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="A238" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="A239" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="A240" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="A241" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="A242" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="A243" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="A244" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="A245" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="A246" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="A247" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="A248" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="A249" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="A250" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="A251" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="A252" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="A253" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="A254" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="A255" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="A256" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="A257" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="A258" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="A259" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="A260" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="A261" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="A262" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="A263" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="A264" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="A265" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="A266" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="A267" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="A268" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="A269" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="A270" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="A271" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="A272" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="A273" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="A274" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="A275" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="A276" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="A277" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="A278" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="A279" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="A280" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="A281" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="A282" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="A283" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="A284" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="A285" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="A286" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="A287" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="A288" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="A289" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="A290" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="A291" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="A292" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="A293" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="A294" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="A295" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="A296" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="A297" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="A298" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="A299" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="A300" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="A301" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="A302" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="A303" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="A304" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="A305" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="A306" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="A307" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="A308" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
     <row r="309" ht="15.75" customHeight="1"/>
     <row r="310" ht="15.75" customHeight="1"/>
     <row r="311" ht="15.75" customHeight="1"/>
@@ -4885,2562 +5881,2562 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="B1" s="9" t="str">
+      <c r="A1" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="11" t="str">
         <f t="shared" ref="B1:B197" si="1">TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(A1, FIND(":", A1) - 1), """", ""), "'", ""), ",", ""))</f>
         <v>welcome Back!</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="11" t="str">
         <f t="shared" ref="C1:C197" si="2">TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(MID(A1, FIND(":", A1) + 2, LEN(A1)), """", ""), "'", ""), ",", ""))</f>
         <v>مرحبا بعودتك!</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="B2" s="9" t="str">
+      <c r="A2" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="B2" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Login to your account</v>
       </c>
-      <c r="C2" s="9" t="str">
+      <c r="C2" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تسجيل الدخول إلى حسابك</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="B3" s="9" t="str">
+      <c r="A3" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="B3" s="11" t="str">
         <f t="shared" si="1"/>
         <v>User Email</v>
       </c>
-      <c r="C3" s="9" t="str">
+      <c r="C3" s="11" t="str">
         <f t="shared" si="2"/>
         <v>البريد الإلكتروني للمستخدم</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B4" s="9" t="str">
+      <c r="A4" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="B4" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Password</v>
       </c>
-      <c r="C4" s="9" t="str">
+      <c r="C4" s="11" t="str">
         <f t="shared" si="2"/>
         <v>كلمة المرور</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B5" s="9" t="str">
+      <c r="A5" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="B5" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Select Location</v>
       </c>
-      <c r="C5" s="9" t="str">
+      <c r="C5" s="11" t="str">
         <f t="shared" si="2"/>
         <v>حدد الموقع</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="B6" s="9" t="str">
+      <c r="A6" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="B6" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Location 1</v>
       </c>
-      <c r="C6" s="9" t="str">
+      <c r="C6" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الموقع 1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="B7" s="9" t="str">
+      <c r="A7" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="B7" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Location 2</v>
       </c>
-      <c r="C7" s="9" t="str">
+      <c r="C7" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الموقع 2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="B8" s="9" t="str">
+      <c r="A8" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="B8" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Remember me</v>
       </c>
-      <c r="C8" s="9" t="str">
+      <c r="C8" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تذكرني</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B9" s="9" t="str">
+      <c r="A9" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="B9" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Forgot password?</v>
       </c>
-      <c r="C9" s="9" t="str">
+      <c r="C9" s="11" t="str">
         <f t="shared" si="2"/>
         <v>هل نسيت كلمة المرور؟</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="B10" s="9" t="str">
+      <c r="A10" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="B10" s="11" t="str">
         <f t="shared" si="1"/>
         <v>LOGIN</v>
       </c>
-      <c r="C10" s="9" t="str">
+      <c r="C10" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تسجيل الدخول</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="B11" s="9" t="str">
+      <c r="A11" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="B11" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Redefining Employee Management</v>
       </c>
-      <c r="C11" s="9" t="str">
+      <c r="C11" s="11" t="str">
         <f t="shared" si="2"/>
         <v>إعادة تعريف إدارة الموظفين</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="B12" s="9" t="str">
+      <c r="A12" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="B12" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Foster a connected workforce with our all-in-one ERP solution.</v>
       </c>
-      <c r="C12" s="9" t="str">
+      <c r="C12" s="11" t="str">
         <f t="shared" si="2"/>
         <v>عزز قوة عاملة متصلة من خلال حل تخطيط موارد المؤسسات (ERP) الشامل لدينا.</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="B13" s="9" t="str">
+      <c r="A13" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="B13" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Complete Employee Management Platform</v>
       </c>
-      <c r="C13" s="9" t="str">
+      <c r="C13" s="11" t="str">
         <f t="shared" si="2"/>
         <v>منصة كاملة لإدارة الموظفين</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="B14" s="9" t="str">
+      <c r="A14" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="B14" s="11" t="str">
         <f t="shared" si="1"/>
         <v>From recruitment to retirement manage every employee journey seamlessly and efficiently.</v>
       </c>
-      <c r="C14" s="9" t="str">
+      <c r="C14" s="11" t="str">
         <f t="shared" si="2"/>
         <v>من التوظيف إلى التقاعد، قم بإدارة رحلة كل موظف بسلاسة وكفاءة.</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="B15" s="9" t="str">
+      <c r="A15" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="B15" s="11" t="str">
         <f t="shared" si="1"/>
         <v>The Future of Workforce Management</v>
       </c>
-      <c r="C15" s="9" t="str">
+      <c r="C15" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مستقبل إدارة القوى العاملة</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="B16" s="9" t="str">
+      <c r="A16" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B16" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Boost Engagement and Compliance with Intuitive ERP Solutions.</v>
       </c>
-      <c r="C16" s="9" t="str">
+      <c r="C16" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تعزيز المشاركة والامتثال من خلال حلول تخطيط موارد المؤسسات (ERP) البديهية.</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="B17" s="9" t="str">
+      <c r="A17" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="B17" s="11" t="str">
         <f t="shared" si="1"/>
         <v>January</v>
       </c>
-      <c r="C17" s="9" t="str">
+      <c r="C17" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يناير</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="B18" s="9" t="str">
+      <c r="A18" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="B18" s="11" t="str">
         <f t="shared" si="1"/>
         <v>February</v>
       </c>
-      <c r="C18" s="9" t="str">
+      <c r="C18" s="11" t="str">
         <f t="shared" si="2"/>
         <v>فبراير</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="B19" s="9" t="str">
+      <c r="A19" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="B19" s="11" t="str">
         <f t="shared" si="1"/>
         <v>March</v>
       </c>
-      <c r="C19" s="9" t="str">
+      <c r="C19" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مارس</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="B20" s="9" t="str">
+      <c r="A20" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="B20" s="11" t="str">
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="C20" s="9" t="str">
+      <c r="C20" s="11" t="str">
         <f t="shared" si="2"/>
         <v>أبريل</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="B21" s="9" t="str">
+      <c r="A21" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="B21" s="11" t="str">
         <f t="shared" si="1"/>
         <v>May</v>
       </c>
-      <c r="C21" s="9" t="str">
+      <c r="C21" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مايو</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="B22" s="9" t="str">
+      <c r="A22" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="B22" s="11" t="str">
         <f t="shared" si="1"/>
         <v>June</v>
       </c>
-      <c r="C22" s="9" t="str">
+      <c r="C22" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يونيو</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="B23" s="9" t="str">
+      <c r="A23" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="B23" s="11" t="str">
         <f t="shared" si="1"/>
         <v>July</v>
       </c>
-      <c r="C23" s="9" t="str">
+      <c r="C23" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يوليو</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B24" s="9" t="str">
+      <c r="A24" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="B24" s="11" t="str">
         <f t="shared" si="1"/>
         <v>August</v>
       </c>
-      <c r="C24" s="9" t="str">
+      <c r="C24" s="11" t="str">
         <f t="shared" si="2"/>
         <v>أغسطس</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="B25" s="9" t="str">
+      <c r="A25" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="B25" s="11" t="str">
         <f t="shared" si="1"/>
         <v>September</v>
       </c>
-      <c r="C25" s="9" t="str">
+      <c r="C25" s="11" t="str">
         <f t="shared" si="2"/>
         <v>سبتمبر</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="B26" s="9" t="str">
+      <c r="A26" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="B26" s="11" t="str">
         <f t="shared" si="1"/>
         <v>October</v>
       </c>
-      <c r="C26" s="9" t="str">
+      <c r="C26" s="11" t="str">
         <f t="shared" si="2"/>
         <v>أكتوبر</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="B27" s="9" t="str">
+      <c r="A27" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="B27" s="11" t="str">
         <f t="shared" si="1"/>
         <v>November</v>
       </c>
-      <c r="C27" s="9" t="str">
+      <c r="C27" s="11" t="str">
         <f t="shared" si="2"/>
         <v>نوفمبر</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="B28" s="9" t="str">
+      <c r="A28" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="B28" s="11" t="str">
         <f t="shared" si="1"/>
         <v>December</v>
       </c>
-      <c r="C28" s="9" t="str">
+      <c r="C28" s="11" t="str">
         <f t="shared" si="2"/>
         <v>ديسمبر</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="B29" s="9" t="str">
+      <c r="A29" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="B29" s="11" t="str">
         <f t="shared" si="1"/>
         <v>ABSENT</v>
       </c>
-      <c r="C29" s="9" t="str">
+      <c r="C29" s="11" t="str">
         <f t="shared" si="2"/>
         <v>غائب</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="B30" s="9" t="str">
+      <c r="A30" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="B30" s="11" t="str">
         <f t="shared" si="1"/>
         <v>LEAVE</v>
       </c>
-      <c r="C30" s="9" t="str">
+      <c r="C30" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يترك</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="B31" s="9" t="str">
+      <c r="A31" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="B31" s="11" t="str">
         <f t="shared" si="1"/>
         <v>LOAN</v>
       </c>
-      <c r="C31" s="9" t="str">
+      <c r="C31" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يُقرض</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="B32" s="9" t="str">
+      <c r="A32" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="B32" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Late In Early Out</v>
       </c>
-      <c r="C32" s="9" t="str">
+      <c r="C32" s="11" t="str">
         <f t="shared" si="2"/>
         <v>في وقت متأخر، في وقت مبكر للخروج</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="B33" s="9" t="str">
+      <c r="A33" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="B33" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Attendance</v>
       </c>
-      <c r="C33" s="9" t="str">
+      <c r="C33" s="11" t="str">
         <f t="shared" si="2"/>
         <v>حضور</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="B34" s="9" t="str">
+      <c r="A34" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="B34" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Remarks</v>
       </c>
-      <c r="C34" s="9" t="str">
+      <c r="C34" s="11" t="str">
         <f t="shared" si="2"/>
         <v>ملاحظات</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="B35" s="9" t="str">
+      <c r="A35" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="B35" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Type</v>
       </c>
-      <c r="C35" s="9" t="str">
+      <c r="C35" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يكتب</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="B36" s="9" t="str">
+      <c r="A36" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="B36" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Location</v>
       </c>
-      <c r="C36" s="9" t="str">
+      <c r="C36" s="11" t="str">
         <f t="shared" si="2"/>
         <v>موقع</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="B37" s="9" t="str">
+      <c r="A37" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="B37" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Check In</v>
       </c>
-      <c r="C37" s="9" t="str">
+      <c r="C37" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الدفع</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="B38" s="9" t="str">
+      <c r="A38" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="B38" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Check Out</v>
       </c>
-      <c r="C38" s="9" t="str">
+      <c r="C38" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تحقق في</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="B39" s="9" t="str">
+      <c r="A39" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="B39" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Office</v>
       </c>
-      <c r="C39" s="9" t="str">
+      <c r="C39" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مكتب</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="B40" s="9" t="str">
+      <c r="A40" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="B40" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Client</v>
       </c>
-      <c r="C40" s="9" t="str">
+      <c r="C40" s="11" t="str">
         <f t="shared" si="2"/>
         <v>عميل</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="B41" s="9" t="str">
+      <c r="A41" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="B41" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Home</v>
       </c>
-      <c r="C41" s="9" t="str">
+      <c r="C41" s="11" t="str">
         <f t="shared" si="2"/>
         <v>بيت</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="B42" s="9" t="str">
+      <c r="A42" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="B42" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Date</v>
       </c>
-      <c r="C42" s="9" t="str">
+      <c r="C42" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تاريخ</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="B43" s="9" t="str">
+      <c r="A43" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="B43" s="11" t="str">
         <f t="shared" si="1"/>
         <v>In</v>
       </c>
-      <c r="C43" s="9" t="str">
+      <c r="C43" s="11" t="str">
         <f t="shared" si="2"/>
         <v>في</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="B44" s="9" t="str">
+      <c r="A44" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="B44" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Out</v>
       </c>
-      <c r="C44" s="9" t="str">
+      <c r="C44" s="11" t="str">
         <f t="shared" si="2"/>
         <v>خارج</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="B45" s="9" t="str">
+      <c r="A45" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="B45" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Shift</v>
       </c>
-      <c r="C45" s="9" t="str">
+      <c r="C45" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يحول</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="B46" s="9" t="str">
+      <c r="A46" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="B46" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Training</v>
       </c>
-      <c r="C46" s="9" t="str">
+      <c r="C46" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تمرين</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="B47" s="9" t="str">
+      <c r="A47" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="B47" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Attend Date</v>
       </c>
-      <c r="C47" s="9" t="str">
+      <c r="C47" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تاريخ الحضور</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="B48" s="9" t="str">
+      <c r="A48" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="B48" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Request Training</v>
       </c>
-      <c r="C48" s="9" t="str">
+      <c r="C48" s="11" t="str">
         <f t="shared" si="2"/>
         <v>طلب التدريب</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="B49" s="9" t="str">
+      <c r="A49" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="B49" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Select Training</v>
       </c>
-      <c r="C49" s="9" t="str">
+      <c r="C49" s="11" t="str">
         <f t="shared" si="2"/>
         <v>اختر التدريب</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="B50" s="9" t="str">
+      <c r="A50" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="B50" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Choose a training</v>
       </c>
-      <c r="C50" s="9" t="str">
+      <c r="C50" s="11" t="str">
         <f t="shared" si="2"/>
         <v>اختر التدريب</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="B51" s="9" t="str">
+      <c r="A51" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="B51" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Pref. Date</v>
       </c>
-      <c r="C51" s="9" t="str">
+      <c r="C51" s="11" t="str">
         <f t="shared" si="2"/>
         <v>التاريخ المفضل</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="B52" s="9" t="str">
+      <c r="A52" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="B52" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Reason</v>
       </c>
-      <c r="C52" s="9" t="str">
+      <c r="C52" s="11" t="str">
         <f t="shared" si="2"/>
         <v>سبب</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="B53" s="9" t="str">
+      <c r="A53" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="B53" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Save</v>
       </c>
-      <c r="C53" s="9" t="str">
+      <c r="C53" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يحفظ</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="B54" s="9" t="str">
+      <c r="A54" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="B54" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Cancel</v>
       </c>
-      <c r="C54" s="9" t="str">
+      <c r="C54" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يلغي</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="B55" s="9" t="str">
+      <c r="A55" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="B55" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Holidays</v>
       </c>
-      <c r="C55" s="9" t="str">
+      <c r="C55" s="11" t="str">
         <f t="shared" si="2"/>
         <v>العطل</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="B56" s="9" t="str">
+      <c r="A56" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="B56" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Description</v>
       </c>
-      <c r="C56" s="9" t="str">
+      <c r="C56" s="11" t="str">
         <f t="shared" si="2"/>
         <v>وصف</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="B57" s="9" t="str">
+      <c r="A57" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="B57" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Documents</v>
       </c>
-      <c r="C57" s="9" t="str">
+      <c r="C57" s="11" t="str">
         <f t="shared" si="2"/>
         <v>وثائق</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="B58" s="9" t="str">
+      <c r="A58" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="B58" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Actions</v>
       </c>
-      <c r="C58" s="9" t="str">
+      <c r="C58" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الإجراءات</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="B59" s="9" t="str">
+      <c r="A59" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="B59" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Image</v>
       </c>
-      <c r="C59" s="9" t="str">
+      <c r="C59" s="11" t="str">
         <f t="shared" si="2"/>
         <v>صورة</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="B60" s="9" t="str">
+      <c r="A60" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="B60" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Expiry</v>
       </c>
-      <c r="C60" s="9" t="str">
+      <c r="C60" s="11" t="str">
         <f t="shared" si="2"/>
         <v>انتهاء الصلاحية</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="B61" s="9" t="str">
+      <c r="A61" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="B61" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Number</v>
       </c>
-      <c r="C61" s="9" t="str">
+      <c r="C61" s="11" t="str">
         <f t="shared" si="2"/>
         <v>رقم</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="B62" s="9" t="str">
+      <c r="A62" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="B62" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Staff Ledger</v>
       </c>
-      <c r="C62" s="9" t="str">
+      <c r="C62" s="11" t="str">
         <f t="shared" si="2"/>
         <v>دفتر حسابات الموظفين</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="B63" s="9" t="str">
+      <c r="A63" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="B63" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Account</v>
       </c>
-      <c r="C63" s="9" t="str">
+      <c r="C63" s="11" t="str">
         <f t="shared" si="2"/>
         <v>حساب</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="B64" s="9" t="str">
+      <c r="A64" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="B64" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Ref#</v>
       </c>
-      <c r="C64" s="9" t="str">
+      <c r="C64" s="11" t="str">
         <f t="shared" si="2"/>
         <v>المرجع #</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="B65" s="9" t="str">
+      <c r="A65" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="B65" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Amount</v>
       </c>
-      <c r="C65" s="9" t="str">
+      <c r="C65" s="11" t="str">
         <f t="shared" si="2"/>
         <v>كمية</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="B66" s="9" t="str">
+      <c r="A66" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="B66" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Announcements</v>
       </c>
-      <c r="C66" s="9" t="str">
+      <c r="C66" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الإعلانات</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="B67" s="9" t="str">
+      <c r="A67" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="B67" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Latest announcements will appear here.</v>
       </c>
-      <c r="C67" s="9" t="str">
+      <c r="C67" s="11" t="str">
         <f t="shared" si="2"/>
         <v>أحدث الإعلانات ستظهر هنا.</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="B68" s="9" t="str">
+      <c r="A68" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="B68" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Monthly Salary Statistics</v>
       </c>
-      <c r="C68" s="9" t="str">
+      <c r="C68" s="11" t="str">
         <f t="shared" si="2"/>
         <v>إحصاءات الرواتب الشهرية</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="B69" s="9" t="str">
+      <c r="A69" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="B69" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Loan Request</v>
       </c>
-      <c r="C69" s="9" t="str">
+      <c r="C69" s="11" t="str">
         <f t="shared" si="2"/>
         <v>طلب القرض</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="B70" s="9" t="str">
+      <c r="A70" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="B70" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Status</v>
       </c>
-      <c r="C70" s="9" t="str">
+      <c r="C70" s="11" t="str">
         <f t="shared" si="2"/>
         <v>حالة</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="B71" s="9" t="str">
+      <c r="A71" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="B71" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Guarantor</v>
       </c>
-      <c r="C71" s="9" t="str">
+      <c r="C71" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الضامن</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="B72" s="9" t="str">
+      <c r="A72" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="B72" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Request</v>
       </c>
-      <c r="C72" s="9" t="str">
+      <c r="C72" s="11" t="str">
         <f t="shared" si="2"/>
         <v>طلب</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="B73" s="9" t="str">
+      <c r="A73" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="B73" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Expense Request</v>
       </c>
-      <c r="C73" s="9" t="str">
+      <c r="C73" s="11" t="str">
         <f t="shared" si="2"/>
         <v>طلب النفقات</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="B74" s="9" t="str">
+      <c r="A74" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="B74" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Voucher</v>
       </c>
-      <c r="C74" s="9" t="str">
+      <c r="C74" s="11" t="str">
         <f t="shared" si="2"/>
         <v>قسيمة</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="B75" s="9" t="str">
+      <c r="A75" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="B75" s="11" t="str">
         <f t="shared" si="1"/>
         <v>New Expense Request</v>
       </c>
-      <c r="C75" s="9" t="str">
+      <c r="C75" s="11" t="str">
         <f t="shared" si="2"/>
         <v>طلب نفقات جديد</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="B76" s="9" t="str">
+      <c r="A76" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="B76" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Submit</v>
       </c>
-      <c r="C76" s="9" t="str">
+      <c r="C76" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يُقدِّم</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="B77" s="9" t="str">
+      <c r="A77" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="B77" s="11" t="str">
         <f t="shared" si="1"/>
         <v>New Loan Request</v>
       </c>
-      <c r="C77" s="9" t="str">
+      <c r="C77" s="11" t="str">
         <f t="shared" si="2"/>
         <v>طلب قرض جديد</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="B78" s="9" t="str">
+      <c r="A78" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="B78" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Personal Loan</v>
       </c>
-      <c r="C78" s="9" t="str">
+      <c r="C78" s="11" t="str">
         <f t="shared" si="2"/>
         <v>القرض الشخصي</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="B79" s="9" t="str">
+      <c r="A79" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="B79" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Car Loan</v>
       </c>
-      <c r="C79" s="9" t="str">
+      <c r="C79" s="11" t="str">
         <f t="shared" si="2"/>
         <v>قرض السيارة</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="B80" s="9" t="str">
+      <c r="A80" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B80" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Home Loan</v>
       </c>
-      <c r="C80" s="9" t="str">
+      <c r="C80" s="11" t="str">
         <f t="shared" si="2"/>
         <v>قرض المنزل</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="B81" s="9" t="str">
+      <c r="A81" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="B81" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Travel</v>
       </c>
-      <c r="C81" s="9" t="str">
+      <c r="C81" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يسافر</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="B82" s="9" t="str">
+      <c r="A82" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="B82" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Office Supplies</v>
       </c>
-      <c r="C82" s="9" t="str">
+      <c r="C82" s="11" t="str">
         <f t="shared" si="2"/>
         <v>اللوازم المكتبية</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="B83" s="9" t="str">
+      <c r="A83" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="B83" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Meals</v>
       </c>
-      <c r="C83" s="9" t="str">
+      <c r="C83" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الوجبات</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="B84" s="9" t="str">
+      <c r="A84" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="B84" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Leave</v>
       </c>
-      <c r="C84" s="9" t="str">
+      <c r="C84" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يترك</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="B85" s="9" t="str">
+      <c r="A85" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="B85" s="11" t="str">
         <f t="shared" si="1"/>
         <v>From Date</v>
       </c>
-      <c r="C85" s="9" t="str">
+      <c r="C85" s="11" t="str">
         <f t="shared" si="2"/>
         <v>من التاريخ</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="B86" s="9" t="str">
+      <c r="A86" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="B86" s="11" t="str">
         <f t="shared" si="1"/>
         <v>To Date</v>
       </c>
-      <c r="C86" s="9" t="str">
+      <c r="C86" s="11" t="str">
         <f t="shared" si="2"/>
         <v>حتى الآن</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="B87" s="9" t="str">
+      <c r="A87" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="B87" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Sick Leave</v>
       </c>
-      <c r="C87" s="9" t="str">
+      <c r="C87" s="11" t="str">
         <f t="shared" si="2"/>
         <v>إجازة مرضية</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="B88" s="9" t="str">
+      <c r="A88" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="B88" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Casual Leave</v>
       </c>
-      <c r="C88" s="9" t="str">
+      <c r="C88" s="11" t="str">
         <f t="shared" si="2"/>
         <v>إجازة عارضة</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="B89" s="9" t="str">
+      <c r="A89" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="B89" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Paid Leave</v>
       </c>
-      <c r="C89" s="9" t="str">
+      <c r="C89" s="11" t="str">
         <f t="shared" si="2"/>
         <v>إجازة مدفوعة الأجر</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="B90" s="9" t="str">
+      <c r="A90" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="B90" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Work from Home</v>
       </c>
-      <c r="C90" s="9" t="str">
+      <c r="C90" s="11" t="str">
         <f t="shared" si="2"/>
         <v>العمل من المنزل</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="B91" s="9" t="str">
+      <c r="A91" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="B91" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Half Day</v>
       </c>
-      <c r="C91" s="9" t="str">
+      <c r="C91" s="11" t="str">
         <f t="shared" si="2"/>
         <v>نصف يوم</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="B92" s="9" t="str">
+      <c r="A92" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="B92" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Leave Request</v>
       </c>
-      <c r="C92" s="9" t="str">
+      <c r="C92" s="11" t="str">
         <f t="shared" si="2"/>
         <v>طلب الإجازة</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="B93" s="9" t="str">
+      <c r="A93" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="B93" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Pay Slip</v>
       </c>
-      <c r="C93" s="9" t="str">
+      <c r="C93" s="11" t="str">
         <f t="shared" si="2"/>
         <v>قسيمة الدفع</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="B94" s="9" t="str">
+      <c r="A94" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="B94" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Month</v>
       </c>
-      <c r="C94" s="9" t="str">
+      <c r="C94" s="11" t="str">
         <f t="shared" si="2"/>
         <v>شهر</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="B95" s="9" t="str">
+      <c r="A95" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="B95" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Attendance Request</v>
       </c>
-      <c r="C95" s="9" t="str">
+      <c r="C95" s="11" t="str">
         <f t="shared" si="2"/>
         <v>طلب الحضور</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="B96" s="9" t="str">
+      <c r="A96" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="B96" s="11" t="str">
         <f t="shared" si="1"/>
         <v>New</v>
       </c>
-      <c r="C96" s="9" t="str">
+      <c r="C96" s="11" t="str">
         <f t="shared" si="2"/>
         <v>جديد</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="B97" s="9" t="str">
+      <c r="A97" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="B97" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Date &amp; Time</v>
       </c>
-      <c r="C97" s="9" t="str">
+      <c r="C97" s="11" t="str">
         <f t="shared" si="2"/>
         <v>التاريخ والوقت</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="B98" s="9" t="str">
+      <c r="A98" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="B98" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Promotion Requests</v>
       </c>
-      <c r="C98" s="9" t="str">
+      <c r="C98" s="11" t="str">
         <f t="shared" si="2"/>
         <v>طلبات الترويج</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="B99" s="9" t="str">
+      <c r="A99" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="B99" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Manager</v>
       </c>
-      <c r="C99" s="9" t="str">
+      <c r="C99" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مدير</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="B100" s="9" t="str">
+      <c r="A100" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="B100" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Chief</v>
       </c>
-      <c r="C100" s="9" t="str">
+      <c r="C100" s="11" t="str">
         <f t="shared" si="2"/>
         <v>رئيس</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="B101" s="9" t="str">
+      <c r="A101" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="B101" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Supervisor</v>
       </c>
-      <c r="C101" s="9" t="str">
+      <c r="C101" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مشرف</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="B102" s="9" t="str">
+      <c r="A102" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="B102" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Delete</v>
       </c>
-      <c r="C102" s="9" t="str">
+      <c r="C102" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يمسح</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="B103" s="9" t="str">
+      <c r="A103" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="B103" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Print</v>
       </c>
-      <c r="C103" s="9" t="str">
+      <c r="C103" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مطبعة</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="B104" s="9" t="str">
+      <c r="A104" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="B104" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Log</v>
       </c>
-      <c r="C104" s="9" t="str">
+      <c r="C104" s="11" t="str">
         <f t="shared" si="2"/>
         <v>سجل</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="B105" s="9" t="str">
+      <c r="A105" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="B105" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Draft</v>
       </c>
-      <c r="C105" s="9" t="str">
+      <c r="C105" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مسودة</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="B106" s="9" t="str">
+      <c r="A106" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="B106" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Doc No</v>
       </c>
-      <c r="C106" s="9" t="str">
+      <c r="C106" s="11" t="str">
         <f t="shared" si="2"/>
         <v>:رقم المستند:</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="B107" s="9" t="str">
+      <c r="A107" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="B107" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Doc Date</v>
       </c>
-      <c r="C107" s="9" t="str">
+      <c r="C107" s="11" t="str">
         <f t="shared" si="2"/>
         <v>:تاريخ المستند:</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="B108" s="9" t="str">
+      <c r="A108" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="B108" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Document Actions</v>
       </c>
-      <c r="C108" s="9" t="str">
+      <c r="C108" s="11" t="str">
         <f t="shared" si="2"/>
         <v>إجراءات المستند</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="B109" s="9" t="str">
+      <c r="A109" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="B109" s="11" t="str">
         <f t="shared" si="1"/>
         <v>References</v>
       </c>
-      <c r="C109" s="9" t="str">
+      <c r="C109" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مراجع</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="B110" s="9" t="str">
+      <c r="A110" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="B110" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Attachments</v>
       </c>
-      <c r="C110" s="9" t="str">
+      <c r="C110" s="11" t="str">
         <f t="shared" si="2"/>
         <v>المرفقات</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="B111" s="9" t="str">
+      <c r="A111" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="B111" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Drafts</v>
       </c>
-      <c r="C111" s="9" t="str">
+      <c r="C111" s="11" t="str">
         <f t="shared" si="2"/>
         <v>المسودات</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="B112" s="9" t="str">
+      <c r="A112" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="B112" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Document List</v>
       </c>
-      <c r="C112" s="9" t="str">
+      <c r="C112" s="11" t="str">
         <f t="shared" si="2"/>
         <v>قائمة المستندات</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="B113" s="9" t="str">
+      <c r="A113" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="B113" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Notes</v>
       </c>
-      <c r="C113" s="9" t="str">
+      <c r="C113" s="11" t="str">
         <f t="shared" si="2"/>
         <v>ملحوظات</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="B114" s="9" t="str">
+      <c r="A114" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="B114" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Search for an item...</v>
       </c>
-      <c r="C114" s="9" t="str">
+      <c r="C114" s="11" t="str">
         <f t="shared" si="2"/>
         <v>البحث عن عنصر</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="B115" s="9" t="str">
+      <c r="A115" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="B115" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Help &amp; Support</v>
       </c>
-      <c r="C115" s="9" t="str">
+      <c r="C115" s="11" t="str">
         <f t="shared" si="2"/>
         <v>المساعدة والدعم</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="B116" s="9" t="str">
+      <c r="A116" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="B116" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Notifications</v>
       </c>
-      <c r="C116" s="9" t="str">
+      <c r="C116" s="11" t="str">
         <f t="shared" si="2"/>
         <v>إشعارات</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="B117" s="9" t="str">
+      <c r="A117" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="B117" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Settings</v>
       </c>
-      <c r="C117" s="9" t="str">
+      <c r="C117" s="11" t="str">
         <f t="shared" si="2"/>
         <v>إعدادات</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="B118" s="9" t="str">
+      <c r="A118" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="B118" s="11" t="str">
         <f t="shared" si="1"/>
         <v>System</v>
       </c>
-      <c r="C118" s="9" t="str">
+      <c r="C118" s="11" t="str">
         <f t="shared" si="2"/>
         <v>نظام</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="B119" s="9" t="str">
+      <c r="A119" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="B119" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Master Setup</v>
       </c>
-      <c r="C119" s="9" t="str">
+      <c r="C119" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الإعداد الرئيسي</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="B120" s="9" t="str">
+      <c r="A120" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="B120" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Employee Self Service</v>
       </c>
-      <c r="C120" s="9" t="str">
+      <c r="C120" s="11" t="str">
         <f t="shared" si="2"/>
         <v>خدمة الموظفين الذاتية</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="B121" s="9" t="str">
+      <c r="A121" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="B121" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Employee Management</v>
       </c>
-      <c r="C121" s="9" t="str">
+      <c r="C121" s="11" t="str">
         <f t="shared" si="2"/>
         <v>إدارة الموظفين</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="B122" s="9" t="str">
+      <c r="A122" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="B122" s="11" t="str">
         <f t="shared" si="1"/>
         <v>View Profile</v>
       </c>
-      <c r="C122" s="9" t="str">
+      <c r="C122" s="11" t="str">
         <f t="shared" si="2"/>
         <v>عرض الملف الشخصي</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="B123" s="9" t="str">
+      <c r="A123" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="B123" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Change Password</v>
       </c>
-      <c r="C123" s="9" t="str">
+      <c r="C123" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تغيير كلمة المرور</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="B124" s="9" t="str">
+      <c r="A124" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="B124" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Logout</v>
       </c>
-      <c r="C124" s="9" t="str">
+      <c r="C124" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تسجيل الخروج</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="B125" s="9" t="str">
+      <c r="A125" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="B125" s="11" t="str">
         <f t="shared" si="1"/>
         <v>DEPARTMENT WISE</v>
       </c>
-      <c r="C125" s="9" t="str">
+      <c r="C125" s="11" t="str">
         <f t="shared" si="2"/>
         <v>حسب القسم</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="B126" s="9" t="str">
+      <c r="A126" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="B126" s="11" t="str">
         <f t="shared" si="1"/>
         <v>NATIONALITY WISE</v>
       </c>
-      <c r="C126" s="9" t="str">
+      <c r="C126" s="11" t="str">
         <f t="shared" si="2"/>
         <v>حسب الجنسية</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="B127" s="9" t="str">
+      <c r="A127" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="B127" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Announcement</v>
       </c>
-      <c r="C127" s="9" t="str">
+      <c r="C127" s="11" t="str">
         <f t="shared" si="2"/>
         <v>إعلان</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="B128" s="9" t="str">
+      <c r="A128" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="B128" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Type your annoucement here...</v>
       </c>
-      <c r="C128" s="9" t="str">
+      <c r="C128" s="11" t="str">
         <f t="shared" si="2"/>
         <v>اكتب إعلانك هنا...</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="B129" s="9" t="str">
+      <c r="A129" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="B129" s="11" t="str">
         <f t="shared" si="1"/>
         <v>SEND</v>
       </c>
-      <c r="C129" s="9" t="str">
+      <c r="C129" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يرسل</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="B130" s="9" t="str">
+      <c r="A130" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="B130" s="11" t="str">
         <f t="shared" si="1"/>
         <v>SALARY</v>
       </c>
-      <c r="C130" s="9" t="str">
+      <c r="C130" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مرتب</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="B131" s="9" t="str">
+      <c r="A131" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="B131" s="11" t="str">
         <f t="shared" si="1"/>
         <v>LOCATION WISE</v>
       </c>
-      <c r="C131" s="9" t="str">
+      <c r="C131" s="11" t="str">
         <f t="shared" si="2"/>
         <v>من حيث الموقع</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="B132" s="9" t="str">
+      <c r="A132" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="B132" s="11" t="str">
         <f t="shared" si="1"/>
         <v>HR COMPONENT WISE SALARY</v>
       </c>
-      <c r="C132" s="9" t="str">
+      <c r="C132" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الراتب حسب مكونات الموارد البشرية</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="9" t="s">
-        <v>567</v>
-      </c>
-      <c r="B133" s="9" t="str">
+      <c r="A133" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="B133" s="11" t="str">
         <f t="shared" si="1"/>
         <v>SALARY BY COMPONENT</v>
       </c>
-      <c r="C133" s="9" t="str">
+      <c r="C133" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الراتب حسب المكون</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="B134" s="9" t="str">
+      <c r="A134" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="B134" s="11" t="str">
         <f t="shared" si="1"/>
         <v>FULL TIME</v>
       </c>
-      <c r="C134" s="9" t="str">
+      <c r="C134" s="11" t="str">
         <f t="shared" si="2"/>
         <v>دوام كامل</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="B135" s="9" t="str">
+      <c r="A135" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="B135" s="11" t="str">
         <f t="shared" si="1"/>
         <v>FEMALE</v>
       </c>
-      <c r="C135" s="9" t="str">
+      <c r="C135" s="11" t="str">
         <f t="shared" si="2"/>
         <v>أنثى</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="B136" s="9" t="str">
+      <c r="A136" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="B136" s="11" t="str">
         <f t="shared" si="1"/>
         <v>MALE</v>
       </c>
-      <c r="C136" s="9" t="str">
+      <c r="C136" s="11" t="str">
         <f t="shared" si="2"/>
         <v>MALE</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="B137" s="9" t="str">
+      <c r="A137" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="B137" s="11" t="str">
         <f t="shared" si="1"/>
         <v>HEAD COUNT</v>
       </c>
-      <c r="C137" s="9" t="str">
+      <c r="C137" s="11" t="str">
         <f t="shared" si="2"/>
         <v>عدد الرؤوس</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="B138" s="9" t="str">
+      <c r="A138" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="B138" s="11" t="str">
         <f t="shared" si="1"/>
         <v>REGISTRATION</v>
       </c>
-      <c r="C138" s="9" t="str">
+      <c r="C138" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تسجيل</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="B139" s="9" t="str">
+      <c r="A139" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="B139" s="11" t="str">
         <f t="shared" si="1"/>
         <v>TERMINATION</v>
       </c>
-      <c r="C139" s="9" t="str">
+      <c r="C139" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الإنهاء</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="B140" s="9" t="str">
+      <c r="A140" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="B140" s="11" t="str">
         <f t="shared" si="1"/>
         <v>HIRE</v>
       </c>
-      <c r="C140" s="9" t="str">
+      <c r="C140" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يؤجر</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="B141" s="9" t="str">
+      <c r="A141" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="B141" s="11" t="str">
         <f t="shared" si="1"/>
         <v>PART TIME</v>
       </c>
-      <c r="C141" s="9" t="str">
+      <c r="C141" s="11" t="str">
         <f t="shared" si="2"/>
         <v>دوام جزئى</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="B142" s="9" t="str">
+      <c r="A142" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="B142" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Payrole Period</v>
       </c>
-      <c r="C142" s="9" t="str">
+      <c r="C142" s="11" t="str">
         <f t="shared" si="2"/>
         <v>فترة الرواتب</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="B143" s="9" t="str">
+      <c r="A143" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="B143" s="11" t="str">
         <f t="shared" si="1"/>
         <v>All DED Code</v>
       </c>
-      <c r="C143" s="9" t="str">
+      <c r="C143" s="11" t="str">
         <f t="shared" si="2"/>
         <v>جميع رموز DED</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="B144" s="9" t="str">
+      <c r="A144" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="B144" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Input Type</v>
       </c>
-      <c r="C144" s="9" t="str">
+      <c r="C144" s="11" t="str">
         <f t="shared" si="2"/>
         <v>نوع الإدخال</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="B145" s="9" t="str">
+      <c r="A145" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="B145" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Employee Name</v>
       </c>
-      <c r="C145" s="9" t="str">
+      <c r="C145" s="11" t="str">
         <f t="shared" si="2"/>
         <v>اسم الموظف</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="B146" s="9" t="str">
+      <c r="A146" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="B146" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Emp Code</v>
       </c>
-      <c r="C146" s="9" t="str">
+      <c r="C146" s="11" t="str">
         <f t="shared" si="2"/>
         <v>رمز الإمب</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="B147" s="9" t="str">
+      <c r="A147" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="B147" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Import Excel</v>
       </c>
-      <c r="C147" s="9" t="str">
+      <c r="C147" s="11" t="str">
         <f t="shared" si="2"/>
         <v>استيراد إكسل</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="B148" s="9" t="str">
+      <c r="A148" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="B148" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Export Excel</v>
       </c>
-      <c r="C148" s="9" t="str">
+      <c r="C148" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تصدير إكسل</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="B149" s="9" t="str">
+      <c r="A149" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="B149" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Load Data</v>
       </c>
-      <c r="C149" s="9" t="str">
+      <c r="C149" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تحميل البيانات</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="B150" s="9" t="str">
+      <c r="A150" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="B150" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Details</v>
       </c>
-      <c r="C150" s="9" t="str">
+      <c r="C150" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تفاصيل</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="B151" s="9" t="str">
+      <c r="A151" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="B151" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Basic Salary</v>
       </c>
-      <c r="C151" s="9" t="str">
+      <c r="C151" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الراتب الأساسي</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="B152" s="9" t="str">
+      <c r="A152" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="B152" s="11" t="str">
         <f t="shared" si="1"/>
         <v>All Ded Code</v>
       </c>
-      <c r="C152" s="9" t="str">
+      <c r="C152" s="11" t="str">
         <f t="shared" si="2"/>
         <v>جميع رموز DED</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="B153" s="9" t="str">
+      <c r="A153" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="B153" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Select</v>
       </c>
-      <c r="C153" s="9" t="str">
+      <c r="C153" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يختار</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="B154" s="9" t="str">
+      <c r="A154" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="B154" s="11" t="str">
         <f t="shared" si="1"/>
         <v>payroll period</v>
       </c>
-      <c r="C154" s="9" t="str">
+      <c r="C154" s="11" t="str">
         <f t="shared" si="2"/>
         <v>فترة الرواتب</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="B155" s="9" t="str">
+      <c r="A155" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="B155" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Process Date</v>
       </c>
-      <c r="C155" s="9" t="str">
+      <c r="C155" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تاريخ العملية</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="B156" s="9" t="str">
+      <c r="A156" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="B156" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Refresh</v>
       </c>
-      <c r="C156" s="9" t="str">
+      <c r="C156" s="11" t="str">
         <f t="shared" si="2"/>
         <v>ينعش</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="B157" s="9" t="str">
+      <c r="A157" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="B157" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Fill Reference</v>
       </c>
-      <c r="C157" s="9" t="str">
+      <c r="C157" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تعبئة المرجع</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="B158" s="9" t="str">
+      <c r="A158" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="B158" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RefCode</v>
       </c>
-      <c r="C158" s="9" t="str">
+      <c r="C158" s="11" t="str">
         <f t="shared" si="2"/>
         <v>رمز المرجع</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="B159" s="9" t="str">
+      <c r="A159" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="B159" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Idle</v>
       </c>
-      <c r="C159" s="9" t="str">
+      <c r="C159" s="11" t="str">
         <f t="shared" si="2"/>
         <v>عاطل</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="B160" s="9" t="str">
+      <c r="A160" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="B160" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Total Minutes</v>
       </c>
-      <c r="C160" s="9" t="str">
+      <c r="C160" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مجموع الدقائق</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="B161" s="9" t="str">
+      <c r="A161" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="B161" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Total Hours</v>
       </c>
-      <c r="C161" s="9" t="str">
+      <c r="C161" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مجموع الساعات</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="B162" s="9" t="str">
+      <c r="A162" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="B162" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Out Time</v>
       </c>
-      <c r="C162" s="9" t="str">
+      <c r="C162" s="11" t="str">
         <f t="shared" si="2"/>
         <v>وقت الخروج</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="B163" s="9" t="str">
+      <c r="A163" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="B163" s="11" t="str">
         <f t="shared" si="1"/>
         <v>In Time</v>
       </c>
-      <c r="C163" s="9" t="str">
+      <c r="C163" s="11" t="str">
         <f t="shared" si="2"/>
         <v>في الوقت المناسب</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="B164" s="9" t="str">
+      <c r="A164" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="B164" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Dept Code</v>
       </c>
-      <c r="C164" s="9" t="str">
+      <c r="C164" s="11" t="str">
         <f t="shared" si="2"/>
         <v>رمز القسم</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="B165" s="9" t="str">
+      <c r="A165" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="B165" s="11" t="str">
         <f t="shared" si="1"/>
         <v>EmpCompID</v>
       </c>
-      <c r="C165" s="9" t="str">
+      <c r="C165" s="11" t="str">
         <f t="shared" si="2"/>
         <v>معرف الموظف</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="B166" s="9" t="str">
+      <c r="A166" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="B166" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Leave Type</v>
       </c>
-      <c r="C166" s="9" t="str">
+      <c r="C166" s="11" t="str">
         <f t="shared" si="2"/>
         <v>نوع الإجازة</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="9" t="s">
-        <v>601</v>
-      </c>
-      <c r="B167" s="9" t="str">
+      <c r="A167" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="B167" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Ref No</v>
       </c>
-      <c r="C167" s="9" t="str">
+      <c r="C167" s="11" t="str">
         <f t="shared" si="2"/>
         <v>رقم المرجع</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="B168" s="9" t="str">
+      <c r="A168" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="B168" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Attendance from Date</v>
       </c>
-      <c r="C168" s="9" t="str">
+      <c r="C168" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الحضور من تاريخ</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B169" s="9" t="str">
+      <c r="A169" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="B169" s="11" t="str">
         <f t="shared" si="1"/>
         <v>NP Balance</v>
       </c>
-      <c r="C169" s="9" t="str">
+      <c r="C169" s="11" t="str">
         <f t="shared" si="2"/>
         <v>رصيد NP</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="B170" s="9" t="str">
+      <c r="A170" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="B170" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Entitled</v>
       </c>
-      <c r="C170" s="9" t="str">
+      <c r="C170" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مستحق</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="B171" s="9" t="str">
+      <c r="A171" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="B171" s="11" t="str">
         <f t="shared" si="1"/>
         <v>No Days</v>
       </c>
-      <c r="C171" s="9" t="str">
+      <c r="C171" s="11" t="str">
         <f t="shared" si="2"/>
         <v>لا يوجد أيام</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="B172" s="9" t="str">
+      <c r="A172" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="B172" s="11" t="str">
         <f t="shared" si="1"/>
         <v>CPR</v>
       </c>
-      <c r="C172" s="9" t="str">
+      <c r="C172" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الإنعاش القلبي الرئوي</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="B173" s="9" t="str">
+      <c r="A173" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="B173" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Employee</v>
       </c>
-      <c r="C173" s="9" t="str">
+      <c r="C173" s="11" t="str">
         <f t="shared" si="2"/>
         <v>موظف</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="B174" s="9" t="str">
+      <c r="A174" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="B174" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Accomodation Name</v>
       </c>
-      <c r="C174" s="9" t="str">
+      <c r="C174" s="11" t="str">
         <f t="shared" si="2"/>
         <v>اسم مكان الإقامة</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B175" s="9" t="str">
+      <c r="A175" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="B175" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Accomodation code</v>
       </c>
-      <c r="C175" s="9" t="str">
+      <c r="C175" s="11" t="str">
         <f t="shared" si="2"/>
         <v>كود الإقامة</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="B176" s="9" t="str">
+      <c r="A176" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="B176" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Road No</v>
       </c>
-      <c r="C176" s="9" t="str">
+      <c r="C176" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الطريق رقم</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="B177" s="9" t="str">
+      <c r="A177" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="B177" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Building No</v>
       </c>
-      <c r="C177" s="9" t="str">
+      <c r="C177" s="11" t="str">
         <f t="shared" si="2"/>
         <v>رقم المبنى</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="B178" s="9" t="str">
+      <c r="A178" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="B178" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Area</v>
       </c>
-      <c r="C178" s="9" t="str">
+      <c r="C178" s="11" t="str">
         <f t="shared" si="2"/>
         <v>منطقة</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="B179" s="9" t="str">
+      <c r="A179" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="B179" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Flat No</v>
       </c>
-      <c r="C179" s="9" t="str">
+      <c r="C179" s="11" t="str">
         <f t="shared" si="2"/>
         <v>شقة رقم</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="B180" s="9" t="str">
+      <c r="A180" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="B180" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Block No</v>
       </c>
-      <c r="C180" s="9" t="str">
+      <c r="C180" s="11" t="str">
         <f t="shared" si="2"/>
         <v>رقم الكتلة</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="B181" s="9" t="str">
+      <c r="A181" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="B181" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Cost</v>
       </c>
-      <c r="C181" s="9" t="str">
+      <c r="C181" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يكلف</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B182" s="9" t="str">
+      <c r="A182" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="B182" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Airsec Name</v>
       </c>
-      <c r="C182" s="9" t="str">
+      <c r="C182" s="11" t="str">
         <f t="shared" si="2"/>
         <v>اسم ايرسيك</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="B183" s="9" t="str">
+      <c r="A183" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="B183" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Airsec code</v>
       </c>
-      <c r="C183" s="9" t="str">
+      <c r="C183" s="11" t="str">
         <f t="shared" si="2"/>
         <v>كود ايرسيك</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="B184" s="9" t="str">
+      <c r="A184" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="B184" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Default Airline</v>
       </c>
-      <c r="C184" s="9" t="str">
+      <c r="C184" s="11" t="str">
         <f t="shared" si="2"/>
         <v>شركة الطيران الافتراضية</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="B185" s="9" t="str">
+      <c r="A185" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="B185" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Type Something</v>
       </c>
-      <c r="C185" s="9" t="str">
+      <c r="C185" s="11" t="str">
         <f t="shared" si="2"/>
         <v>اكتب شيئا ما</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="B186" s="9" t="str">
+      <c r="A186" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="B186" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Al Arab</v>
       </c>
-      <c r="C186" s="9" t="str">
+      <c r="C186" s="11" t="str">
         <f t="shared" si="2"/>
         <v>أل عرب</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="B187" s="9" t="str">
+      <c r="A187" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="B187" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Company</v>
       </c>
-      <c r="C187" s="9" t="str">
+      <c r="C187" s="11" t="str">
         <f t="shared" si="2"/>
         <v>شركة</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="B188" s="9" t="str">
+      <c r="A188" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="B188" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Department Name</v>
       </c>
-      <c r="C188" s="9" t="str">
+      <c r="C188" s="11" t="str">
         <f t="shared" si="2"/>
         <v>اسم القسم</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="B189" s="9" t="str">
+      <c r="A189" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="B189" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Department code</v>
       </c>
-      <c r="C189" s="9" t="str">
+      <c r="C189" s="11" t="str">
         <f t="shared" si="2"/>
         <v>رمز القسم</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="B190" s="9" t="str">
+      <c r="A190" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="B190" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Department Type</v>
       </c>
-      <c r="C190" s="9" t="str">
+      <c r="C190" s="11" t="str">
         <f t="shared" si="2"/>
         <v>نوع القسم</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="B191" s="9" t="str">
+      <c r="A191" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="B191" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Department Head Name</v>
       </c>
-      <c r="C191" s="9" t="str">
+      <c r="C191" s="11" t="str">
         <f t="shared" si="2"/>
         <v>اسم رئيس القسم</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="B192" s="9" t="str">
+      <c r="A192" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="B192" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Dept head code</v>
       </c>
-      <c r="C192" s="9" t="str">
+      <c r="C192" s="11" t="str">
         <f t="shared" si="2"/>
         <v>رمز رئيس القسم</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="B193" s="9" t="str">
+      <c r="A193" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="B193" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Top Level</v>
       </c>
-      <c r="C193" s="9" t="str">
+      <c r="C193" s="11" t="str">
         <f t="shared" si="2"/>
         <v>المستوى الأعلى</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="B194" s="9" t="str">
+      <c r="A194" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="B194" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Sub Level</v>
       </c>
-      <c r="C194" s="9" t="str">
+      <c r="C194" s="11" t="str">
         <f t="shared" si="2"/>
         <v>المستوى الفرعي</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="B195" s="9" t="str">
+      <c r="A195" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="B195" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Sublevel</v>
       </c>
-      <c r="C195" s="9" t="str">
+      <c r="C195" s="11" t="str">
         <f t="shared" si="2"/>
         <v>المستوى الفرعي</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="B196" s="9" t="str">
+      <c r="A196" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="B196" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Action</v>
       </c>
-      <c r="C196" s="9" t="str">
+      <c r="C196" s="11" t="str">
         <f t="shared" si="2"/>
         <v>فعل</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="9" t="s">
-        <v>631</v>
-      </c>
-      <c r="B197" s="9" t="str">
+      <c r="A197" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="B197" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Time</v>
       </c>
-      <c r="C197" s="9" t="str">
+      <c r="C197" s="11" t="str">
         <f t="shared" si="2"/>
         <v>وقت</v>
       </c>
@@ -8281,9 +9277,9 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="B2" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8291,7 +9287,7 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8299,7 +9295,7 @@
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8307,7 +9303,7 @@
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8315,7 +9311,7 @@
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8323,7 +9319,7 @@
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8331,7 +9327,7 @@
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8339,7 +9335,7 @@
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8347,7 +9343,7 @@
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8355,7 +9351,7 @@
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8363,7 +9359,7 @@
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8371,7 +9367,7 @@
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8379,15 +9375,15 @@
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="B15" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8395,7 +9391,7 @@
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8403,7 +9399,7 @@
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -8411,7 +9407,7 @@
       <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="12" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8419,7 +9415,7 @@
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="12" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8427,7 +9423,7 @@
       <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8435,7 +9431,7 @@
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="12" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8443,7 +9439,7 @@
       <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -8451,7 +9447,7 @@
       <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="12" t="s">
         <v>45</v>
       </c>
     </row>
@@ -8459,7 +9455,7 @@
       <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="12" t="s">
         <v>47</v>
       </c>
     </row>
@@ -8467,7 +9463,7 @@
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8475,7 +9471,7 @@
       <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -8483,7 +9479,7 @@
       <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -8491,7 +9487,7 @@
       <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="12" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8499,7 +9495,7 @@
       <c r="A29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8507,7 +9503,7 @@
       <c r="A30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="12" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8515,7 +9511,7 @@
       <c r="A31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -8523,15 +9519,15 @@
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="B33" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -8539,7 +9535,7 @@
       <c r="A34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="12" t="s">
         <v>67</v>
       </c>
     </row>
@@ -8547,7 +9543,7 @@
       <c r="A35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8555,7 +9551,7 @@
       <c r="A36" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8563,7 +9559,7 @@
       <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8571,7 +9567,7 @@
       <c r="A38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="12" t="s">
         <v>75</v>
       </c>
     </row>
@@ -8579,7 +9575,7 @@
       <c r="A39" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="12" t="s">
         <v>77</v>
       </c>
     </row>
@@ -8587,7 +9583,7 @@
       <c r="A40" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="12" t="s">
         <v>79</v>
       </c>
     </row>
@@ -8595,7 +9591,7 @@
       <c r="A41" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="12" t="s">
         <v>81</v>
       </c>
     </row>
@@ -8603,7 +9599,7 @@
       <c r="A42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="12" t="s">
         <v>83</v>
       </c>
     </row>
@@ -8611,7 +9607,7 @@
       <c r="A43" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="12" t="s">
         <v>85</v>
       </c>
     </row>
@@ -8619,7 +9615,7 @@
       <c r="A44" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="12" t="s">
         <v>87</v>
       </c>
     </row>
@@ -8627,7 +9623,7 @@
       <c r="A45" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="12" t="s">
         <v>89</v>
       </c>
     </row>
@@ -8635,7 +9631,7 @@
       <c r="A46" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="12" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8643,7 +9639,7 @@
       <c r="A47" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="12" t="s">
         <v>93</v>
       </c>
     </row>
@@ -8651,7 +9647,7 @@
       <c r="A48" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="12" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8659,7 +9655,7 @@
       <c r="A49" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="12" t="s">
         <v>97</v>
       </c>
     </row>
@@ -8667,7 +9663,7 @@
       <c r="A50" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="12" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8675,7 +9671,7 @@
       <c r="A51" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="12" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8683,7 +9679,7 @@
       <c r="A52" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="12" t="s">
         <v>102</v>
       </c>
     </row>
@@ -8691,7 +9687,7 @@
       <c r="A53" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="12" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8699,7 +9695,7 @@
       <c r="A54" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="12" t="s">
         <v>106</v>
       </c>
     </row>
@@ -8707,7 +9703,7 @@
       <c r="A55" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="12" t="s">
         <v>108</v>
       </c>
     </row>
@@ -8715,7 +9711,7 @@
       <c r="A56" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="12" t="s">
         <v>110</v>
       </c>
     </row>
@@ -8723,7 +9719,7 @@
       <c r="A57" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="12" t="s">
         <v>112</v>
       </c>
     </row>
@@ -8731,7 +9727,7 @@
       <c r="A58" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="12" t="s">
         <v>114</v>
       </c>
     </row>
@@ -8739,7 +9735,7 @@
       <c r="A59" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="12" t="s">
         <v>116</v>
       </c>
     </row>
@@ -8747,7 +9743,7 @@
       <c r="A60" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="12" t="s">
         <v>118</v>
       </c>
     </row>
@@ -8755,7 +9751,7 @@
       <c r="A61" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="12" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8763,7 +9759,7 @@
       <c r="A62" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="12" t="s">
         <v>122</v>
       </c>
     </row>
@@ -8771,7 +9767,7 @@
       <c r="A63" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -8779,7 +9775,7 @@
       <c r="A64" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="12" t="s">
         <v>189</v>
       </c>
       <c r="C64" s="4"/>
@@ -8788,7 +9784,7 @@
       <c r="A65" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="12" t="s">
         <v>195</v>
       </c>
       <c r="C65" s="4"/>
@@ -9753,2562 +10749,2562 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="B1" s="9" t="str">
+      <c r="A1" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="11" t="str">
         <f t="shared" ref="B1:B197" si="1">TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(A1, FIND(":", A1) - 1), """", ""), "'", ""), ",", ""))</f>
         <v>welcome Back!</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="11" t="str">
         <f t="shared" ref="C1:C197" si="2">TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(MID(A1, FIND(":", A1) + 2, LEN(A1)), """", ""), "'", ""), ",", ""))</f>
         <v>مرحبا بعودتك!</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="B2" s="9" t="str">
+      <c r="A2" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="B2" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Login to your account</v>
       </c>
-      <c r="C2" s="9" t="str">
+      <c r="C2" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تسجيل الدخول إلى حسابك</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="B3" s="9" t="str">
+      <c r="A3" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="B3" s="11" t="str">
         <f t="shared" si="1"/>
         <v>User Email</v>
       </c>
-      <c r="C3" s="9" t="str">
+      <c r="C3" s="11" t="str">
         <f t="shared" si="2"/>
         <v>البريد الإلكتروني للمستخدم</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B4" s="9" t="str">
+      <c r="A4" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="B4" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Password</v>
       </c>
-      <c r="C4" s="9" t="str">
+      <c r="C4" s="11" t="str">
         <f t="shared" si="2"/>
         <v>كلمة المرور</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B5" s="9" t="str">
+      <c r="A5" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="B5" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Select Location</v>
       </c>
-      <c r="C5" s="9" t="str">
+      <c r="C5" s="11" t="str">
         <f t="shared" si="2"/>
         <v>حدد الموقع</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="B6" s="9" t="str">
+      <c r="A6" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="B6" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Location 1</v>
       </c>
-      <c r="C6" s="9" t="str">
+      <c r="C6" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الموقع 1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="B7" s="9" t="str">
+      <c r="A7" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="B7" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Location 2</v>
       </c>
-      <c r="C7" s="9" t="str">
+      <c r="C7" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الموقع 2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="B8" s="9" t="str">
+      <c r="A8" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="B8" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Remember me</v>
       </c>
-      <c r="C8" s="9" t="str">
+      <c r="C8" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تذكرني</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B9" s="9" t="str">
+      <c r="A9" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="B9" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Forgot password?</v>
       </c>
-      <c r="C9" s="9" t="str">
+      <c r="C9" s="11" t="str">
         <f t="shared" si="2"/>
         <v>هل نسيت كلمة المرور؟</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="B10" s="9" t="str">
+      <c r="A10" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="B10" s="11" t="str">
         <f t="shared" si="1"/>
         <v>LOGIN</v>
       </c>
-      <c r="C10" s="9" t="str">
+      <c r="C10" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تسجيل الدخول</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="B11" s="9" t="str">
+      <c r="A11" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="B11" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Redefining Employee Management</v>
       </c>
-      <c r="C11" s="9" t="str">
+      <c r="C11" s="11" t="str">
         <f t="shared" si="2"/>
         <v>إعادة تعريف إدارة الموظفين</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="B12" s="9" t="str">
+      <c r="A12" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="B12" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Foster a connected workforce with our all-in-one ERP solution.</v>
       </c>
-      <c r="C12" s="9" t="str">
+      <c r="C12" s="11" t="str">
         <f t="shared" si="2"/>
         <v>عزز قوة عاملة متصلة من خلال حل تخطيط موارد المؤسسات (ERP) الشامل لدينا.</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="B13" s="9" t="str">
+      <c r="A13" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="B13" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Complete Employee Management Platform</v>
       </c>
-      <c r="C13" s="9" t="str">
+      <c r="C13" s="11" t="str">
         <f t="shared" si="2"/>
         <v>منصة كاملة لإدارة الموظفين</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="B14" s="9" t="str">
+      <c r="A14" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="B14" s="11" t="str">
         <f t="shared" si="1"/>
         <v>From recruitment to retirement manage every employee journey seamlessly and efficiently.</v>
       </c>
-      <c r="C14" s="9" t="str">
+      <c r="C14" s="11" t="str">
         <f t="shared" si="2"/>
         <v>من التوظيف إلى التقاعد، قم بإدارة رحلة كل موظف بسلاسة وكفاءة.</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="B15" s="9" t="str">
+      <c r="A15" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="B15" s="11" t="str">
         <f t="shared" si="1"/>
         <v>The Future of Workforce Management</v>
       </c>
-      <c r="C15" s="9" t="str">
+      <c r="C15" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مستقبل إدارة القوى العاملة</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="B16" s="9" t="str">
+      <c r="A16" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B16" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Boost Engagement and Compliance with Intuitive ERP Solutions.</v>
       </c>
-      <c r="C16" s="9" t="str">
+      <c r="C16" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تعزيز المشاركة والامتثال من خلال حلول تخطيط موارد المؤسسات (ERP) البديهية.</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="B17" s="9" t="str">
+      <c r="A17" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="B17" s="11" t="str">
         <f t="shared" si="1"/>
         <v>January</v>
       </c>
-      <c r="C17" s="9" t="str">
+      <c r="C17" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يناير</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="B18" s="9" t="str">
+      <c r="A18" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="B18" s="11" t="str">
         <f t="shared" si="1"/>
         <v>February</v>
       </c>
-      <c r="C18" s="9" t="str">
+      <c r="C18" s="11" t="str">
         <f t="shared" si="2"/>
         <v>فبراير</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="B19" s="9" t="str">
+      <c r="A19" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="B19" s="11" t="str">
         <f t="shared" si="1"/>
         <v>March</v>
       </c>
-      <c r="C19" s="9" t="str">
+      <c r="C19" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مارس</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="B20" s="9" t="str">
+      <c r="A20" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="B20" s="11" t="str">
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="C20" s="9" t="str">
+      <c r="C20" s="11" t="str">
         <f t="shared" si="2"/>
         <v>أبريل</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="B21" s="9" t="str">
+      <c r="A21" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="B21" s="11" t="str">
         <f t="shared" si="1"/>
         <v>May</v>
       </c>
-      <c r="C21" s="9" t="str">
+      <c r="C21" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مايو</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="B22" s="9" t="str">
+      <c r="A22" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="B22" s="11" t="str">
         <f t="shared" si="1"/>
         <v>June</v>
       </c>
-      <c r="C22" s="9" t="str">
+      <c r="C22" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يونيو</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="B23" s="9" t="str">
+      <c r="A23" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="B23" s="11" t="str">
         <f t="shared" si="1"/>
         <v>July</v>
       </c>
-      <c r="C23" s="9" t="str">
+      <c r="C23" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يوليو</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B24" s="9" t="str">
+      <c r="A24" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="B24" s="11" t="str">
         <f t="shared" si="1"/>
         <v>August</v>
       </c>
-      <c r="C24" s="9" t="str">
+      <c r="C24" s="11" t="str">
         <f t="shared" si="2"/>
         <v>أغسطس</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="B25" s="9" t="str">
+      <c r="A25" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="B25" s="11" t="str">
         <f t="shared" si="1"/>
         <v>September</v>
       </c>
-      <c r="C25" s="9" t="str">
+      <c r="C25" s="11" t="str">
         <f t="shared" si="2"/>
         <v>سبتمبر</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="B26" s="9" t="str">
+      <c r="A26" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="B26" s="11" t="str">
         <f t="shared" si="1"/>
         <v>October</v>
       </c>
-      <c r="C26" s="9" t="str">
+      <c r="C26" s="11" t="str">
         <f t="shared" si="2"/>
         <v>أكتوبر</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="B27" s="9" t="str">
+      <c r="A27" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="B27" s="11" t="str">
         <f t="shared" si="1"/>
         <v>November</v>
       </c>
-      <c r="C27" s="9" t="str">
+      <c r="C27" s="11" t="str">
         <f t="shared" si="2"/>
         <v>نوفمبر</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="B28" s="9" t="str">
+      <c r="A28" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="B28" s="11" t="str">
         <f t="shared" si="1"/>
         <v>December</v>
       </c>
-      <c r="C28" s="9" t="str">
+      <c r="C28" s="11" t="str">
         <f t="shared" si="2"/>
         <v>ديسمبر</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="B29" s="9" t="str">
+      <c r="A29" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="B29" s="11" t="str">
         <f t="shared" si="1"/>
         <v>ABSENT</v>
       </c>
-      <c r="C29" s="9" t="str">
+      <c r="C29" s="11" t="str">
         <f t="shared" si="2"/>
         <v>غائب</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="B30" s="9" t="str">
+      <c r="A30" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="B30" s="11" t="str">
         <f t="shared" si="1"/>
         <v>LEAVE</v>
       </c>
-      <c r="C30" s="9" t="str">
+      <c r="C30" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يترك</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="B31" s="9" t="str">
+      <c r="A31" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="B31" s="11" t="str">
         <f t="shared" si="1"/>
         <v>LOAN</v>
       </c>
-      <c r="C31" s="9" t="str">
+      <c r="C31" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يُقرض</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="B32" s="9" t="str">
+      <c r="A32" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="B32" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Late In Early Out</v>
       </c>
-      <c r="C32" s="9" t="str">
+      <c r="C32" s="11" t="str">
         <f t="shared" si="2"/>
         <v>في وقت متأخر، في وقت مبكر للخروج</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="B33" s="9" t="str">
+      <c r="A33" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="B33" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Attendance</v>
       </c>
-      <c r="C33" s="9" t="str">
+      <c r="C33" s="11" t="str">
         <f t="shared" si="2"/>
         <v>حضور</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="B34" s="9" t="str">
+      <c r="A34" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="B34" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Remarks</v>
       </c>
-      <c r="C34" s="9" t="str">
+      <c r="C34" s="11" t="str">
         <f t="shared" si="2"/>
         <v>ملاحظات</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="B35" s="9" t="str">
+      <c r="A35" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="B35" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Type</v>
       </c>
-      <c r="C35" s="9" t="str">
+      <c r="C35" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يكتب</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="B36" s="9" t="str">
+      <c r="A36" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="B36" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Location</v>
       </c>
-      <c r="C36" s="9" t="str">
+      <c r="C36" s="11" t="str">
         <f t="shared" si="2"/>
         <v>موقع</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="B37" s="9" t="str">
+      <c r="A37" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="B37" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Check In</v>
       </c>
-      <c r="C37" s="9" t="str">
+      <c r="C37" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الدفع</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="B38" s="9" t="str">
+      <c r="A38" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="B38" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Check Out</v>
       </c>
-      <c r="C38" s="9" t="str">
+      <c r="C38" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تحقق في</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="B39" s="9" t="str">
+      <c r="A39" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="B39" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Office</v>
       </c>
-      <c r="C39" s="9" t="str">
+      <c r="C39" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مكتب</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="B40" s="9" t="str">
+      <c r="A40" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="B40" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Client</v>
       </c>
-      <c r="C40" s="9" t="str">
+      <c r="C40" s="11" t="str">
         <f t="shared" si="2"/>
         <v>عميل</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="B41" s="9" t="str">
+      <c r="A41" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="B41" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Home</v>
       </c>
-      <c r="C41" s="9" t="str">
+      <c r="C41" s="11" t="str">
         <f t="shared" si="2"/>
         <v>بيت</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="B42" s="9" t="str">
+      <c r="A42" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="B42" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Date</v>
       </c>
-      <c r="C42" s="9" t="str">
+      <c r="C42" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تاريخ</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="B43" s="9" t="str">
+      <c r="A43" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="B43" s="11" t="str">
         <f t="shared" si="1"/>
         <v>In</v>
       </c>
-      <c r="C43" s="9" t="str">
+      <c r="C43" s="11" t="str">
         <f t="shared" si="2"/>
         <v>في</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="B44" s="9" t="str">
+      <c r="A44" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="B44" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Out</v>
       </c>
-      <c r="C44" s="9" t="str">
+      <c r="C44" s="11" t="str">
         <f t="shared" si="2"/>
         <v>خارج</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="B45" s="9" t="str">
+      <c r="A45" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="B45" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Shift</v>
       </c>
-      <c r="C45" s="9" t="str">
+      <c r="C45" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يحول</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="B46" s="9" t="str">
+      <c r="A46" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="B46" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Training</v>
       </c>
-      <c r="C46" s="9" t="str">
+      <c r="C46" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تمرين</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="B47" s="9" t="str">
+      <c r="A47" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="B47" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Attend Date</v>
       </c>
-      <c r="C47" s="9" t="str">
+      <c r="C47" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تاريخ الحضور</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="B48" s="9" t="str">
+      <c r="A48" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="B48" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Request Training</v>
       </c>
-      <c r="C48" s="9" t="str">
+      <c r="C48" s="11" t="str">
         <f t="shared" si="2"/>
         <v>طلب التدريب</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="B49" s="9" t="str">
+      <c r="A49" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="B49" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Select Training</v>
       </c>
-      <c r="C49" s="9" t="str">
+      <c r="C49" s="11" t="str">
         <f t="shared" si="2"/>
         <v>اختر التدريب</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="B50" s="9" t="str">
+      <c r="A50" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="B50" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Choose a training</v>
       </c>
-      <c r="C50" s="9" t="str">
+      <c r="C50" s="11" t="str">
         <f t="shared" si="2"/>
         <v>اختر التدريب</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="B51" s="9" t="str">
+      <c r="A51" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="B51" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Pref. Date</v>
       </c>
-      <c r="C51" s="9" t="str">
+      <c r="C51" s="11" t="str">
         <f t="shared" si="2"/>
         <v>التاريخ المفضل</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="B52" s="9" t="str">
+      <c r="A52" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="B52" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Reason</v>
       </c>
-      <c r="C52" s="9" t="str">
+      <c r="C52" s="11" t="str">
         <f t="shared" si="2"/>
         <v>سبب</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="B53" s="9" t="str">
+      <c r="A53" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="B53" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Save</v>
       </c>
-      <c r="C53" s="9" t="str">
+      <c r="C53" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يحفظ</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="B54" s="9" t="str">
+      <c r="A54" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="B54" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Cancel</v>
       </c>
-      <c r="C54" s="9" t="str">
+      <c r="C54" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يلغي</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="B55" s="9" t="str">
+      <c r="A55" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="B55" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Holidays</v>
       </c>
-      <c r="C55" s="9" t="str">
+      <c r="C55" s="11" t="str">
         <f t="shared" si="2"/>
         <v>العطل</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="B56" s="9" t="str">
+      <c r="A56" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="B56" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Description</v>
       </c>
-      <c r="C56" s="9" t="str">
+      <c r="C56" s="11" t="str">
         <f t="shared" si="2"/>
         <v>وصف</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="B57" s="9" t="str">
+      <c r="A57" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="B57" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Documents</v>
       </c>
-      <c r="C57" s="9" t="str">
+      <c r="C57" s="11" t="str">
         <f t="shared" si="2"/>
         <v>وثائق</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="B58" s="9" t="str">
+      <c r="A58" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="B58" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Actions</v>
       </c>
-      <c r="C58" s="9" t="str">
+      <c r="C58" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الإجراءات</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="B59" s="9" t="str">
+      <c r="A59" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="B59" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Image</v>
       </c>
-      <c r="C59" s="9" t="str">
+      <c r="C59" s="11" t="str">
         <f t="shared" si="2"/>
         <v>صورة</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="B60" s="9" t="str">
+      <c r="A60" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="B60" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Expiry</v>
       </c>
-      <c r="C60" s="9" t="str">
+      <c r="C60" s="11" t="str">
         <f t="shared" si="2"/>
         <v>انتهاء الصلاحية</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="B61" s="9" t="str">
+      <c r="A61" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="B61" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Number</v>
       </c>
-      <c r="C61" s="9" t="str">
+      <c r="C61" s="11" t="str">
         <f t="shared" si="2"/>
         <v>رقم</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="B62" s="9" t="str">
+      <c r="A62" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="B62" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Staff Ledger</v>
       </c>
-      <c r="C62" s="9" t="str">
+      <c r="C62" s="11" t="str">
         <f t="shared" si="2"/>
         <v>دفتر حسابات الموظفين</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="B63" s="9" t="str">
+      <c r="A63" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="B63" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Account</v>
       </c>
-      <c r="C63" s="9" t="str">
+      <c r="C63" s="11" t="str">
         <f t="shared" si="2"/>
         <v>حساب</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="B64" s="9" t="str">
+      <c r="A64" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="B64" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Ref#</v>
       </c>
-      <c r="C64" s="9" t="str">
+      <c r="C64" s="11" t="str">
         <f t="shared" si="2"/>
         <v>المرجع #</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="B65" s="9" t="str">
+      <c r="A65" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="B65" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Amount</v>
       </c>
-      <c r="C65" s="9" t="str">
+      <c r="C65" s="11" t="str">
         <f t="shared" si="2"/>
         <v>كمية</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="B66" s="9" t="str">
+      <c r="A66" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="B66" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Announcements</v>
       </c>
-      <c r="C66" s="9" t="str">
+      <c r="C66" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الإعلانات</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="B67" s="9" t="str">
+      <c r="A67" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="B67" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Latest announcements will appear here.</v>
       </c>
-      <c r="C67" s="9" t="str">
+      <c r="C67" s="11" t="str">
         <f t="shared" si="2"/>
         <v>أحدث الإعلانات ستظهر هنا.</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="B68" s="9" t="str">
+      <c r="A68" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="B68" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Monthly Salary Statistics</v>
       </c>
-      <c r="C68" s="9" t="str">
+      <c r="C68" s="11" t="str">
         <f t="shared" si="2"/>
         <v>إحصاءات الرواتب الشهرية</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="B69" s="9" t="str">
+      <c r="A69" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="B69" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Loan Request</v>
       </c>
-      <c r="C69" s="9" t="str">
+      <c r="C69" s="11" t="str">
         <f t="shared" si="2"/>
         <v>طلب القرض</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="B70" s="9" t="str">
+      <c r="A70" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="B70" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Status</v>
       </c>
-      <c r="C70" s="9" t="str">
+      <c r="C70" s="11" t="str">
         <f t="shared" si="2"/>
         <v>حالة</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="B71" s="9" t="str">
+      <c r="A71" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="B71" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Guarantor</v>
       </c>
-      <c r="C71" s="9" t="str">
+      <c r="C71" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الضامن</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="B72" s="9" t="str">
+      <c r="A72" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="B72" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Request</v>
       </c>
-      <c r="C72" s="9" t="str">
+      <c r="C72" s="11" t="str">
         <f t="shared" si="2"/>
         <v>طلب</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="B73" s="9" t="str">
+      <c r="A73" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="B73" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Expense Request</v>
       </c>
-      <c r="C73" s="9" t="str">
+      <c r="C73" s="11" t="str">
         <f t="shared" si="2"/>
         <v>طلب النفقات</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="B74" s="9" t="str">
+      <c r="A74" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="B74" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Voucher</v>
       </c>
-      <c r="C74" s="9" t="str">
+      <c r="C74" s="11" t="str">
         <f t="shared" si="2"/>
         <v>قسيمة</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="B75" s="9" t="str">
+      <c r="A75" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="B75" s="11" t="str">
         <f t="shared" si="1"/>
         <v>New Expense Request</v>
       </c>
-      <c r="C75" s="9" t="str">
+      <c r="C75" s="11" t="str">
         <f t="shared" si="2"/>
         <v>طلب نفقات جديد</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="B76" s="9" t="str">
+      <c r="A76" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="B76" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Submit</v>
       </c>
-      <c r="C76" s="9" t="str">
+      <c r="C76" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يُقدِّم</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="B77" s="9" t="str">
+      <c r="A77" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="B77" s="11" t="str">
         <f t="shared" si="1"/>
         <v>New Loan Request</v>
       </c>
-      <c r="C77" s="9" t="str">
+      <c r="C77" s="11" t="str">
         <f t="shared" si="2"/>
         <v>طلب قرض جديد</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="B78" s="9" t="str">
+      <c r="A78" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="B78" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Personal Loan</v>
       </c>
-      <c r="C78" s="9" t="str">
+      <c r="C78" s="11" t="str">
         <f t="shared" si="2"/>
         <v>القرض الشخصي</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="B79" s="9" t="str">
+      <c r="A79" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="B79" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Car Loan</v>
       </c>
-      <c r="C79" s="9" t="str">
+      <c r="C79" s="11" t="str">
         <f t="shared" si="2"/>
         <v>قرض السيارة</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="B80" s="9" t="str">
+      <c r="A80" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B80" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Home Loan</v>
       </c>
-      <c r="C80" s="9" t="str">
+      <c r="C80" s="11" t="str">
         <f t="shared" si="2"/>
         <v>قرض المنزل</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="B81" s="9" t="str">
+      <c r="A81" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="B81" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Travel</v>
       </c>
-      <c r="C81" s="9" t="str">
+      <c r="C81" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يسافر</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="B82" s="9" t="str">
+      <c r="A82" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="B82" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Office Supplies</v>
       </c>
-      <c r="C82" s="9" t="str">
+      <c r="C82" s="11" t="str">
         <f t="shared" si="2"/>
         <v>اللوازم المكتبية</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="B83" s="9" t="str">
+      <c r="A83" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="B83" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Meals</v>
       </c>
-      <c r="C83" s="9" t="str">
+      <c r="C83" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الوجبات</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="B84" s="9" t="str">
+      <c r="A84" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="B84" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Leave</v>
       </c>
-      <c r="C84" s="9" t="str">
+      <c r="C84" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يترك</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="B85" s="9" t="str">
+      <c r="A85" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="B85" s="11" t="str">
         <f t="shared" si="1"/>
         <v>From Date</v>
       </c>
-      <c r="C85" s="9" t="str">
+      <c r="C85" s="11" t="str">
         <f t="shared" si="2"/>
         <v>من التاريخ</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="B86" s="9" t="str">
+      <c r="A86" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="B86" s="11" t="str">
         <f t="shared" si="1"/>
         <v>To Date</v>
       </c>
-      <c r="C86" s="9" t="str">
+      <c r="C86" s="11" t="str">
         <f t="shared" si="2"/>
         <v>حتى الآن</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="B87" s="9" t="str">
+      <c r="A87" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="B87" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Sick Leave</v>
       </c>
-      <c r="C87" s="9" t="str">
+      <c r="C87" s="11" t="str">
         <f t="shared" si="2"/>
         <v>إجازة مرضية</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="B88" s="9" t="str">
+      <c r="A88" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="B88" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Casual Leave</v>
       </c>
-      <c r="C88" s="9" t="str">
+      <c r="C88" s="11" t="str">
         <f t="shared" si="2"/>
         <v>إجازة عارضة</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="B89" s="9" t="str">
+      <c r="A89" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="B89" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Paid Leave</v>
       </c>
-      <c r="C89" s="9" t="str">
+      <c r="C89" s="11" t="str">
         <f t="shared" si="2"/>
         <v>إجازة مدفوعة الأجر</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="B90" s="9" t="str">
+      <c r="A90" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="B90" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Work from Home</v>
       </c>
-      <c r="C90" s="9" t="str">
+      <c r="C90" s="11" t="str">
         <f t="shared" si="2"/>
         <v>العمل من المنزل</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="B91" s="9" t="str">
+      <c r="A91" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="B91" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Half Day</v>
       </c>
-      <c r="C91" s="9" t="str">
+      <c r="C91" s="11" t="str">
         <f t="shared" si="2"/>
         <v>نصف يوم</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="B92" s="9" t="str">
+      <c r="A92" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="B92" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Leave Request</v>
       </c>
-      <c r="C92" s="9" t="str">
+      <c r="C92" s="11" t="str">
         <f t="shared" si="2"/>
         <v>طلب الإجازة</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="B93" s="9" t="str">
+      <c r="A93" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="B93" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Pay Slip</v>
       </c>
-      <c r="C93" s="9" t="str">
+      <c r="C93" s="11" t="str">
         <f t="shared" si="2"/>
         <v>قسيمة الدفع</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="B94" s="9" t="str">
+      <c r="A94" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="B94" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Month</v>
       </c>
-      <c r="C94" s="9" t="str">
+      <c r="C94" s="11" t="str">
         <f t="shared" si="2"/>
         <v>شهر</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="B95" s="9" t="str">
+      <c r="A95" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="B95" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Attendance Request</v>
       </c>
-      <c r="C95" s="9" t="str">
+      <c r="C95" s="11" t="str">
         <f t="shared" si="2"/>
         <v>طلب الحضور</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="B96" s="9" t="str">
+      <c r="A96" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="B96" s="11" t="str">
         <f t="shared" si="1"/>
         <v>New</v>
       </c>
-      <c r="C96" s="9" t="str">
+      <c r="C96" s="11" t="str">
         <f t="shared" si="2"/>
         <v>جديد</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="B97" s="9" t="str">
+      <c r="A97" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="B97" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Date &amp; Time</v>
       </c>
-      <c r="C97" s="9" t="str">
+      <c r="C97" s="11" t="str">
         <f t="shared" si="2"/>
         <v>التاريخ والوقت</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="B98" s="9" t="str">
+      <c r="A98" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="B98" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Promotion Requests</v>
       </c>
-      <c r="C98" s="9" t="str">
+      <c r="C98" s="11" t="str">
         <f t="shared" si="2"/>
         <v>طلبات الترويج</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="B99" s="9" t="str">
+      <c r="A99" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="B99" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Manager</v>
       </c>
-      <c r="C99" s="9" t="str">
+      <c r="C99" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مدير</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="B100" s="9" t="str">
+      <c r="A100" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="B100" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Chief</v>
       </c>
-      <c r="C100" s="9" t="str">
+      <c r="C100" s="11" t="str">
         <f t="shared" si="2"/>
         <v>رئيس</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="B101" s="9" t="str">
+      <c r="A101" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="B101" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Supervisor</v>
       </c>
-      <c r="C101" s="9" t="str">
+      <c r="C101" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مشرف</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="B102" s="9" t="str">
+      <c r="A102" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="B102" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Delete</v>
       </c>
-      <c r="C102" s="9" t="str">
+      <c r="C102" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يمسح</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="B103" s="9" t="str">
+      <c r="A103" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="B103" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Print</v>
       </c>
-      <c r="C103" s="9" t="str">
+      <c r="C103" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مطبعة</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="B104" s="9" t="str">
+      <c r="A104" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="B104" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Log</v>
       </c>
-      <c r="C104" s="9" t="str">
+      <c r="C104" s="11" t="str">
         <f t="shared" si="2"/>
         <v>سجل</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="B105" s="9" t="str">
+      <c r="A105" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="B105" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Draft</v>
       </c>
-      <c r="C105" s="9" t="str">
+      <c r="C105" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مسودة</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="B106" s="9" t="str">
+      <c r="A106" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="B106" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Doc No</v>
       </c>
-      <c r="C106" s="9" t="str">
+      <c r="C106" s="11" t="str">
         <f t="shared" si="2"/>
         <v>:رقم المستند:</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="B107" s="9" t="str">
+      <c r="A107" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="B107" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Doc Date</v>
       </c>
-      <c r="C107" s="9" t="str">
+      <c r="C107" s="11" t="str">
         <f t="shared" si="2"/>
         <v>:تاريخ المستند:</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="B108" s="9" t="str">
+      <c r="A108" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="B108" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Document Actions</v>
       </c>
-      <c r="C108" s="9" t="str">
+      <c r="C108" s="11" t="str">
         <f t="shared" si="2"/>
         <v>إجراءات المستند</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="B109" s="9" t="str">
+      <c r="A109" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="B109" s="11" t="str">
         <f t="shared" si="1"/>
         <v>References</v>
       </c>
-      <c r="C109" s="9" t="str">
+      <c r="C109" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مراجع</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="B110" s="9" t="str">
+      <c r="A110" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="B110" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Attachments</v>
       </c>
-      <c r="C110" s="9" t="str">
+      <c r="C110" s="11" t="str">
         <f t="shared" si="2"/>
         <v>المرفقات</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="B111" s="9" t="str">
+      <c r="A111" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="B111" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Drafts</v>
       </c>
-      <c r="C111" s="9" t="str">
+      <c r="C111" s="11" t="str">
         <f t="shared" si="2"/>
         <v>المسودات</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="B112" s="9" t="str">
+      <c r="A112" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="B112" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Document List</v>
       </c>
-      <c r="C112" s="9" t="str">
+      <c r="C112" s="11" t="str">
         <f t="shared" si="2"/>
         <v>قائمة المستندات</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="B113" s="9" t="str">
+      <c r="A113" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="B113" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Notes</v>
       </c>
-      <c r="C113" s="9" t="str">
+      <c r="C113" s="11" t="str">
         <f t="shared" si="2"/>
         <v>ملحوظات</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="B114" s="9" t="str">
+      <c r="A114" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="B114" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Search for an item...</v>
       </c>
-      <c r="C114" s="9" t="str">
+      <c r="C114" s="11" t="str">
         <f t="shared" si="2"/>
         <v>البحث عن عنصر</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="B115" s="9" t="str">
+      <c r="A115" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="B115" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Help &amp; Support</v>
       </c>
-      <c r="C115" s="9" t="str">
+      <c r="C115" s="11" t="str">
         <f t="shared" si="2"/>
         <v>المساعدة والدعم</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="B116" s="9" t="str">
+      <c r="A116" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="B116" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Notifications</v>
       </c>
-      <c r="C116" s="9" t="str">
+      <c r="C116" s="11" t="str">
         <f t="shared" si="2"/>
         <v>إشعارات</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="B117" s="9" t="str">
+      <c r="A117" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="B117" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Settings</v>
       </c>
-      <c r="C117" s="9" t="str">
+      <c r="C117" s="11" t="str">
         <f t="shared" si="2"/>
         <v>إعدادات</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="B118" s="9" t="str">
+      <c r="A118" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="B118" s="11" t="str">
         <f t="shared" si="1"/>
         <v>System</v>
       </c>
-      <c r="C118" s="9" t="str">
+      <c r="C118" s="11" t="str">
         <f t="shared" si="2"/>
         <v>نظام</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="B119" s="9" t="str">
+      <c r="A119" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="B119" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Master Setup</v>
       </c>
-      <c r="C119" s="9" t="str">
+      <c r="C119" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الإعداد الرئيسي</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="B120" s="9" t="str">
+      <c r="A120" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="B120" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Employee Self Service</v>
       </c>
-      <c r="C120" s="9" t="str">
+      <c r="C120" s="11" t="str">
         <f t="shared" si="2"/>
         <v>خدمة الموظفين الذاتية</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="B121" s="9" t="str">
+      <c r="A121" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="B121" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Employee Management</v>
       </c>
-      <c r="C121" s="9" t="str">
+      <c r="C121" s="11" t="str">
         <f t="shared" si="2"/>
         <v>إدارة الموظفين</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="B122" s="9" t="str">
+      <c r="A122" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="B122" s="11" t="str">
         <f t="shared" si="1"/>
         <v>View Profile</v>
       </c>
-      <c r="C122" s="9" t="str">
+      <c r="C122" s="11" t="str">
         <f t="shared" si="2"/>
         <v>عرض الملف الشخصي</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="B123" s="9" t="str">
+      <c r="A123" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="B123" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Change Password</v>
       </c>
-      <c r="C123" s="9" t="str">
+      <c r="C123" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تغيير كلمة المرور</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="B124" s="9" t="str">
+      <c r="A124" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="B124" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Logout</v>
       </c>
-      <c r="C124" s="9" t="str">
+      <c r="C124" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تسجيل الخروج</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="B125" s="9" t="str">
+      <c r="A125" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="B125" s="11" t="str">
         <f t="shared" si="1"/>
         <v>DEPARTMENT WISE</v>
       </c>
-      <c r="C125" s="9" t="str">
+      <c r="C125" s="11" t="str">
         <f t="shared" si="2"/>
         <v>حسب القسم</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="B126" s="9" t="str">
+      <c r="A126" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="B126" s="11" t="str">
         <f t="shared" si="1"/>
         <v>NATIONALITY WISE</v>
       </c>
-      <c r="C126" s="9" t="str">
+      <c r="C126" s="11" t="str">
         <f t="shared" si="2"/>
         <v>حسب الجنسية</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="B127" s="9" t="str">
+      <c r="A127" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="B127" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Announcement</v>
       </c>
-      <c r="C127" s="9" t="str">
+      <c r="C127" s="11" t="str">
         <f t="shared" si="2"/>
         <v>إعلان</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="B128" s="9" t="str">
+      <c r="A128" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="B128" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Type your annoucement here...</v>
       </c>
-      <c r="C128" s="9" t="str">
+      <c r="C128" s="11" t="str">
         <f t="shared" si="2"/>
         <v>اكتب إعلانك هنا...</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="B129" s="9" t="str">
+      <c r="A129" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="B129" s="11" t="str">
         <f t="shared" si="1"/>
         <v>SEND</v>
       </c>
-      <c r="C129" s="9" t="str">
+      <c r="C129" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يرسل</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="B130" s="9" t="str">
+      <c r="A130" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="B130" s="11" t="str">
         <f t="shared" si="1"/>
         <v>SALARY</v>
       </c>
-      <c r="C130" s="9" t="str">
+      <c r="C130" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مرتب</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="B131" s="9" t="str">
+      <c r="A131" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="B131" s="11" t="str">
         <f t="shared" si="1"/>
         <v>LOCATION WISE</v>
       </c>
-      <c r="C131" s="9" t="str">
+      <c r="C131" s="11" t="str">
         <f t="shared" si="2"/>
         <v>من حيث الموقع</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="B132" s="9" t="str">
+      <c r="A132" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="B132" s="11" t="str">
         <f t="shared" si="1"/>
         <v>HR COMPONENT WISE SALARY</v>
       </c>
-      <c r="C132" s="9" t="str">
+      <c r="C132" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الراتب حسب مكونات الموارد البشرية</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="9" t="s">
-        <v>567</v>
-      </c>
-      <c r="B133" s="9" t="str">
+      <c r="A133" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="B133" s="11" t="str">
         <f t="shared" si="1"/>
         <v>SALARY BY COMPONENT</v>
       </c>
-      <c r="C133" s="9" t="str">
+      <c r="C133" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الراتب حسب المكون</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="B134" s="9" t="str">
+      <c r="A134" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="B134" s="11" t="str">
         <f t="shared" si="1"/>
         <v>FULL TIME</v>
       </c>
-      <c r="C134" s="9" t="str">
+      <c r="C134" s="11" t="str">
         <f t="shared" si="2"/>
         <v>دوام كامل</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="B135" s="9" t="str">
+      <c r="A135" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="B135" s="11" t="str">
         <f t="shared" si="1"/>
         <v>FEMALE</v>
       </c>
-      <c r="C135" s="9" t="str">
+      <c r="C135" s="11" t="str">
         <f t="shared" si="2"/>
         <v>أنثى</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="B136" s="9" t="str">
+      <c r="A136" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="B136" s="11" t="str">
         <f t="shared" si="1"/>
         <v>MALE</v>
       </c>
-      <c r="C136" s="9" t="str">
+      <c r="C136" s="11" t="str">
         <f t="shared" si="2"/>
         <v>MALE</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="B137" s="9" t="str">
+      <c r="A137" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="B137" s="11" t="str">
         <f t="shared" si="1"/>
         <v>HEAD COUNT</v>
       </c>
-      <c r="C137" s="9" t="str">
+      <c r="C137" s="11" t="str">
         <f t="shared" si="2"/>
         <v>عدد الرؤوس</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="B138" s="9" t="str">
+      <c r="A138" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="B138" s="11" t="str">
         <f t="shared" si="1"/>
         <v>REGISTRATION</v>
       </c>
-      <c r="C138" s="9" t="str">
+      <c r="C138" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تسجيل</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="B139" s="9" t="str">
+      <c r="A139" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="B139" s="11" t="str">
         <f t="shared" si="1"/>
         <v>TERMINATION</v>
       </c>
-      <c r="C139" s="9" t="str">
+      <c r="C139" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الإنهاء</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="B140" s="9" t="str">
+      <c r="A140" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="B140" s="11" t="str">
         <f t="shared" si="1"/>
         <v>HIRE</v>
       </c>
-      <c r="C140" s="9" t="str">
+      <c r="C140" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يؤجر</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="B141" s="9" t="str">
+      <c r="A141" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="B141" s="11" t="str">
         <f t="shared" si="1"/>
         <v>PART TIME</v>
       </c>
-      <c r="C141" s="9" t="str">
+      <c r="C141" s="11" t="str">
         <f t="shared" si="2"/>
         <v>دوام جزئى</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="B142" s="9" t="str">
+      <c r="A142" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="B142" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Payrole Period</v>
       </c>
-      <c r="C142" s="9" t="str">
+      <c r="C142" s="11" t="str">
         <f t="shared" si="2"/>
         <v>فترة الرواتب</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="B143" s="9" t="str">
+      <c r="A143" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="B143" s="11" t="str">
         <f t="shared" si="1"/>
         <v>All DED Code</v>
       </c>
-      <c r="C143" s="9" t="str">
+      <c r="C143" s="11" t="str">
         <f t="shared" si="2"/>
         <v>جميع رموز DED</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="B144" s="9" t="str">
+      <c r="A144" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="B144" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Input Type</v>
       </c>
-      <c r="C144" s="9" t="str">
+      <c r="C144" s="11" t="str">
         <f t="shared" si="2"/>
         <v>نوع الإدخال</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="B145" s="9" t="str">
+      <c r="A145" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="B145" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Employee Name</v>
       </c>
-      <c r="C145" s="9" t="str">
+      <c r="C145" s="11" t="str">
         <f t="shared" si="2"/>
         <v>اسم الموظف</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="B146" s="9" t="str">
+      <c r="A146" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="B146" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Emp Code</v>
       </c>
-      <c r="C146" s="9" t="str">
+      <c r="C146" s="11" t="str">
         <f t="shared" si="2"/>
         <v>رمز الإمب</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="B147" s="9" t="str">
+      <c r="A147" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="B147" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Import Excel</v>
       </c>
-      <c r="C147" s="9" t="str">
+      <c r="C147" s="11" t="str">
         <f t="shared" si="2"/>
         <v>استيراد إكسل</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="B148" s="9" t="str">
+      <c r="A148" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="B148" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Export Excel</v>
       </c>
-      <c r="C148" s="9" t="str">
+      <c r="C148" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تصدير إكسل</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="B149" s="9" t="str">
+      <c r="A149" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="B149" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Load Data</v>
       </c>
-      <c r="C149" s="9" t="str">
+      <c r="C149" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تحميل البيانات</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="B150" s="9" t="str">
+      <c r="A150" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="B150" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Details</v>
       </c>
-      <c r="C150" s="9" t="str">
+      <c r="C150" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تفاصيل</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="B151" s="9" t="str">
+      <c r="A151" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="B151" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Basic Salary</v>
       </c>
-      <c r="C151" s="9" t="str">
+      <c r="C151" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الراتب الأساسي</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="B152" s="9" t="str">
+      <c r="A152" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="B152" s="11" t="str">
         <f t="shared" si="1"/>
         <v>All Ded Code</v>
       </c>
-      <c r="C152" s="9" t="str">
+      <c r="C152" s="11" t="str">
         <f t="shared" si="2"/>
         <v>جميع رموز DED</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="B153" s="9" t="str">
+      <c r="A153" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="B153" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Select</v>
       </c>
-      <c r="C153" s="9" t="str">
+      <c r="C153" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يختار</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="B154" s="9" t="str">
+      <c r="A154" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="B154" s="11" t="str">
         <f t="shared" si="1"/>
         <v>payroll period</v>
       </c>
-      <c r="C154" s="9" t="str">
+      <c r="C154" s="11" t="str">
         <f t="shared" si="2"/>
         <v>فترة الرواتب</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="B155" s="9" t="str">
+      <c r="A155" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="B155" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Process Date</v>
       </c>
-      <c r="C155" s="9" t="str">
+      <c r="C155" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تاريخ العملية</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="B156" s="9" t="str">
+      <c r="A156" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="B156" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Refresh</v>
       </c>
-      <c r="C156" s="9" t="str">
+      <c r="C156" s="11" t="str">
         <f t="shared" si="2"/>
         <v>ينعش</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="B157" s="9" t="str">
+      <c r="A157" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="B157" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Fill Reference</v>
       </c>
-      <c r="C157" s="9" t="str">
+      <c r="C157" s="11" t="str">
         <f t="shared" si="2"/>
         <v>تعبئة المرجع</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="B158" s="9" t="str">
+      <c r="A158" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="B158" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RefCode</v>
       </c>
-      <c r="C158" s="9" t="str">
+      <c r="C158" s="11" t="str">
         <f t="shared" si="2"/>
         <v>رمز المرجع</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="B159" s="9" t="str">
+      <c r="A159" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="B159" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Idle</v>
       </c>
-      <c r="C159" s="9" t="str">
+      <c r="C159" s="11" t="str">
         <f t="shared" si="2"/>
         <v>عاطل</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="B160" s="9" t="str">
+      <c r="A160" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="B160" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Total Minutes</v>
       </c>
-      <c r="C160" s="9" t="str">
+      <c r="C160" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مجموع الدقائق</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="B161" s="9" t="str">
+      <c r="A161" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="B161" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Total Hours</v>
       </c>
-      <c r="C161" s="9" t="str">
+      <c r="C161" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مجموع الساعات</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="B162" s="9" t="str">
+      <c r="A162" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="B162" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Out Time</v>
       </c>
-      <c r="C162" s="9" t="str">
+      <c r="C162" s="11" t="str">
         <f t="shared" si="2"/>
         <v>وقت الخروج</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="B163" s="9" t="str">
+      <c r="A163" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="B163" s="11" t="str">
         <f t="shared" si="1"/>
         <v>In Time</v>
       </c>
-      <c r="C163" s="9" t="str">
+      <c r="C163" s="11" t="str">
         <f t="shared" si="2"/>
         <v>في الوقت المناسب</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="B164" s="9" t="str">
+      <c r="A164" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="B164" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Dept Code</v>
       </c>
-      <c r="C164" s="9" t="str">
+      <c r="C164" s="11" t="str">
         <f t="shared" si="2"/>
         <v>رمز القسم</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="B165" s="9" t="str">
+      <c r="A165" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="B165" s="11" t="str">
         <f t="shared" si="1"/>
         <v>EmpCompID</v>
       </c>
-      <c r="C165" s="9" t="str">
+      <c r="C165" s="11" t="str">
         <f t="shared" si="2"/>
         <v>معرف الموظف</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="B166" s="9" t="str">
+      <c r="A166" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="B166" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Leave Type</v>
       </c>
-      <c r="C166" s="9" t="str">
+      <c r="C166" s="11" t="str">
         <f t="shared" si="2"/>
         <v>نوع الإجازة</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="9" t="s">
-        <v>601</v>
-      </c>
-      <c r="B167" s="9" t="str">
+      <c r="A167" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="B167" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Ref No</v>
       </c>
-      <c r="C167" s="9" t="str">
+      <c r="C167" s="11" t="str">
         <f t="shared" si="2"/>
         <v>رقم المرجع</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="B168" s="9" t="str">
+      <c r="A168" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="B168" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Attendance from Date</v>
       </c>
-      <c r="C168" s="9" t="str">
+      <c r="C168" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الحضور من تاريخ</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B169" s="9" t="str">
+      <c r="A169" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="B169" s="11" t="str">
         <f t="shared" si="1"/>
         <v>NP Balance</v>
       </c>
-      <c r="C169" s="9" t="str">
+      <c r="C169" s="11" t="str">
         <f t="shared" si="2"/>
         <v>رصيد NP</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="B170" s="9" t="str">
+      <c r="A170" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="B170" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Entitled</v>
       </c>
-      <c r="C170" s="9" t="str">
+      <c r="C170" s="11" t="str">
         <f t="shared" si="2"/>
         <v>مستحق</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="B171" s="9" t="str">
+      <c r="A171" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="B171" s="11" t="str">
         <f t="shared" si="1"/>
         <v>No Days</v>
       </c>
-      <c r="C171" s="9" t="str">
+      <c r="C171" s="11" t="str">
         <f t="shared" si="2"/>
         <v>لا يوجد أيام</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="B172" s="9" t="str">
+      <c r="A172" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="B172" s="11" t="str">
         <f t="shared" si="1"/>
         <v>CPR</v>
       </c>
-      <c r="C172" s="9" t="str">
+      <c r="C172" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الإنعاش القلبي الرئوي</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="B173" s="9" t="str">
+      <c r="A173" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="B173" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Employee</v>
       </c>
-      <c r="C173" s="9" t="str">
+      <c r="C173" s="11" t="str">
         <f t="shared" si="2"/>
         <v>موظف</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="B174" s="9" t="str">
+      <c r="A174" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="B174" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Accomodation Name</v>
       </c>
-      <c r="C174" s="9" t="str">
+      <c r="C174" s="11" t="str">
         <f t="shared" si="2"/>
         <v>اسم مكان الإقامة</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B175" s="9" t="str">
+      <c r="A175" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="B175" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Accomodation code</v>
       </c>
-      <c r="C175" s="9" t="str">
+      <c r="C175" s="11" t="str">
         <f t="shared" si="2"/>
         <v>كود الإقامة</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="B176" s="9" t="str">
+      <c r="A176" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="B176" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Road No</v>
       </c>
-      <c r="C176" s="9" t="str">
+      <c r="C176" s="11" t="str">
         <f t="shared" si="2"/>
         <v>الطريق رقم</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="B177" s="9" t="str">
+      <c r="A177" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="B177" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Building No</v>
       </c>
-      <c r="C177" s="9" t="str">
+      <c r="C177" s="11" t="str">
         <f t="shared" si="2"/>
         <v>رقم المبنى</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="B178" s="9" t="str">
+      <c r="A178" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="B178" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Area</v>
       </c>
-      <c r="C178" s="9" t="str">
+      <c r="C178" s="11" t="str">
         <f t="shared" si="2"/>
         <v>منطقة</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="B179" s="9" t="str">
+      <c r="A179" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="B179" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Flat No</v>
       </c>
-      <c r="C179" s="9" t="str">
+      <c r="C179" s="11" t="str">
         <f t="shared" si="2"/>
         <v>شقة رقم</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="B180" s="9" t="str">
+      <c r="A180" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="B180" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Block No</v>
       </c>
-      <c r="C180" s="9" t="str">
+      <c r="C180" s="11" t="str">
         <f t="shared" si="2"/>
         <v>رقم الكتلة</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="B181" s="9" t="str">
+      <c r="A181" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="B181" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Cost</v>
       </c>
-      <c r="C181" s="9" t="str">
+      <c r="C181" s="11" t="str">
         <f t="shared" si="2"/>
         <v>يكلف</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B182" s="9" t="str">
+      <c r="A182" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="B182" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Airsec Name</v>
       </c>
-      <c r="C182" s="9" t="str">
+      <c r="C182" s="11" t="str">
         <f t="shared" si="2"/>
         <v>اسم ايرسيك</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="B183" s="9" t="str">
+      <c r="A183" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="B183" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Airsec code</v>
       </c>
-      <c r="C183" s="9" t="str">
+      <c r="C183" s="11" t="str">
         <f t="shared" si="2"/>
         <v>كود ايرسيك</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="B184" s="9" t="str">
+      <c r="A184" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="B184" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Default Airline</v>
       </c>
-      <c r="C184" s="9" t="str">
+      <c r="C184" s="11" t="str">
         <f t="shared" si="2"/>
         <v>شركة الطيران الافتراضية</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="B185" s="9" t="str">
+      <c r="A185" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="B185" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Type Something</v>
       </c>
-      <c r="C185" s="9" t="str">
+      <c r="C185" s="11" t="str">
         <f t="shared" si="2"/>
         <v>اكتب شيئا ما</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="B186" s="9" t="str">
+      <c r="A186" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="B186" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Al Arab</v>
       </c>
-      <c r="C186" s="9" t="str">
+      <c r="C186" s="11" t="str">
         <f t="shared" si="2"/>
         <v>أل عرب</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="B187" s="9" t="str">
+      <c r="A187" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="B187" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Company</v>
       </c>
-      <c r="C187" s="9" t="str">
+      <c r="C187" s="11" t="str">
         <f t="shared" si="2"/>
         <v>شركة</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="B188" s="9" t="str">
+      <c r="A188" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="B188" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Department Name</v>
       </c>
-      <c r="C188" s="9" t="str">
+      <c r="C188" s="11" t="str">
         <f t="shared" si="2"/>
         <v>اسم القسم</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="B189" s="9" t="str">
+      <c r="A189" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="B189" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Department code</v>
       </c>
-      <c r="C189" s="9" t="str">
+      <c r="C189" s="11" t="str">
         <f t="shared" si="2"/>
         <v>رمز القسم</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="B190" s="9" t="str">
+      <c r="A190" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="B190" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Department Type</v>
       </c>
-      <c r="C190" s="9" t="str">
+      <c r="C190" s="11" t="str">
         <f t="shared" si="2"/>
         <v>نوع القسم</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="B191" s="9" t="str">
+      <c r="A191" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="B191" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Department Head Name</v>
       </c>
-      <c r="C191" s="9" t="str">
+      <c r="C191" s="11" t="str">
         <f t="shared" si="2"/>
         <v>اسم رئيس القسم</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="B192" s="9" t="str">
+      <c r="A192" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="B192" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Dept head code</v>
       </c>
-      <c r="C192" s="9" t="str">
+      <c r="C192" s="11" t="str">
         <f t="shared" si="2"/>
         <v>رمز رئيس القسم</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="B193" s="9" t="str">
+      <c r="A193" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="B193" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Top Level</v>
       </c>
-      <c r="C193" s="9" t="str">
+      <c r="C193" s="11" t="str">
         <f t="shared" si="2"/>
         <v>المستوى الأعلى</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="B194" s="9" t="str">
+      <c r="A194" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="B194" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Sub Level</v>
       </c>
-      <c r="C194" s="9" t="str">
+      <c r="C194" s="11" t="str">
         <f t="shared" si="2"/>
         <v>المستوى الفرعي</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="B195" s="9" t="str">
+      <c r="A195" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="B195" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Sublevel</v>
       </c>
-      <c r="C195" s="9" t="str">
+      <c r="C195" s="11" t="str">
         <f t="shared" si="2"/>
         <v>المستوى الفرعي</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="B196" s="9" t="str">
+      <c r="A196" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="B196" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Action</v>
       </c>
-      <c r="C196" s="9" t="str">
+      <c r="C196" s="11" t="str">
         <f t="shared" si="2"/>
         <v>فعل</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="9" t="s">
-        <v>631</v>
-      </c>
-      <c r="B197" s="9" t="str">
+      <c r="A197" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="B197" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Time</v>
       </c>
-      <c r="C197" s="9" t="str">
+      <c r="C197" s="11" t="str">
         <f t="shared" si="2"/>
         <v>وقت</v>
       </c>

--- a/public/Updatedtranslations.xlsx
+++ b/public/Updatedtranslations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="787">
   <si>
     <t>English</t>
   </si>
@@ -1745,6 +1745,36 @@
   </si>
   <si>
     <t>تقديم التقارير إلى</t>
+  </si>
+  <si>
+    <t>Documents, Holidays, and Training</t>
+  </si>
+  <si>
+    <t>المستندات والعطلات والتدريب</t>
+  </si>
+  <si>
+    <t>Salary and Announcements</t>
+  </si>
+  <si>
+    <t>الراتب والإعلانات</t>
+  </si>
+  <si>
+    <t>Pay Slip, Leave, and Loan Requests</t>
+  </si>
+  <si>
+    <t>طلبات كشف الراتب والإجازات والقروض</t>
+  </si>
+  <si>
+    <t>Nationality &amp; Department Wise</t>
+  </si>
+  <si>
+    <t>الجنسية والقسم الحكيم</t>
+  </si>
+  <si>
+    <t>Location Wise &amp; Component Wise</t>
+  </si>
+  <si>
+    <t>من حيث الموقع والمكون</t>
   </si>
   <si>
     <t>welcome Back!: "مرحبا بعودتك!",</t>
@@ -5165,11 +5195,46 @@
         <v>576</v>
       </c>
     </row>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="A309" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="A310" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="A311" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="A312" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="A313" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>586</v>
+      </c>
+    </row>
     <row r="314" ht="15.75" customHeight="1"/>
     <row r="315" ht="15.75" customHeight="1"/>
     <row r="316" ht="15.75" customHeight="1"/>
@@ -5882,7 +5947,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="B1" s="11" t="str">
         <f t="shared" ref="B1:B197" si="1">TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(A1, FIND(":", A1) - 1), """", ""), "'", ""), ",", ""))</f>
@@ -5895,7 +5960,7 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="B2" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5908,7 +5973,7 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="B3" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5921,7 +5986,7 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="B4" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5934,7 +5999,7 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="B5" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5947,7 +6012,7 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="B6" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5960,7 +6025,7 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="B7" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5973,7 +6038,7 @@
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="B8" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5986,7 +6051,7 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="B9" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5999,7 +6064,7 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="B10" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6012,7 +6077,7 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="B11" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6025,7 +6090,7 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="B12" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6038,7 +6103,7 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="B13" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6051,7 +6116,7 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="B14" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6064,7 +6129,7 @@
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="B15" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6077,7 +6142,7 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="B16" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6090,7 +6155,7 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="B17" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6103,7 +6168,7 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="B18" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6116,7 +6181,7 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="B19" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6129,7 +6194,7 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="B20" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6142,7 +6207,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="B21" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6155,7 +6220,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="B22" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6168,7 +6233,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="B23" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6181,7 +6246,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="B24" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6194,7 +6259,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="B25" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6207,7 +6272,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="B26" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6220,7 +6285,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="10" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="B27" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6233,7 +6298,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="B28" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6246,7 +6311,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="B29" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6259,7 +6324,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="B30" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6272,7 +6337,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="B31" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6285,7 +6350,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="10" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="B32" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6298,7 +6363,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="B33" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6311,7 +6376,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="B34" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6324,7 +6389,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="B35" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6337,7 +6402,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="11" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="B36" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6350,7 +6415,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="11" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="B37" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6363,7 +6428,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="11" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="B38" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6376,7 +6441,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B39" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6389,7 +6454,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="B40" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6402,7 +6467,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="11" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="B41" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6415,7 +6480,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="11" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="B42" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6428,7 +6493,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="B43" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6441,7 +6506,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="B44" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6454,7 +6519,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="11" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="B45" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6467,7 +6532,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="11" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="B46" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6480,7 +6545,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="11" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="B47" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6493,7 +6558,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="11" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="B48" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6506,7 +6571,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="11" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="B49" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6519,7 +6584,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="11" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="B50" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6532,7 +6597,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="11" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="B51" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6545,7 +6610,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="11" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="B52" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6558,7 +6623,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="11" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="B53" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6571,7 +6636,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="11" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="B54" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6584,7 +6649,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="11" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="B55" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6597,7 +6662,7 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="11" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="B56" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6610,7 +6675,7 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="11" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="B57" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6623,7 +6688,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="11" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="B58" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6636,7 +6701,7 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="11" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="B59" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6649,7 +6714,7 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="10" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="B60" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6662,7 +6727,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="11" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="B61" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6675,7 +6740,7 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="10" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="B62" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6688,7 +6753,7 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="11" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="B63" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6701,7 +6766,7 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="11" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="B64" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6714,7 +6779,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="11" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="B65" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6727,7 +6792,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="11" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="B66" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6740,7 +6805,7 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="11" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="B67" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6753,7 +6818,7 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="11" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="B68" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6766,7 +6831,7 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="11" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="B69" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6779,7 +6844,7 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="11" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="B70" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6792,7 +6857,7 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="11" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="B71" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6805,7 +6870,7 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="11" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="B72" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6818,7 +6883,7 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="11" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="B73" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6831,7 +6896,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="11" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="B74" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6844,7 +6909,7 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="11" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="B75" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6857,7 +6922,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="11" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="B76" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6870,7 +6935,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="11" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="B77" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6883,7 +6948,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="11" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="B78" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6896,7 +6961,7 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="11" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="B79" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6909,7 +6974,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="11" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="B80" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6922,7 +6987,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="11" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="B81" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6935,7 +7000,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="11" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="B82" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6948,7 +7013,7 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="11" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="B83" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6961,7 +7026,7 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="11" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="B84" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6974,7 +7039,7 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="11" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="B85" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6987,7 +7052,7 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="11" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="B86" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7000,7 +7065,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="11" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="B87" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7013,7 +7078,7 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="11" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="B88" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7026,7 +7091,7 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="10" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="B89" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7039,7 +7104,7 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="11" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="B90" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7052,7 +7117,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="11" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="B91" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7065,7 +7130,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="11" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="B92" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7078,7 +7143,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="11" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="B93" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7091,7 +7156,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="11" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="B94" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7104,7 +7169,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="11" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="B95" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7117,7 +7182,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="11" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="B96" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7130,7 +7195,7 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="11" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="B97" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7143,7 +7208,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="11" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="B98" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7156,7 +7221,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="11" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="B99" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7169,7 +7234,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="11" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="B100" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7182,7 +7247,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="11" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="B101" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7195,7 +7260,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="11" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="B102" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7208,7 +7273,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="11" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="B103" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7221,7 +7286,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="11" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="B104" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7234,7 +7299,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="11" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="B105" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7247,7 +7312,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="11" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="B106" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7260,7 +7325,7 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="11" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="B107" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7273,7 +7338,7 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="11" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="B108" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7286,7 +7351,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="11" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="B109" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7299,7 +7364,7 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="11" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="B110" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7312,7 +7377,7 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="11" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="B111" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7325,7 +7390,7 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="11" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="B112" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7338,7 +7403,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="11" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="B113" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7351,7 +7416,7 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="11" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="B114" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7364,7 +7429,7 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="11" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="B115" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7377,7 +7442,7 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="11" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="B116" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7390,7 +7455,7 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="11" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="B117" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7403,7 +7468,7 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="11" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="B118" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7416,7 +7481,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="11" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="B119" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7429,7 +7494,7 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="11" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="B120" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7442,7 +7507,7 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="11" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="B121" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7455,7 +7520,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="10" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="B122" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7468,7 +7533,7 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="10" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="B123" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7481,7 +7546,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="10" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="B124" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7494,7 +7559,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="11" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="B125" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7507,7 +7572,7 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="11" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="B126" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7520,7 +7585,7 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="11" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="B127" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7533,7 +7598,7 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="11" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="B128" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7546,7 +7611,7 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="11" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="B129" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7559,7 +7624,7 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="11" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="B130" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7572,7 +7637,7 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="10" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="B131" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7585,7 +7650,7 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="10" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="B132" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7598,7 +7663,7 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="11" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="B133" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7611,7 +7676,7 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="11" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="B134" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7624,7 +7689,7 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="11" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="B135" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7637,7 +7702,7 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="11" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="B136" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7650,7 +7715,7 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="11" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="B137" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7663,7 +7728,7 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="11" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="B138" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7676,7 +7741,7 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="11" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="B139" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7689,7 +7754,7 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="11" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="B140" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7702,7 +7767,7 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="11" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="B141" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7715,7 +7780,7 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="11" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="B142" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7728,7 +7793,7 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="11" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="B143" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7741,7 +7806,7 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="11" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="B144" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7754,7 +7819,7 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="11" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="B145" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7767,7 +7832,7 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="11" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="B146" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7780,7 +7845,7 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="11" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="B147" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7793,7 +7858,7 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="11" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="B148" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7806,7 +7871,7 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="11" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="B149" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7819,7 +7884,7 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="11" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="B150" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7832,7 +7897,7 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="11" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="B151" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7845,7 +7910,7 @@
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="11" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="B152" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7858,7 +7923,7 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="11" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="B153" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7871,7 +7936,7 @@
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="11" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="B154" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7884,7 +7949,7 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="11" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="B155" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7897,7 +7962,7 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="11" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="B156" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7910,7 +7975,7 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="11" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="B157" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7923,7 +7988,7 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="10" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="B158" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7936,7 +8001,7 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="11" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="B159" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7949,7 +8014,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="11" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="B160" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7962,7 +8027,7 @@
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="11" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="B161" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7975,7 +8040,7 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="11" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="B162" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7988,7 +8053,7 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="10" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="B163" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8001,7 +8066,7 @@
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="11" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B164" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8014,7 +8079,7 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="10" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="B165" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8027,7 +8092,7 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="11" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="B166" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8040,7 +8105,7 @@
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="11" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="B167" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8053,7 +8118,7 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="11" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="B168" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8066,7 +8131,7 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="11" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="B169" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8079,7 +8144,7 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="11" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="B170" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8092,7 +8157,7 @@
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="10" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="B171" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8105,7 +8170,7 @@
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="10" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="B172" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8118,7 +8183,7 @@
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="11" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="B173" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8131,7 +8196,7 @@
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="10" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B174" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8144,7 +8209,7 @@
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="11" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="B175" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8157,7 +8222,7 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="11" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="B176" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8170,7 +8235,7 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="11" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="B177" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8183,7 +8248,7 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="11" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="B178" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8196,7 +8261,7 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="11" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="B179" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8209,7 +8274,7 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="11" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="B180" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8222,7 +8287,7 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="11" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="B181" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8235,7 +8300,7 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="11" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="B182" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8248,7 +8313,7 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="11" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="B183" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8261,7 +8326,7 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="10" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B184" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8274,7 +8339,7 @@
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="10" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="B185" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8287,7 +8352,7 @@
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="11" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="B186" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8300,7 +8365,7 @@
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="11" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="B187" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8313,7 +8378,7 @@
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="11" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="B188" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8326,7 +8391,7 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="11" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="B189" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8339,7 +8404,7 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="11" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="B190" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8352,7 +8417,7 @@
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="11" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="B191" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8365,7 +8430,7 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="11" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="B192" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8378,7 +8443,7 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="11" t="s">
-        <v>769</v>
+        <v>779</v>
       </c>
       <c r="B193" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8391,7 +8456,7 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="11" t="s">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="B194" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8404,7 +8469,7 @@
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="10" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="B195" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8417,7 +8482,7 @@
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="11" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="B196" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8430,7 +8495,7 @@
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="11" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="B197" s="11" t="str">
         <f t="shared" si="1"/>
@@ -9277,7 +9342,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -9381,7 +9446,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>29</v>
@@ -9525,7 +9590,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>65</v>
@@ -10750,7 +10815,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="B1" s="11" t="str">
         <f t="shared" ref="B1:B197" si="1">TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(A1, FIND(":", A1) - 1), """", ""), "'", ""), ",", ""))</f>
@@ -10763,7 +10828,7 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="B2" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10776,7 +10841,7 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="B3" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10789,7 +10854,7 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="B4" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10802,7 +10867,7 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="B5" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10815,7 +10880,7 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="B6" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10828,7 +10893,7 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="B7" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10841,7 +10906,7 @@
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="B8" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10854,7 +10919,7 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="B9" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10867,7 +10932,7 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="B10" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10880,7 +10945,7 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="B11" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10893,7 +10958,7 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="B12" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10906,7 +10971,7 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="B13" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10919,7 +10984,7 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="B14" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10932,7 +10997,7 @@
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="B15" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10945,7 +11010,7 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="B16" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10958,7 +11023,7 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="B17" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10971,7 +11036,7 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="B18" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10984,7 +11049,7 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="B19" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10997,7 +11062,7 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="B20" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11010,7 +11075,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="B21" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11023,7 +11088,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="B22" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11036,7 +11101,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="B23" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11049,7 +11114,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="B24" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11062,7 +11127,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="B25" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11075,7 +11140,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="B26" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11088,7 +11153,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="10" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="B27" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11101,7 +11166,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="B28" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11114,7 +11179,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="B29" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11127,7 +11192,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="B30" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11140,7 +11205,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="B31" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11153,7 +11218,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="10" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="B32" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11166,7 +11231,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="B33" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11179,7 +11244,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="B34" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11192,7 +11257,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="B35" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11205,7 +11270,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="11" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="B36" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11218,7 +11283,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="11" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="B37" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11231,7 +11296,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="11" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="B38" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11244,7 +11309,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B39" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11257,7 +11322,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="B40" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11270,7 +11335,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="11" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="B41" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11283,7 +11348,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="11" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="B42" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11296,7 +11361,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="B43" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11309,7 +11374,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="B44" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11322,7 +11387,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="11" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="B45" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11335,7 +11400,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="11" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="B46" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11348,7 +11413,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="11" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="B47" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11361,7 +11426,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="11" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="B48" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11374,7 +11439,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="11" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="B49" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11387,7 +11452,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="11" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="B50" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11400,7 +11465,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="11" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="B51" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11413,7 +11478,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="11" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="B52" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11426,7 +11491,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="11" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="B53" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11439,7 +11504,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="11" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="B54" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11452,7 +11517,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="11" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="B55" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11465,7 +11530,7 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="11" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="B56" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11478,7 +11543,7 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="11" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="B57" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11491,7 +11556,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="11" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="B58" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11504,7 +11569,7 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="11" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="B59" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11517,7 +11582,7 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="10" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="B60" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11530,7 +11595,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="11" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="B61" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11543,7 +11608,7 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="10" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="B62" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11556,7 +11621,7 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="11" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="B63" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11569,7 +11634,7 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="11" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="B64" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11582,7 +11647,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="11" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="B65" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11595,7 +11660,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="11" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="B66" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11608,7 +11673,7 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="11" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="B67" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11621,7 +11686,7 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="11" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="B68" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11634,7 +11699,7 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="11" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="B69" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11647,7 +11712,7 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="11" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="B70" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11660,7 +11725,7 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="11" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="B71" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11673,7 +11738,7 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="11" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="B72" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11686,7 +11751,7 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="11" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="B73" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11699,7 +11764,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="11" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="B74" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11712,7 +11777,7 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="11" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="B75" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11725,7 +11790,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="11" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="B76" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11738,7 +11803,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="11" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="B77" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11751,7 +11816,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="11" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="B78" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11764,7 +11829,7 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="11" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="B79" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11777,7 +11842,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="11" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="B80" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11790,7 +11855,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="11" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="B81" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11803,7 +11868,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="11" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="B82" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11816,7 +11881,7 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="11" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="B83" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11829,7 +11894,7 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="11" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="B84" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11842,7 +11907,7 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="11" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="B85" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11855,7 +11920,7 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="11" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="B86" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11868,7 +11933,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="11" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="B87" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11881,7 +11946,7 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="11" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="B88" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11894,7 +11959,7 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="10" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="B89" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11907,7 +11972,7 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="11" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="B90" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11920,7 +11985,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="11" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="B91" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11933,7 +11998,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="11" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="B92" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11946,7 +12011,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="11" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="B93" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11959,7 +12024,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="11" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="B94" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11972,7 +12037,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="11" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="B95" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11985,7 +12050,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="11" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="B96" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11998,7 +12063,7 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="11" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="B97" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12011,7 +12076,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="11" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="B98" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12024,7 +12089,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="11" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="B99" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12037,7 +12102,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="11" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="B100" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12050,7 +12115,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="11" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="B101" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12063,7 +12128,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="11" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="B102" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12076,7 +12141,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="11" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="B103" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12089,7 +12154,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="11" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="B104" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12102,7 +12167,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="11" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="B105" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12115,7 +12180,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="11" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="B106" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12128,7 +12193,7 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="11" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="B107" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12141,7 +12206,7 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="11" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="B108" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12154,7 +12219,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="11" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="B109" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12167,7 +12232,7 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="11" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="B110" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12180,7 +12245,7 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="11" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="B111" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12193,7 +12258,7 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="11" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="B112" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12206,7 +12271,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="11" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="B113" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12219,7 +12284,7 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="11" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="B114" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12232,7 +12297,7 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="11" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="B115" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12245,7 +12310,7 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="11" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="B116" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12258,7 +12323,7 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="11" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="B117" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12271,7 +12336,7 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="11" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="B118" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12284,7 +12349,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="11" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="B119" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12297,7 +12362,7 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="11" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="B120" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12310,7 +12375,7 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="11" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="B121" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12323,7 +12388,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="10" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="B122" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12336,7 +12401,7 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="10" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="B123" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12349,7 +12414,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="10" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="B124" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12362,7 +12427,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="11" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="B125" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12375,7 +12440,7 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="11" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="B126" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12388,7 +12453,7 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="11" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="B127" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12401,7 +12466,7 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="11" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="B128" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12414,7 +12479,7 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="11" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="B129" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12427,7 +12492,7 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="11" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="B130" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12440,7 +12505,7 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="10" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="B131" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12453,7 +12518,7 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="10" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="B132" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12466,7 +12531,7 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="11" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="B133" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12479,7 +12544,7 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="11" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="B134" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12492,7 +12557,7 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="11" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="B135" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12505,7 +12570,7 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="11" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="B136" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12518,7 +12583,7 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="11" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="B137" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12531,7 +12596,7 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="11" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="B138" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12544,7 +12609,7 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="11" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="B139" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12557,7 +12622,7 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="11" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="B140" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12570,7 +12635,7 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="11" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="B141" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12583,7 +12648,7 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="11" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="B142" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12596,7 +12661,7 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="11" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="B143" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12609,7 +12674,7 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="11" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="B144" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12622,7 +12687,7 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="11" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="B145" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12635,7 +12700,7 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="11" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="B146" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12648,7 +12713,7 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="11" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="B147" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12661,7 +12726,7 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="11" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="B148" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12674,7 +12739,7 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="11" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="B149" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12687,7 +12752,7 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="11" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="B150" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12700,7 +12765,7 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="11" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="B151" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12713,7 +12778,7 @@
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="11" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="B152" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12726,7 +12791,7 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="11" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="B153" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12739,7 +12804,7 @@
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="11" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="B154" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12752,7 +12817,7 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="11" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="B155" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12765,7 +12830,7 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="11" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="B156" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12778,7 +12843,7 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="11" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="B157" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12791,7 +12856,7 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="10" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="B158" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12804,7 +12869,7 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="11" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="B159" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12817,7 +12882,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="11" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="B160" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12830,7 +12895,7 @@
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="11" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="B161" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12843,7 +12908,7 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="11" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="B162" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12856,7 +12921,7 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="10" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="B163" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12869,7 +12934,7 @@
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="11" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B164" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12882,7 +12947,7 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="10" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="B165" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12895,7 +12960,7 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="11" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="B166" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12908,7 +12973,7 @@
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="11" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="B167" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12921,7 +12986,7 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="11" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="B168" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12934,7 +12999,7 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="11" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="B169" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12947,7 +13012,7 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="11" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="B170" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12960,7 +13025,7 @@
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="10" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="B171" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12973,7 +13038,7 @@
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="10" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="B172" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12986,7 +13051,7 @@
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="11" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="B173" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12999,7 +13064,7 @@
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="10" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B174" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13012,7 +13077,7 @@
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="11" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="B175" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13025,7 +13090,7 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="11" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="B176" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13038,7 +13103,7 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="11" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="B177" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13051,7 +13116,7 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="11" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="B178" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13064,7 +13129,7 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="11" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="B179" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13077,7 +13142,7 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="11" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="B180" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13090,7 +13155,7 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="11" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="B181" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13103,7 +13168,7 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="11" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="B182" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13116,7 +13181,7 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="11" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="B183" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13129,7 +13194,7 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="10" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B184" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13142,7 +13207,7 @@
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="10" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="B185" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13155,7 +13220,7 @@
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="11" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="B186" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13168,7 +13233,7 @@
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="11" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="B187" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13181,7 +13246,7 @@
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="11" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="B188" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13194,7 +13259,7 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="11" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="B189" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13207,7 +13272,7 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="11" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="B190" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13220,7 +13285,7 @@
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="11" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="B191" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13233,7 +13298,7 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="11" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="B192" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13246,7 +13311,7 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="11" t="s">
-        <v>769</v>
+        <v>779</v>
       </c>
       <c r="B193" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13259,7 +13324,7 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="11" t="s">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="B194" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13272,7 +13337,7 @@
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="10" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="B195" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13285,7 +13350,7 @@
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="11" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="B196" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13298,7 +13363,7 @@
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="11" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="B197" s="11" t="str">
         <f t="shared" si="1"/>

--- a/public/Updatedtranslations.xlsx
+++ b/public/Updatedtranslations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="788">
   <si>
     <t>English</t>
   </si>
@@ -1777,6 +1777,12 @@
     <t>من حيث الموقع والمكون</t>
   </si>
   <si>
+    <t>Late In, Early Out</t>
+  </si>
+  <si>
+    <t>متأخرًا في وقت مبكر للخروج</t>
+  </si>
+  <si>
     <t>welcome Back!: "مرحبا بعودتك!",</t>
   </si>
   <si>
@@ -2372,9 +2378,6 @@
   </si>
   <si>
     <t>From recruitment to retirement, manage every employee journey seamlessly and efficiently.</t>
-  </si>
-  <si>
-    <t>Late In, Early Out</t>
   </si>
 </sst>
 </file>
@@ -5235,7 +5238,14 @@
         <v>586</v>
       </c>
     </row>
-    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="A314" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
     <row r="315" ht="15.75" customHeight="1"/>
     <row r="316" ht="15.75" customHeight="1"/>
     <row r="317" ht="15.75" customHeight="1"/>
@@ -5947,7 +5957,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B1" s="11" t="str">
         <f t="shared" ref="B1:B197" si="1">TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(A1, FIND(":", A1) - 1), """", ""), "'", ""), ",", ""))</f>
@@ -5960,7 +5970,7 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B2" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5973,7 +5983,7 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B3" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5986,7 +5996,7 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B4" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5999,7 +6009,7 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B5" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6012,7 +6022,7 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B6" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6025,7 +6035,7 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B7" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6038,7 +6048,7 @@
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B8" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6051,7 +6061,7 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B9" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6064,7 +6074,7 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B10" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6077,7 +6087,7 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B11" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6090,7 +6100,7 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B12" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6103,7 +6113,7 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B13" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6116,7 +6126,7 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B14" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6129,7 +6139,7 @@
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B15" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6142,7 +6152,7 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B16" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6155,7 +6165,7 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B17" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6168,7 +6178,7 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B18" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6181,7 +6191,7 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B19" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6194,7 +6204,7 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B20" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6207,7 +6217,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B21" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6220,7 +6230,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B22" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6233,7 +6243,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B23" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6246,7 +6256,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B24" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6259,7 +6269,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B25" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6272,7 +6282,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B26" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6285,7 +6295,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="10" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B27" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6298,7 +6308,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B28" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6311,7 +6321,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B29" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6324,7 +6334,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B30" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6337,7 +6347,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B31" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6350,7 +6360,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="10" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B32" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6363,7 +6373,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B33" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6376,7 +6386,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B34" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6389,7 +6399,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B35" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6402,7 +6412,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="11" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B36" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6415,7 +6425,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="11" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B37" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6428,7 +6438,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="11" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B38" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6441,7 +6451,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B39" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6454,7 +6464,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B40" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6467,7 +6477,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="11" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B41" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6480,7 +6490,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="11" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B42" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6493,7 +6503,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B43" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6506,7 +6516,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B44" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6519,7 +6529,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="11" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B45" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6532,7 +6542,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="11" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B46" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6545,7 +6555,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="11" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B47" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6558,7 +6568,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="11" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B48" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6571,7 +6581,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="11" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B49" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6584,7 +6594,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="11" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B50" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6597,7 +6607,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B51" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6610,7 +6620,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="11" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B52" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6623,7 +6633,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="11" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B53" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6636,7 +6646,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="11" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B54" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6649,7 +6659,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="11" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B55" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6662,7 +6672,7 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="11" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B56" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6675,7 +6685,7 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="11" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B57" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6688,7 +6698,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="11" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B58" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6701,7 +6711,7 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="11" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B59" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6714,7 +6724,7 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="10" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B60" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6727,7 +6737,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="11" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B61" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6740,7 +6750,7 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="10" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B62" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6753,7 +6763,7 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="11" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B63" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6766,7 +6776,7 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="11" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B64" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6779,7 +6789,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="11" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B65" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6792,7 +6802,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="11" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B66" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6805,7 +6815,7 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="11" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B67" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6818,7 +6828,7 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="11" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B68" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6831,7 +6841,7 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="11" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B69" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6844,7 +6854,7 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="11" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B70" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6857,7 +6867,7 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="11" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B71" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6870,7 +6880,7 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="11" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B72" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6883,7 +6893,7 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="11" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B73" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6896,7 +6906,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="11" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B74" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6909,7 +6919,7 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="11" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B75" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6922,7 +6932,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="11" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B76" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6935,7 +6945,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="11" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B77" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6948,7 +6958,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="11" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B78" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6961,7 +6971,7 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="11" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B79" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6974,7 +6984,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="11" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B80" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6987,7 +6997,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="11" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B81" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7000,7 +7010,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="11" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B82" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7013,7 +7023,7 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="11" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B83" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7026,7 +7036,7 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="11" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B84" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7039,7 +7049,7 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="11" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B85" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7052,7 +7062,7 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="11" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B86" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7065,7 +7075,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="11" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B87" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7078,7 +7088,7 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="11" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B88" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7091,7 +7101,7 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="10" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B89" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7104,7 +7114,7 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="11" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B90" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7117,7 +7127,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="11" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B91" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7130,7 +7140,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="11" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B92" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7143,7 +7153,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="11" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B93" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7156,7 +7166,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="11" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B94" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7169,7 +7179,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="11" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B95" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7182,7 +7192,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="11" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B96" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7195,7 +7205,7 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="11" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B97" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7208,7 +7218,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="11" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B98" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7221,7 +7231,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="11" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B99" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7234,7 +7244,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="11" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B100" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7247,7 +7257,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="11" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B101" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7260,7 +7270,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="11" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B102" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7273,7 +7283,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="11" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B103" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7286,7 +7296,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="11" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B104" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7299,7 +7309,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="11" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B105" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7312,7 +7322,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="11" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B106" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7325,7 +7335,7 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="11" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B107" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7338,7 +7348,7 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="11" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B108" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7351,7 +7361,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="11" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B109" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7364,7 +7374,7 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="11" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B110" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7377,7 +7387,7 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="11" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B111" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7390,7 +7400,7 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="11" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B112" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7403,7 +7413,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="11" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B113" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7416,7 +7426,7 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="11" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B114" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7429,7 +7439,7 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="11" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B115" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7442,7 +7452,7 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="11" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B116" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7455,7 +7465,7 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="11" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B117" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7468,7 +7478,7 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="11" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B118" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7481,7 +7491,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="11" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B119" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7494,7 +7504,7 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="11" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B120" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7507,7 +7517,7 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="11" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B121" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7520,7 +7530,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="10" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B122" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7533,7 +7543,7 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="10" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B123" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7546,7 +7556,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="10" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B124" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7559,7 +7569,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="11" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B125" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7572,7 +7582,7 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="11" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B126" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7585,7 +7595,7 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="11" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B127" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7598,7 +7608,7 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="11" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B128" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7611,7 +7621,7 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="11" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B129" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7624,7 +7634,7 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="11" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B130" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7637,7 +7647,7 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="10" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B131" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7650,7 +7660,7 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="10" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B132" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7663,7 +7673,7 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="11" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B133" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7676,7 +7686,7 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="11" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B134" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7689,7 +7699,7 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="11" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B135" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7702,7 +7712,7 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="11" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B136" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7715,7 +7725,7 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="11" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B137" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7728,7 +7738,7 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="11" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B138" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7741,7 +7751,7 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="11" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B139" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7754,7 +7764,7 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="11" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B140" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7767,7 +7777,7 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="11" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B141" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7780,7 +7790,7 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="11" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B142" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7793,7 +7803,7 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="11" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B143" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7806,7 +7816,7 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="11" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B144" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7819,7 +7829,7 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="11" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B145" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7832,7 +7842,7 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="11" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B146" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7845,7 +7855,7 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="11" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B147" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7858,7 +7868,7 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="11" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B148" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7871,7 +7881,7 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="11" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B149" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7884,7 +7894,7 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="11" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B150" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7897,7 +7907,7 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="11" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B151" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7910,7 +7920,7 @@
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="11" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B152" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7923,7 +7933,7 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="11" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B153" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7936,7 +7946,7 @@
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="11" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B154" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7949,7 +7959,7 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="11" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B155" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7962,7 +7972,7 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="11" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B156" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7975,7 +7985,7 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="11" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B157" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7988,7 +7998,7 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="10" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B158" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8001,7 +8011,7 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="11" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B159" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8014,7 +8024,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="11" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B160" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8027,7 +8037,7 @@
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="11" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B161" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8040,7 +8050,7 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="11" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B162" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8053,7 +8063,7 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="10" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B163" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8066,7 +8076,7 @@
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="11" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B164" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8079,7 +8089,7 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="10" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B165" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8092,7 +8102,7 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="11" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B166" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8105,7 +8115,7 @@
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="11" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B167" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8118,7 +8128,7 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="11" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B168" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8131,7 +8141,7 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="11" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B169" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8144,7 +8154,7 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="11" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B170" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8157,7 +8167,7 @@
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="10" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B171" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8170,7 +8180,7 @@
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="10" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B172" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8183,7 +8193,7 @@
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="11" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B173" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8196,7 +8206,7 @@
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="10" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B174" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8209,7 +8219,7 @@
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="11" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B175" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8222,7 +8232,7 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="11" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B176" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8235,7 +8245,7 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="11" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B177" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8248,7 +8258,7 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="11" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B178" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8261,7 +8271,7 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="11" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B179" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8274,7 +8284,7 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="11" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B180" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8287,7 +8297,7 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="11" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B181" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8300,7 +8310,7 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="11" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B182" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8313,7 +8323,7 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="11" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B183" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8326,7 +8336,7 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="10" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B184" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8339,7 +8349,7 @@
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="10" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B185" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8352,7 +8362,7 @@
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="11" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B186" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8365,7 +8375,7 @@
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="11" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B187" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8378,7 +8388,7 @@
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="11" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B188" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8391,7 +8401,7 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="11" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B189" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8404,7 +8414,7 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="11" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B190" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8417,7 +8427,7 @@
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="11" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B191" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8430,7 +8440,7 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="11" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B192" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8443,7 +8453,7 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="11" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B193" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8456,7 +8466,7 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="11" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B194" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8469,7 +8479,7 @@
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="10" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B195" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8482,7 +8492,7 @@
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="11" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B196" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8495,7 +8505,7 @@
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="11" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B197" s="11" t="str">
         <f t="shared" si="1"/>
@@ -9342,7 +9352,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -9446,7 +9456,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>29</v>
@@ -9590,7 +9600,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>786</v>
+        <v>587</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>65</v>
@@ -10815,7 +10825,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B1" s="11" t="str">
         <f t="shared" ref="B1:B197" si="1">TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(A1, FIND(":", A1) - 1), """", ""), "'", ""), ",", ""))</f>
@@ -10828,7 +10838,7 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B2" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10841,7 +10851,7 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B3" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10854,7 +10864,7 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B4" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10867,7 +10877,7 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B5" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10880,7 +10890,7 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B6" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10893,7 +10903,7 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B7" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10906,7 +10916,7 @@
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B8" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10919,7 +10929,7 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B9" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10932,7 +10942,7 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B10" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10945,7 +10955,7 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B11" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10958,7 +10968,7 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B12" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10971,7 +10981,7 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B13" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10984,7 +10994,7 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B14" s="11" t="str">
         <f t="shared" si="1"/>
@@ -10997,7 +11007,7 @@
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B15" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11010,7 +11020,7 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B16" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11023,7 +11033,7 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B17" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11036,7 +11046,7 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B18" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11049,7 +11059,7 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B19" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11062,7 +11072,7 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B20" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11075,7 +11085,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B21" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11088,7 +11098,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B22" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11101,7 +11111,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B23" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11114,7 +11124,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B24" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11127,7 +11137,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B25" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11140,7 +11150,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B26" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11153,7 +11163,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="10" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B27" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11166,7 +11176,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B28" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11179,7 +11189,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B29" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11192,7 +11202,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B30" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11205,7 +11215,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B31" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11218,7 +11228,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="10" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B32" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11231,7 +11241,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B33" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11244,7 +11254,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B34" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11257,7 +11267,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B35" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11270,7 +11280,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="11" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B36" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11283,7 +11293,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="11" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B37" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11296,7 +11306,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="11" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B38" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11309,7 +11319,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B39" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11322,7 +11332,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B40" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11335,7 +11345,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="11" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B41" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11348,7 +11358,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="11" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B42" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11361,7 +11371,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B43" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11374,7 +11384,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B44" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11387,7 +11397,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="11" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B45" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11400,7 +11410,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="11" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B46" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11413,7 +11423,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="11" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B47" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11426,7 +11436,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="11" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B48" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11439,7 +11449,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="11" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B49" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11452,7 +11462,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="11" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B50" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11465,7 +11475,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B51" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11478,7 +11488,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="11" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B52" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11491,7 +11501,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="11" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B53" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11504,7 +11514,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="11" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B54" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11517,7 +11527,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="11" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B55" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11530,7 +11540,7 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="11" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B56" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11543,7 +11553,7 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="11" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B57" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11556,7 +11566,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="11" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B58" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11569,7 +11579,7 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="11" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B59" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11582,7 +11592,7 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="10" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B60" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11595,7 +11605,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="11" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B61" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11608,7 +11618,7 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="10" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B62" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11621,7 +11631,7 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="11" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B63" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11634,7 +11644,7 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="11" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B64" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11647,7 +11657,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="11" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B65" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11660,7 +11670,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="11" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B66" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11673,7 +11683,7 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="11" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B67" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11686,7 +11696,7 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="11" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B68" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11699,7 +11709,7 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="11" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B69" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11712,7 +11722,7 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="11" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B70" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11725,7 +11735,7 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="11" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B71" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11738,7 +11748,7 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="11" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B72" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11751,7 +11761,7 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="11" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B73" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11764,7 +11774,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="11" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B74" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11777,7 +11787,7 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="11" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B75" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11790,7 +11800,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="11" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B76" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11803,7 +11813,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="11" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B77" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11816,7 +11826,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="11" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B78" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11829,7 +11839,7 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="11" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B79" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11842,7 +11852,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="11" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B80" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11855,7 +11865,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="11" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B81" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11868,7 +11878,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="11" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B82" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11881,7 +11891,7 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="11" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B83" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11894,7 +11904,7 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="11" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B84" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11907,7 +11917,7 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="11" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B85" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11920,7 +11930,7 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="11" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B86" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11933,7 +11943,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="11" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B87" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11946,7 +11956,7 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="11" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B88" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11959,7 +11969,7 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="10" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B89" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11972,7 +11982,7 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="11" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B90" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11985,7 +11995,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="11" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B91" s="11" t="str">
         <f t="shared" si="1"/>
@@ -11998,7 +12008,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="11" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B92" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12011,7 +12021,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="11" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B93" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12024,7 +12034,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="11" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B94" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12037,7 +12047,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="11" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B95" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12050,7 +12060,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="11" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B96" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12063,7 +12073,7 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="11" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B97" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12076,7 +12086,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="11" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B98" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12089,7 +12099,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="11" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B99" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12102,7 +12112,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="11" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B100" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12115,7 +12125,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="11" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B101" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12128,7 +12138,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="11" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B102" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12141,7 +12151,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="11" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B103" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12154,7 +12164,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="11" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B104" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12167,7 +12177,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="11" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B105" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12180,7 +12190,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="11" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B106" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12193,7 +12203,7 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="11" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B107" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12206,7 +12216,7 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="11" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B108" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12219,7 +12229,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="11" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B109" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12232,7 +12242,7 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="11" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B110" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12245,7 +12255,7 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="11" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B111" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12258,7 +12268,7 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="11" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B112" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12271,7 +12281,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="11" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B113" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12284,7 +12294,7 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="11" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B114" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12297,7 +12307,7 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="11" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B115" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12310,7 +12320,7 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="11" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B116" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12323,7 +12333,7 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="11" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B117" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12336,7 +12346,7 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="11" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B118" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12349,7 +12359,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="11" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B119" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12362,7 +12372,7 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="11" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B120" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12375,7 +12385,7 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="11" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B121" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12388,7 +12398,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="10" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B122" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12401,7 +12411,7 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="10" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B123" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12414,7 +12424,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="10" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B124" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12427,7 +12437,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="11" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B125" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12440,7 +12450,7 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="11" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B126" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12453,7 +12463,7 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="11" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B127" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12466,7 +12476,7 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="11" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B128" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12479,7 +12489,7 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="11" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B129" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12492,7 +12502,7 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="11" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B130" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12505,7 +12515,7 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="10" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B131" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12518,7 +12528,7 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="10" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B132" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12531,7 +12541,7 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="11" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B133" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12544,7 +12554,7 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="11" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B134" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12557,7 +12567,7 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="11" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B135" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12570,7 +12580,7 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="11" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B136" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12583,7 +12593,7 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="11" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B137" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12596,7 +12606,7 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="11" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B138" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12609,7 +12619,7 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="11" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B139" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12622,7 +12632,7 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="11" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B140" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12635,7 +12645,7 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="11" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B141" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12648,7 +12658,7 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="11" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B142" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12661,7 +12671,7 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="11" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B143" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12674,7 +12684,7 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="11" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B144" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12687,7 +12697,7 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="11" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B145" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12700,7 +12710,7 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="11" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B146" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12713,7 +12723,7 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="11" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B147" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12726,7 +12736,7 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="11" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B148" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12739,7 +12749,7 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="11" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B149" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12752,7 +12762,7 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="11" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B150" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12765,7 +12775,7 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="11" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B151" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12778,7 +12788,7 @@
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="11" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B152" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12791,7 +12801,7 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="11" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B153" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12804,7 +12814,7 @@
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="11" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B154" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12817,7 +12827,7 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="11" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B155" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12830,7 +12840,7 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="11" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B156" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12843,7 +12853,7 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="11" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B157" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12856,7 +12866,7 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="10" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B158" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12869,7 +12879,7 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="11" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B159" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12882,7 +12892,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="11" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B160" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12895,7 +12905,7 @@
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="11" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B161" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12908,7 +12918,7 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="11" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B162" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12921,7 +12931,7 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="10" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B163" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12934,7 +12944,7 @@
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="11" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B164" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12947,7 +12957,7 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="10" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B165" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12960,7 +12970,7 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="11" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B166" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12973,7 +12983,7 @@
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="11" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B167" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12986,7 +12996,7 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="11" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B168" s="11" t="str">
         <f t="shared" si="1"/>
@@ -12999,7 +13009,7 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="11" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B169" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13012,7 +13022,7 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="11" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B170" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13025,7 +13035,7 @@
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="10" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B171" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13038,7 +13048,7 @@
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="10" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B172" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13051,7 +13061,7 @@
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="11" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B173" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13064,7 +13074,7 @@
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="10" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B174" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13077,7 +13087,7 @@
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="11" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B175" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13090,7 +13100,7 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="11" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B176" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13103,7 +13113,7 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="11" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B177" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13116,7 +13126,7 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="11" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B178" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13129,7 +13139,7 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="11" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B179" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13142,7 +13152,7 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="11" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B180" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13155,7 +13165,7 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="11" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B181" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13168,7 +13178,7 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="11" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B182" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13181,7 +13191,7 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="11" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B183" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13194,7 +13204,7 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="10" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B184" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13207,7 +13217,7 @@
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="10" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B185" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13220,7 +13230,7 @@
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="11" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B186" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13233,7 +13243,7 @@
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="11" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B187" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13246,7 +13256,7 @@
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="11" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B188" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13259,7 +13269,7 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="11" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B189" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13272,7 +13282,7 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="11" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B190" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13285,7 +13295,7 @@
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="11" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B191" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13298,7 +13308,7 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="11" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B192" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13311,7 +13321,7 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="11" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B193" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13324,7 +13334,7 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="11" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B194" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13337,7 +13347,7 @@
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="10" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B195" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13350,7 +13360,7 @@
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="11" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B196" s="11" t="str">
         <f t="shared" si="1"/>
@@ -13363,7 +13373,7 @@
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="11" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B197" s="11" t="str">
         <f t="shared" si="1"/>
